--- a/static/pricelist/SEK/safespring-price-list-sek.xlsx
+++ b/static/pricelist/SEK/safespring-price-list-sek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/GitHub/web/static/pricelist/SEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D4A29D-AAED-B942-9DA1-D383B2458E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D8DAFD-7C79-6845-9F91-F7A75D54F958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GMZGECRs9gE9j4GtVb81gkAe1Stt/220CjX3oe4Ol7DJkEfcKg2igJIbq605a/QVr9/qMbvD7pIVJqQbwMYibg==" workbookSaltValue="V2EQBqWVqwlZRkqKT46MJw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -4525,15 +4525,6 @@
     </r>
   </si>
   <si>
-    <t>Priskalkylator 2022-09-27</t>
-  </si>
-  <si>
-    <t>Price calculator 2022-09-27</t>
-  </si>
-  <si>
-    <t>Priskalkulator 27.09.2022</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -4655,6 +4646,15 @@
       </rPr>
       <t>stackn.jupyter.user</t>
     </r>
+  </si>
+  <si>
+    <t>Priskalkylator 2022-12-16</t>
+  </si>
+  <si>
+    <t>Price calculator 2022-12-16</t>
+  </si>
+  <si>
+    <t>Priskalkulator 16.12.2022</t>
   </si>
 </sst>
 </file>
@@ -13710,7 +13710,7 @@
     <row r="5" spans="1:26" ht="25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="633" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="2"/>
@@ -17508,12 +17508,12 @@
     </row>
     <row r="179" spans="2:20" ht="25" customHeight="1">
       <c r="B179" s="137" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C179" s="130"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F179" s="777"/>
       <c r="G179" s="777"/>
@@ -17529,12 +17529,12 @@
     </row>
     <row r="180" spans="2:20" ht="25" customHeight="1">
       <c r="B180" s="948" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C180" s="129"/>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -17550,18 +17550,18 @@
     </row>
     <row r="181" spans="2:20" ht="25" customHeight="1">
       <c r="B181" s="949" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C181" s="130"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F181" s="777"/>
       <c r="G181" s="777"/>
       <c r="H181" s="777"/>
       <c r="I181" s="777" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J181" s="785"/>
       <c r="K181" s="947">
@@ -17573,12 +17573,12 @@
     </row>
     <row r="182" spans="2:20" ht="25" customHeight="1">
       <c r="B182" s="134" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C182" s="129"/>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -18798,7 +18798,7 @@
     </row>
     <row r="247" spans="1:23" s="112" customFormat="1" ht="25" customHeight="1">
       <c r="B247" s="946" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C247" s="108"/>
       <c r="D247" s="108"/>
@@ -19444,7 +19444,7 @@
       <c r="D334" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EO1RS18n+gaNEVoOZo1iJA7yZGJHJVsuEJRqWZ2iftUCv3qhAw67jy0KRjLBcbMVt63La0+IMw+9oddVjcL38A==" saltValue="YIJeAk2ssW5qEJgE2qcT/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1JgHfAQNGFT315bFAFv1V7sqnSlUUSceLOo2dZkt3RODibUSyGzaNmb3sSzdkkmsWlF9zNbotl7sa8uoWGDyAA==" saltValue="0Mx18llVOWMKvAT/1rqS8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="43">
     <mergeCell ref="B224:G226"/>
     <mergeCell ref="B227:F227"/>
@@ -19511,7 +19511,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="16" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="15" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P av &amp;N</oddFooter>
   </headerFooter>
@@ -19690,7 +19690,7 @@
     <row r="5" spans="1:26" ht="25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="633" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="2"/>
@@ -23479,12 +23479,12 @@
     </row>
     <row r="179" spans="2:20" ht="25" customHeight="1">
       <c r="B179" s="137" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C179" s="130"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F179" s="777"/>
       <c r="G179" s="777"/>
@@ -23500,12 +23500,12 @@
     </row>
     <row r="180" spans="2:20" ht="25" customHeight="1">
       <c r="B180" s="948" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C180" s="129"/>
       <c r="D180" s="30"/>
       <c r="E180" s="30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -23521,18 +23521,18 @@
     </row>
     <row r="181" spans="2:20" ht="25" customHeight="1">
       <c r="B181" s="949" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C181" s="130"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F181" s="777"/>
       <c r="G181" s="777"/>
       <c r="H181" s="777"/>
       <c r="I181" s="777" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J181" s="785"/>
       <c r="K181" s="924">
@@ -23544,12 +23544,12 @@
     </row>
     <row r="182" spans="2:20" ht="25" customHeight="1">
       <c r="B182" s="134" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C182" s="129"/>
       <c r="D182" s="30"/>
       <c r="E182" s="30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -24769,7 +24769,7 @@
     </row>
     <row r="247" spans="1:23" s="112" customFormat="1" ht="25" customHeight="1">
       <c r="B247" s="946" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C247" s="108"/>
       <c r="D247" s="108"/>
@@ -25415,7 +25415,7 @@
       <c r="D334" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WqY3OAPzc0zyfaHinFi6p3UtNMhRXjRdOWOCq1s9sjHxGOUqvKp2TGmTdMCW+NaS8ZJv2qotykv16g9VJoZmoA==" saltValue="G4zxNpOxS/BLjjV5gaB4Iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2escFr6TSmHxV1nL9chh0geIbe5YC2a09fqiDCLR+LuhNz325NQ9L498ANT4OT3ncmkhj5PYjd2X4MU7hnfF5g==" saltValue="JlwFjJrnSm9Bx0KlQp/6pA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
     <mergeCell ref="B189:F189"/>
     <mergeCell ref="B190:F190"/>
@@ -25481,7 +25481,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="16" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="15" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P av &amp;N</oddFooter>
   </headerFooter>
@@ -32697,7 +32697,7 @@
     <row r="5" spans="1:26" ht="25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="633" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="2"/>
@@ -36511,12 +36511,12 @@
     </row>
     <row r="180" spans="2:15" ht="25" customHeight="1">
       <c r="B180" s="137" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C180" s="130"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F180" s="777"/>
       <c r="G180" s="777"/>
@@ -36532,12 +36532,12 @@
     </row>
     <row r="181" spans="2:15" ht="25" customHeight="1">
       <c r="B181" s="948" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C181" s="129"/>
       <c r="D181" s="30"/>
       <c r="E181" s="30" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -36553,18 +36553,18 @@
     </row>
     <row r="182" spans="2:15" ht="25" customHeight="1">
       <c r="B182" s="949" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C182" s="130"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F182" s="777"/>
       <c r="G182" s="777"/>
       <c r="H182" s="777"/>
       <c r="I182" s="777" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J182" s="785"/>
       <c r="K182" s="947">
@@ -36576,12 +36576,12 @@
     </row>
     <row r="183" spans="2:15" ht="25" customHeight="1">
       <c r="B183" s="134" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C183" s="129"/>
       <c r="D183" s="30"/>
       <c r="E183" s="30" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -37801,7 +37801,7 @@
     </row>
     <row r="248" spans="1:23" s="112" customFormat="1" ht="25" customHeight="1">
       <c r="B248" s="946" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C248" s="108"/>
       <c r="D248" s="108"/>
@@ -38447,7 +38447,7 @@
       <c r="D335" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E4QvaOcDI/B3S3m5vm/Zbdme9oUJpoqxx/SCE/CGP30xpHVCo+nvdV3X2B1+1IAK4+C+nQ3Rfw0ecUaupT8A4w==" saltValue="2ieA9WMID1uhTP+pQ0UOfg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="u3Q3deForWFKUEB5mXWrh7GF+S0IHjEy8i3eqrpx9dqPNcygZUSIDXbqkSDCK5/Ieu4Bzaxr8n56DljDHI3DjA==" saltValue="mmm11zczJ02+ZMJ5XPwnnQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="47">
     <mergeCell ref="B190:F190"/>
     <mergeCell ref="B191:F191"/>
@@ -38518,7 +38518,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="16" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="15" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P av &amp;N</oddFooter>
   </headerFooter>

--- a/static/pricelist/SEK/safespring-price-list-sek.xlsx
+++ b/static/pricelist/SEK/safespring-price-list-sek.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcus/GitHub/web/static/pricelist/SEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A349E2-6BEA-6541-9D0A-A5EB51D270EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B65E79-BAD7-6744-8E6D-159A307A264E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Xb07t0USgf8srcbMrord74wOLX6hN1lL44nHlEamJxZME09o0FbeKv+VuD2RyQP/IObx9r49RiTkrZoWqaVHhA==" workbookSaltValue="wMi/GZUi5eITM2OoOUqu9g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEK - Safesprings tjänster 2024" sheetId="3" r:id="rId1"/>
@@ -9990,6 +9990,82 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
@@ -9998,92 +10074,120 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="57" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="57" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="165" fontId="57" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10094,100 +10198,32 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+    <xf numFmtId="169" fontId="57" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="175" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10196,10 +10232,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -10258,26 +10290,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="57" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="57" fillId="7" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
@@ -10286,136 +10298,164 @@
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="169" fontId="57" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="57" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="8" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -10432,46 +10472,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="6" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="37" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -13866,8 +13866,8 @@
     </row>
     <row r="4" spans="1:26" ht="25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="985"/>
-      <c r="C4" s="985"/>
+      <c r="B4" s="993"/>
+      <c r="C4" s="993"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -14028,14 +14028,14 @@
       <c r="M14" s="664"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B15" s="980" t="s">
+      <c r="B15" s="978" t="s">
         <v>582</v>
       </c>
-      <c r="C15" s="980"/>
-      <c r="D15" s="980"/>
-      <c r="E15" s="980"/>
-      <c r="F15" s="980"/>
-      <c r="G15" s="980"/>
+      <c r="C15" s="978"/>
+      <c r="D15" s="978"/>
+      <c r="E15" s="978"/>
+      <c r="F15" s="978"/>
+      <c r="G15" s="978"/>
       <c r="H15" s="672"/>
       <c r="J15" s="674"/>
       <c r="K15" s="833"/>
@@ -14047,12 +14047,12 @@
       <c r="Z15" s="675"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B16" s="980"/>
-      <c r="C16" s="980"/>
-      <c r="D16" s="980"/>
-      <c r="E16" s="980"/>
-      <c r="F16" s="980"/>
-      <c r="G16" s="980"/>
+      <c r="B16" s="978"/>
+      <c r="C16" s="978"/>
+      <c r="D16" s="978"/>
+      <c r="E16" s="978"/>
+      <c r="F16" s="978"/>
+      <c r="G16" s="978"/>
       <c r="H16" s="672"/>
       <c r="J16" s="674"/>
       <c r="K16" s="833"/>
@@ -14064,12 +14064,12 @@
       <c r="Z16" s="675"/>
     </row>
     <row r="17" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B17" s="980"/>
-      <c r="C17" s="980"/>
-      <c r="D17" s="980"/>
-      <c r="E17" s="980"/>
-      <c r="F17" s="980"/>
-      <c r="G17" s="980"/>
+      <c r="B17" s="978"/>
+      <c r="C17" s="978"/>
+      <c r="D17" s="978"/>
+      <c r="E17" s="978"/>
+      <c r="F17" s="978"/>
+      <c r="G17" s="978"/>
       <c r="H17" s="672"/>
       <c r="J17" s="674"/>
       <c r="K17" s="833"/>
@@ -14103,13 +14103,13 @@
       <c r="Z18" s="675"/>
     </row>
     <row r="19" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B19" s="982" t="s">
+      <c r="B19" s="994" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="982"/>
-      <c r="D19" s="982"/>
-      <c r="E19" s="982"/>
-      <c r="F19" s="982"/>
+      <c r="C19" s="994"/>
+      <c r="D19" s="994"/>
+      <c r="E19" s="994"/>
+      <c r="F19" s="994"/>
       <c r="G19" s="677"/>
       <c r="H19" s="678"/>
       <c r="J19" s="679"/>
@@ -14218,12 +14218,12 @@
       <c r="R23" s="685"/>
     </row>
     <row r="24" spans="2:26" ht="25" customHeight="1">
-      <c r="B24" s="986" t="s">
+      <c r="B24" s="995" t="s">
         <v>631</v>
       </c>
-      <c r="C24" s="986"/>
-      <c r="D24" s="986"/>
-      <c r="E24" s="986"/>
+      <c r="C24" s="995"/>
+      <c r="D24" s="995"/>
+      <c r="E24" s="995"/>
       <c r="M24" s="664"/>
     </row>
     <row r="25" spans="2:26" s="651" customFormat="1" ht="25" customHeight="1">
@@ -14797,12 +14797,12 @@
       <c r="M44" s="664"/>
     </row>
     <row r="45" spans="2:19" ht="25" customHeight="1">
-      <c r="B45" s="986" t="s">
+      <c r="B45" s="995" t="s">
         <v>631</v>
       </c>
-      <c r="C45" s="986"/>
-      <c r="D45" s="986"/>
-      <c r="E45" s="986"/>
+      <c r="C45" s="995"/>
+      <c r="D45" s="995"/>
+      <c r="E45" s="995"/>
       <c r="M45" s="664"/>
     </row>
     <row r="46" spans="2:19" s="706" customFormat="1" ht="25" customHeight="1">
@@ -15231,12 +15231,12 @@
       <c r="T59" s="714"/>
     </row>
     <row r="60" spans="1:20" ht="25" hidden="1" customHeight="1">
-      <c r="B60" s="987" t="s">
+      <c r="B60" s="996" t="s">
         <v>577</v>
       </c>
-      <c r="C60" s="987"/>
-      <c r="D60" s="987"/>
-      <c r="E60" s="987"/>
+      <c r="C60" s="996"/>
+      <c r="D60" s="996"/>
+      <c r="E60" s="996"/>
       <c r="M60" s="664"/>
     </row>
     <row r="61" spans="1:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -15496,12 +15496,12 @@
       <c r="R69" s="685"/>
     </row>
     <row r="70" spans="2:20" ht="25" hidden="1" customHeight="1">
-      <c r="B70" s="987" t="s">
+      <c r="B70" s="996" t="s">
         <v>577</v>
       </c>
-      <c r="C70" s="987"/>
-      <c r="D70" s="987"/>
-      <c r="E70" s="987"/>
+      <c r="C70" s="996"/>
+      <c r="D70" s="996"/>
+      <c r="E70" s="996"/>
       <c r="M70" s="664"/>
     </row>
     <row r="71" spans="2:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -15886,44 +15886,44 @@
       <c r="M86" s="664"/>
     </row>
     <row r="87" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B87" s="980" t="s">
+      <c r="B87" s="978" t="s">
         <v>583</v>
       </c>
-      <c r="C87" s="980"/>
-      <c r="D87" s="980"/>
-      <c r="E87" s="980"/>
-      <c r="F87" s="980"/>
-      <c r="G87" s="980"/>
-      <c r="H87" s="980"/>
-      <c r="I87" s="980"/>
-      <c r="J87" s="980"/>
-      <c r="K87" s="980"/>
+      <c r="C87" s="978"/>
+      <c r="D87" s="978"/>
+      <c r="E87" s="978"/>
+      <c r="F87" s="978"/>
+      <c r="G87" s="978"/>
+      <c r="H87" s="978"/>
+      <c r="I87" s="978"/>
+      <c r="J87" s="978"/>
+      <c r="K87" s="978"/>
       <c r="M87" s="664"/>
     </row>
     <row r="88" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B88" s="980"/>
-      <c r="C88" s="980"/>
-      <c r="D88" s="980"/>
-      <c r="E88" s="980"/>
-      <c r="F88" s="980"/>
-      <c r="G88" s="980"/>
-      <c r="H88" s="980"/>
-      <c r="I88" s="980"/>
-      <c r="J88" s="980"/>
-      <c r="K88" s="980"/>
+      <c r="B88" s="978"/>
+      <c r="C88" s="978"/>
+      <c r="D88" s="978"/>
+      <c r="E88" s="978"/>
+      <c r="F88" s="978"/>
+      <c r="G88" s="978"/>
+      <c r="H88" s="978"/>
+      <c r="I88" s="978"/>
+      <c r="J88" s="978"/>
+      <c r="K88" s="978"/>
       <c r="M88" s="664"/>
     </row>
     <row r="89" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B89" s="980"/>
-      <c r="C89" s="980"/>
-      <c r="D89" s="980"/>
-      <c r="E89" s="980"/>
-      <c r="F89" s="980"/>
-      <c r="G89" s="980"/>
-      <c r="H89" s="980"/>
-      <c r="I89" s="980"/>
-      <c r="J89" s="980"/>
-      <c r="K89" s="980"/>
+      <c r="B89" s="978"/>
+      <c r="C89" s="978"/>
+      <c r="D89" s="978"/>
+      <c r="E89" s="978"/>
+      <c r="F89" s="978"/>
+      <c r="G89" s="978"/>
+      <c r="H89" s="978"/>
+      <c r="I89" s="978"/>
+      <c r="J89" s="978"/>
+      <c r="K89" s="978"/>
       <c r="M89" s="664"/>
     </row>
     <row r="90" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
@@ -16123,14 +16123,14 @@
       <c r="C100" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="984" t="s">
+      <c r="D100" s="992" t="s">
         <v>225</v>
       </c>
-      <c r="E100" s="984"/>
-      <c r="F100" s="984"/>
-      <c r="G100" s="984"/>
-      <c r="H100" s="984"/>
-      <c r="I100" s="984"/>
+      <c r="E100" s="992"/>
+      <c r="F100" s="992"/>
+      <c r="G100" s="992"/>
+      <c r="H100" s="992"/>
+      <c r="I100" s="992"/>
       <c r="J100" s="131"/>
       <c r="K100" s="612"/>
       <c r="L100" s="680"/>
@@ -16171,15 +16171,15 @@
       <c r="C102" s="604" t="s">
         <v>415</v>
       </c>
-      <c r="D102" s="983">
+      <c r="D102" s="991">
         <f>S3_archive.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E102" s="983"/>
-      <c r="F102" s="983"/>
-      <c r="G102" s="983"/>
-      <c r="H102" s="983"/>
-      <c r="I102" s="983"/>
+      <c r="E102" s="991"/>
+      <c r="F102" s="991"/>
+      <c r="G102" s="991"/>
+      <c r="H102" s="991"/>
+      <c r="I102" s="991"/>
       <c r="J102" s="884"/>
       <c r="K102" s="849"/>
       <c r="L102" s="680"/>
@@ -16193,15 +16193,15 @@
       <c r="C103" s="616" t="s">
         <v>416</v>
       </c>
-      <c r="D103" s="988">
+      <c r="D103" s="989">
         <f>S3_archive.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E103" s="988"/>
-      <c r="F103" s="988"/>
-      <c r="G103" s="988"/>
-      <c r="H103" s="988"/>
-      <c r="I103" s="988"/>
+      <c r="E103" s="989"/>
+      <c r="F103" s="989"/>
+      <c r="G103" s="989"/>
+      <c r="H103" s="989"/>
+      <c r="I103" s="989"/>
       <c r="J103" s="886"/>
       <c r="K103" s="850"/>
       <c r="L103" s="680"/>
@@ -16215,15 +16215,15 @@
       <c r="C104" s="604" t="s">
         <v>417</v>
       </c>
-      <c r="D104" s="990">
+      <c r="D104" s="980">
         <f>S3_archive.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E104" s="990"/>
-      <c r="F104" s="990"/>
-      <c r="G104" s="990"/>
-      <c r="H104" s="990"/>
-      <c r="I104" s="990"/>
+      <c r="E104" s="980"/>
+      <c r="F104" s="980"/>
+      <c r="G104" s="980"/>
+      <c r="H104" s="980"/>
+      <c r="I104" s="980"/>
       <c r="J104" s="887"/>
       <c r="K104" s="851"/>
       <c r="L104" s="680"/>
@@ -16237,15 +16237,15 @@
       <c r="C105" s="616" t="s">
         <v>418</v>
       </c>
-      <c r="D105" s="988">
+      <c r="D105" s="989">
         <f>S3_archive.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E105" s="988"/>
-      <c r="F105" s="988"/>
-      <c r="G105" s="988"/>
-      <c r="H105" s="988"/>
-      <c r="I105" s="988"/>
+      <c r="E105" s="989"/>
+      <c r="F105" s="989"/>
+      <c r="G105" s="989"/>
+      <c r="H105" s="989"/>
+      <c r="I105" s="989"/>
       <c r="J105" s="886"/>
       <c r="K105" s="850"/>
       <c r="L105" s="680"/>
@@ -16259,15 +16259,15 @@
       <c r="C106" s="608" t="s">
         <v>419</v>
       </c>
-      <c r="D106" s="989" t="str">
+      <c r="D106" s="990" t="str">
         <f>S3_archive.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E106" s="989"/>
-      <c r="F106" s="989"/>
-      <c r="G106" s="989"/>
-      <c r="H106" s="989"/>
-      <c r="I106" s="989"/>
+      <c r="E106" s="990"/>
+      <c r="F106" s="990"/>
+      <c r="G106" s="990"/>
+      <c r="H106" s="990"/>
+      <c r="I106" s="990"/>
       <c r="J106" s="885"/>
       <c r="K106" s="852"/>
       <c r="L106" s="680"/>
@@ -16331,14 +16331,14 @@
       <c r="Q109" s="4"/>
     </row>
     <row r="110" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B110" s="980" t="s">
+      <c r="B110" s="978" t="s">
         <v>589</v>
       </c>
-      <c r="C110" s="980"/>
-      <c r="D110" s="980"/>
-      <c r="E110" s="980"/>
-      <c r="F110" s="980"/>
-      <c r="G110" s="980"/>
+      <c r="C110" s="978"/>
+      <c r="D110" s="978"/>
+      <c r="E110" s="978"/>
+      <c r="F110" s="978"/>
+      <c r="G110" s="978"/>
       <c r="H110" s="672"/>
       <c r="J110" s="674"/>
       <c r="K110" s="833"/>
@@ -16346,12 +16346,12 @@
       <c r="M110" s="664"/>
     </row>
     <row r="111" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B111" s="980"/>
-      <c r="C111" s="980"/>
-      <c r="D111" s="980"/>
-      <c r="E111" s="980"/>
-      <c r="F111" s="980"/>
-      <c r="G111" s="980"/>
+      <c r="B111" s="978"/>
+      <c r="C111" s="978"/>
+      <c r="D111" s="978"/>
+      <c r="E111" s="978"/>
+      <c r="F111" s="978"/>
+      <c r="G111" s="978"/>
       <c r="H111" s="672"/>
       <c r="J111" s="674"/>
       <c r="K111" s="833"/>
@@ -16359,12 +16359,12 @@
       <c r="M111" s="664"/>
     </row>
     <row r="112" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B112" s="980"/>
-      <c r="C112" s="980"/>
-      <c r="D112" s="980"/>
-      <c r="E112" s="980"/>
-      <c r="F112" s="980"/>
-      <c r="G112" s="980"/>
+      <c r="B112" s="978"/>
+      <c r="C112" s="978"/>
+      <c r="D112" s="978"/>
+      <c r="E112" s="978"/>
+      <c r="F112" s="978"/>
+      <c r="G112" s="978"/>
       <c r="H112" s="672"/>
       <c r="J112" s="674"/>
       <c r="K112" s="833"/>
@@ -16647,14 +16647,14 @@
       <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B125" s="980" t="s">
+      <c r="B125" s="978" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="980"/>
-      <c r="D125" s="980"/>
-      <c r="E125" s="980"/>
-      <c r="F125" s="980"/>
-      <c r="G125" s="980"/>
+      <c r="C125" s="978"/>
+      <c r="D125" s="978"/>
+      <c r="E125" s="978"/>
+      <c r="F125" s="978"/>
+      <c r="G125" s="978"/>
       <c r="H125" s="672"/>
       <c r="J125" s="674"/>
       <c r="K125" s="833"/>
@@ -16662,12 +16662,12 @@
       <c r="M125" s="664"/>
     </row>
     <row r="126" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B126" s="980"/>
-      <c r="C126" s="980"/>
-      <c r="D126" s="980"/>
-      <c r="E126" s="980"/>
-      <c r="F126" s="980"/>
-      <c r="G126" s="980"/>
+      <c r="B126" s="978"/>
+      <c r="C126" s="978"/>
+      <c r="D126" s="978"/>
+      <c r="E126" s="978"/>
+      <c r="F126" s="978"/>
+      <c r="G126" s="978"/>
       <c r="H126" s="672"/>
       <c r="J126" s="674"/>
       <c r="K126" s="833"/>
@@ -16675,12 +16675,12 @@
       <c r="M126" s="664"/>
     </row>
     <row r="127" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B127" s="980"/>
-      <c r="C127" s="980"/>
-      <c r="D127" s="980"/>
-      <c r="E127" s="980"/>
-      <c r="F127" s="980"/>
-      <c r="G127" s="980"/>
+      <c r="B127" s="978"/>
+      <c r="C127" s="978"/>
+      <c r="D127" s="978"/>
+      <c r="E127" s="978"/>
+      <c r="F127" s="978"/>
+      <c r="G127" s="978"/>
       <c r="H127" s="672"/>
       <c r="J127" s="674"/>
       <c r="K127" s="833"/>
@@ -16764,18 +16764,18 @@
       <c r="B132" s="444" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="991" t="s">
+      <c r="C132" s="979" t="s">
         <v>430</v>
       </c>
-      <c r="D132" s="991"/>
-      <c r="E132" s="991" t="s">
+      <c r="D132" s="979"/>
+      <c r="E132" s="979" t="s">
         <v>431</v>
       </c>
-      <c r="F132" s="991"/>
-      <c r="G132" s="991" t="s">
+      <c r="F132" s="979"/>
+      <c r="G132" s="979" t="s">
         <v>228</v>
       </c>
-      <c r="H132" s="991"/>
+      <c r="H132" s="979"/>
       <c r="I132" s="24"/>
       <c r="J132" s="24"/>
       <c r="K132" s="612" t="s">
@@ -16788,18 +16788,18 @@
       <c r="B133" s="826" t="s">
         <v>457</v>
       </c>
-      <c r="C133" s="996" t="s">
+      <c r="C133" s="985" t="s">
         <v>517</v>
       </c>
-      <c r="D133" s="996"/>
-      <c r="E133" s="998" t="s">
+      <c r="D133" s="985"/>
+      <c r="E133" s="987" t="s">
         <v>429</v>
       </c>
-      <c r="F133" s="998"/>
-      <c r="G133" s="992">
+      <c r="F133" s="987"/>
+      <c r="G133" s="981">
         <v>15000</v>
       </c>
-      <c r="H133" s="993"/>
+      <c r="H133" s="982"/>
       <c r="I133" s="749"/>
       <c r="J133" s="911">
         <v>0</v>
@@ -16815,18 +16815,18 @@
       <c r="B134" s="137" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="997" t="s">
+      <c r="C134" s="986" t="s">
         <v>428</v>
       </c>
-      <c r="D134" s="997"/>
-      <c r="E134" s="999" t="s">
+      <c r="D134" s="986"/>
+      <c r="E134" s="988" t="s">
         <v>432</v>
       </c>
-      <c r="F134" s="999"/>
-      <c r="G134" s="994">
+      <c r="F134" s="988"/>
+      <c r="G134" s="983">
         <v>24000</v>
       </c>
-      <c r="H134" s="995"/>
+      <c r="H134" s="984"/>
       <c r="I134" s="753"/>
       <c r="J134" s="738"/>
       <c r="K134" s="855" t="str">
@@ -16932,38 +16932,38 @@
       <c r="S138" s="729"/>
     </row>
     <row r="139" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B139" s="980" t="s">
+      <c r="B139" s="978" t="s">
         <v>639</v>
       </c>
-      <c r="C139" s="980"/>
-      <c r="D139" s="980"/>
-      <c r="E139" s="980"/>
-      <c r="F139" s="980"/>
-      <c r="G139" s="980"/>
+      <c r="C139" s="978"/>
+      <c r="D139" s="978"/>
+      <c r="E139" s="978"/>
+      <c r="F139" s="978"/>
+      <c r="G139" s="978"/>
       <c r="H139" s="672"/>
       <c r="J139" s="674"/>
       <c r="K139" s="833"/>
       <c r="M139" s="664"/>
     </row>
     <row r="140" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B140" s="980"/>
-      <c r="C140" s="980"/>
-      <c r="D140" s="980"/>
-      <c r="E140" s="980"/>
-      <c r="F140" s="980"/>
-      <c r="G140" s="980"/>
+      <c r="B140" s="978"/>
+      <c r="C140" s="978"/>
+      <c r="D140" s="978"/>
+      <c r="E140" s="978"/>
+      <c r="F140" s="978"/>
+      <c r="G140" s="978"/>
       <c r="H140" s="672"/>
       <c r="J140" s="674"/>
       <c r="K140" s="833"/>
       <c r="M140" s="664"/>
     </row>
     <row r="141" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B141" s="980"/>
-      <c r="C141" s="980"/>
-      <c r="D141" s="980"/>
-      <c r="E141" s="980"/>
-      <c r="F141" s="980"/>
-      <c r="G141" s="980"/>
+      <c r="B141" s="978"/>
+      <c r="C141" s="978"/>
+      <c r="D141" s="978"/>
+      <c r="E141" s="978"/>
+      <c r="F141" s="978"/>
+      <c r="G141" s="978"/>
       <c r="H141" s="672"/>
       <c r="J141" s="674"/>
       <c r="K141" s="833"/>
@@ -17559,7 +17559,7 @@
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
       <c r="J173" s="40"/>
-      <c r="K173" s="629" t="str">
+      <c r="K173" s="868" t="str">
         <f>PAAS_man.elasticsearch_SEK</f>
         <v>Begär offert</v>
       </c>
@@ -17590,20 +17590,20 @@
       <c r="O174" s="8"/>
     </row>
     <row r="175" spans="2:18" ht="25" customHeight="1">
-      <c r="B175" s="137" t="s">
+      <c r="B175" s="134" t="s">
         <v>471</v>
       </c>
-      <c r="C175" s="130"/>
-      <c r="D175" s="38"/>
-      <c r="E175" s="38" t="s">
+      <c r="C175" s="129"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F175" s="771"/>
-      <c r="G175" s="771"/>
-      <c r="H175" s="771"/>
-      <c r="I175" s="771"/>
-      <c r="J175" s="779"/>
-      <c r="K175" s="867" t="str">
+      <c r="F175" s="30"/>
+      <c r="G175" s="30"/>
+      <c r="H175" s="30"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="868" t="str">
         <f>PAAS_man.nats_SEK</f>
         <v>Begär offert</v>
       </c>
@@ -17612,20 +17612,20 @@
       <c r="O175" s="8"/>
     </row>
     <row r="176" spans="2:18" ht="25" customHeight="1">
-      <c r="B176" s="134" t="s">
+      <c r="B176" s="137" t="s">
         <v>472</v>
       </c>
-      <c r="C176" s="129"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30" t="s">
+      <c r="C176" s="130"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="30"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="629" t="str">
+      <c r="F176" s="771"/>
+      <c r="G176" s="771"/>
+      <c r="H176" s="771"/>
+      <c r="I176" s="771"/>
+      <c r="J176" s="779"/>
+      <c r="K176" s="867" t="str">
         <f>PAAS_man.mariadb_SEK</f>
         <v>Begär offert</v>
       </c>
@@ -17634,20 +17634,20 @@
       <c r="O176" s="8"/>
     </row>
     <row r="177" spans="2:20" ht="25" customHeight="1">
-      <c r="B177" s="137" t="s">
+      <c r="B177" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="C177" s="130"/>
-      <c r="D177" s="38"/>
-      <c r="E177" s="38" t="s">
+      <c r="C177" s="129"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F177" s="771"/>
-      <c r="G177" s="771"/>
-      <c r="H177" s="771"/>
-      <c r="I177" s="771"/>
-      <c r="J177" s="779"/>
-      <c r="K177" s="867" t="s">
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="868" t="s">
         <v>245</v>
       </c>
       <c r="M177" s="664"/>
@@ -17696,64 +17696,64 @@
       <c r="O180" s="675"/>
     </row>
     <row r="181" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B181" s="980" t="s">
+      <c r="B181" s="978" t="s">
         <v>241</v>
       </c>
-      <c r="C181" s="980"/>
-      <c r="D181" s="980"/>
-      <c r="E181" s="980"/>
-      <c r="F181" s="980"/>
-      <c r="G181" s="980"/>
+      <c r="C181" s="978"/>
+      <c r="D181" s="978"/>
+      <c r="E181" s="978"/>
+      <c r="F181" s="978"/>
+      <c r="G181" s="978"/>
       <c r="H181" s="780"/>
       <c r="J181" s="674"/>
       <c r="K181" s="833"/>
       <c r="M181" s="664"/>
     </row>
     <row r="182" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B182" s="980"/>
-      <c r="C182" s="980"/>
-      <c r="D182" s="980"/>
-      <c r="E182" s="980"/>
-      <c r="F182" s="980"/>
-      <c r="G182" s="980"/>
+      <c r="B182" s="978"/>
+      <c r="C182" s="978"/>
+      <c r="D182" s="978"/>
+      <c r="E182" s="978"/>
+      <c r="F182" s="978"/>
+      <c r="G182" s="978"/>
       <c r="H182" s="780"/>
       <c r="J182" s="674"/>
       <c r="K182" s="833"/>
       <c r="M182" s="664"/>
     </row>
     <row r="183" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B183" s="980"/>
-      <c r="C183" s="980"/>
-      <c r="D183" s="980"/>
-      <c r="E183" s="980"/>
-      <c r="F183" s="980"/>
-      <c r="G183" s="980"/>
+      <c r="B183" s="978"/>
+      <c r="C183" s="978"/>
+      <c r="D183" s="978"/>
+      <c r="E183" s="978"/>
+      <c r="F183" s="978"/>
+      <c r="G183" s="978"/>
       <c r="H183" s="780"/>
       <c r="J183" s="674"/>
       <c r="K183" s="833"/>
       <c r="M183" s="664"/>
     </row>
     <row r="184" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B184" s="981" t="s">
+      <c r="B184" s="999" t="s">
         <v>493</v>
       </c>
-      <c r="C184" s="981"/>
-      <c r="D184" s="981"/>
-      <c r="E184" s="981"/>
-      <c r="F184" s="981"/>
+      <c r="C184" s="999"/>
+      <c r="D184" s="999"/>
+      <c r="E184" s="999"/>
+      <c r="F184" s="999"/>
       <c r="H184" s="780"/>
       <c r="J184" s="674"/>
       <c r="K184" s="833"/>
       <c r="M184" s="664"/>
     </row>
     <row r="185" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B185" s="982" t="s">
+      <c r="B185" s="994" t="s">
         <v>406</v>
       </c>
-      <c r="C185" s="982"/>
-      <c r="D185" s="982"/>
-      <c r="E185" s="982"/>
-      <c r="F185" s="982"/>
+      <c r="C185" s="994"/>
+      <c r="D185" s="994"/>
+      <c r="E185" s="994"/>
+      <c r="F185" s="994"/>
       <c r="G185" s="677"/>
       <c r="H185" s="678"/>
       <c r="I185" s="677"/>
@@ -18450,14 +18450,14 @@
     </row>
     <row r="219" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A219" s="3"/>
-      <c r="B219" s="978" t="s">
+      <c r="B219" s="997" t="s">
         <v>255</v>
       </c>
-      <c r="C219" s="978"/>
-      <c r="D219" s="978"/>
-      <c r="E219" s="978"/>
-      <c r="F219" s="978"/>
-      <c r="G219" s="978"/>
+      <c r="C219" s="997"/>
+      <c r="D219" s="997"/>
+      <c r="E219" s="997"/>
+      <c r="F219" s="997"/>
+      <c r="G219" s="997"/>
       <c r="H219" s="666"/>
       <c r="I219" s="793"/>
       <c r="J219" s="3"/>
@@ -18467,12 +18467,12 @@
     </row>
     <row r="220" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A220" s="3"/>
-      <c r="B220" s="978"/>
-      <c r="C220" s="978"/>
-      <c r="D220" s="978"/>
-      <c r="E220" s="978"/>
-      <c r="F220" s="978"/>
-      <c r="G220" s="978"/>
+      <c r="B220" s="997"/>
+      <c r="C220" s="997"/>
+      <c r="D220" s="997"/>
+      <c r="E220" s="997"/>
+      <c r="F220" s="997"/>
+      <c r="G220" s="997"/>
       <c r="H220" s="666"/>
       <c r="I220" s="793"/>
       <c r="J220" s="3"/>
@@ -18482,12 +18482,12 @@
     </row>
     <row r="221" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A221" s="3"/>
-      <c r="B221" s="978"/>
-      <c r="C221" s="978"/>
-      <c r="D221" s="978"/>
-      <c r="E221" s="978"/>
-      <c r="F221" s="978"/>
-      <c r="G221" s="978"/>
+      <c r="B221" s="997"/>
+      <c r="C221" s="997"/>
+      <c r="D221" s="997"/>
+      <c r="E221" s="997"/>
+      <c r="F221" s="997"/>
+      <c r="G221" s="997"/>
       <c r="H221" s="666"/>
       <c r="I221" s="793"/>
       <c r="J221" s="3"/>
@@ -18497,13 +18497,13 @@
     </row>
     <row r="222" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A222" s="3"/>
-      <c r="B222" s="979" t="s">
+      <c r="B222" s="998" t="s">
         <v>406</v>
       </c>
-      <c r="C222" s="979"/>
-      <c r="D222" s="979"/>
-      <c r="E222" s="979"/>
-      <c r="F222" s="979"/>
+      <c r="C222" s="998"/>
+      <c r="D222" s="998"/>
+      <c r="E222" s="998"/>
+      <c r="F222" s="998"/>
       <c r="G222" s="3"/>
       <c r="H222" s="666"/>
       <c r="I222" s="793"/>
@@ -19482,31 +19482,14 @@
       <c r="D328" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y5iTBmw9pT3sICkJcKSkX0RIuOCwogAKCG8jT3Ub81dtV+zMGNf/5ljXeDIY/cdsz8uL+cVWFuQBZeu1goTY6g==" saltValue="y+0zm86bg3H0BmPZAPKBdw==" spinCount="100000" sheet="1" deleteRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ny71qrfhJcsuiyKqD76ty4xFZns8TiKwA34Q7NtG9U3lYqxw/dqvo4v7WOxum856CSWP6Zz09vjZeoRVgtTPUA==" saltValue="+mz5k6pWSr/x0hS/6+9CJA==" spinCount="100000" sheet="1" deleteRows="0" selectLockedCells="1"/>
   <mergeCells count="43">
-    <mergeCell ref="B125:G127"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="B110:G112"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B219:G221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B139:G141"/>
+    <mergeCell ref="B181:G183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
     <mergeCell ref="H102:I102"/>
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="B4:C4"/>
@@ -19521,12 +19504,29 @@
     <mergeCell ref="B60:E60"/>
     <mergeCell ref="B70:E70"/>
     <mergeCell ref="B87:K89"/>
-    <mergeCell ref="B219:G221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B139:G141"/>
-    <mergeCell ref="B181:G183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="B110:G112"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B125:G127"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E132:F132"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I26:I39 K26:K39 I47:I56 K47:K56 I62:I65 K62:K65 I72:I74 K72:K74 I81:I83 K81:K83 I95:I96 K95:K96 I118:I120 K118:K120 J119:J120">
@@ -19637,8 +19637,8 @@
     </row>
     <row r="4" spans="1:26" ht="25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="985"/>
-      <c r="C4" s="985"/>
+      <c r="B4" s="993"/>
+      <c r="C4" s="993"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -19799,14 +19799,14 @@
       <c r="M14" s="664"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B15" s="980" t="s">
+      <c r="B15" s="978" t="s">
         <v>590</v>
       </c>
-      <c r="C15" s="980"/>
-      <c r="D15" s="980"/>
-      <c r="E15" s="980"/>
-      <c r="F15" s="980"/>
-      <c r="G15" s="980"/>
+      <c r="C15" s="978"/>
+      <c r="D15" s="978"/>
+      <c r="E15" s="978"/>
+      <c r="F15" s="978"/>
+      <c r="G15" s="978"/>
       <c r="H15" s="672"/>
       <c r="J15" s="674"/>
       <c r="K15" s="833"/>
@@ -19818,12 +19818,12 @@
       <c r="Z15" s="675"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B16" s="980"/>
-      <c r="C16" s="980"/>
-      <c r="D16" s="980"/>
-      <c r="E16" s="980"/>
-      <c r="F16" s="980"/>
-      <c r="G16" s="980"/>
+      <c r="B16" s="978"/>
+      <c r="C16" s="978"/>
+      <c r="D16" s="978"/>
+      <c r="E16" s="978"/>
+      <c r="F16" s="978"/>
+      <c r="G16" s="978"/>
       <c r="H16" s="672"/>
       <c r="J16" s="674"/>
       <c r="K16" s="833"/>
@@ -19835,12 +19835,12 @@
       <c r="Z16" s="675"/>
     </row>
     <row r="17" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B17" s="980"/>
-      <c r="C17" s="980"/>
-      <c r="D17" s="980"/>
-      <c r="E17" s="980"/>
-      <c r="F17" s="980"/>
-      <c r="G17" s="980"/>
+      <c r="B17" s="978"/>
+      <c r="C17" s="978"/>
+      <c r="D17" s="978"/>
+      <c r="E17" s="978"/>
+      <c r="F17" s="978"/>
+      <c r="G17" s="978"/>
       <c r="H17" s="672"/>
       <c r="J17" s="674"/>
       <c r="K17" s="833"/>
@@ -19874,13 +19874,13 @@
       <c r="Z18" s="675"/>
     </row>
     <row r="19" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B19" s="982" t="s">
+      <c r="B19" s="994" t="s">
         <v>543</v>
       </c>
-      <c r="C19" s="982"/>
-      <c r="D19" s="982"/>
-      <c r="E19" s="982"/>
-      <c r="F19" s="982"/>
+      <c r="C19" s="994"/>
+      <c r="D19" s="994"/>
+      <c r="E19" s="994"/>
+      <c r="F19" s="994"/>
       <c r="G19" s="677"/>
       <c r="H19" s="678"/>
       <c r="J19" s="679"/>
@@ -19989,12 +19989,12 @@
       <c r="R23" s="685"/>
     </row>
     <row r="24" spans="2:26" ht="25" customHeight="1">
-      <c r="B24" s="1001" t="s">
+      <c r="B24" s="1000" t="s">
         <v>719</v>
       </c>
-      <c r="C24" s="1001"/>
-      <c r="D24" s="1001"/>
-      <c r="E24" s="1001"/>
+      <c r="C24" s="1000"/>
+      <c r="D24" s="1000"/>
+      <c r="E24" s="1000"/>
       <c r="M24" s="664"/>
     </row>
     <row r="25" spans="2:26" s="651" customFormat="1" ht="25" customHeight="1">
@@ -20623,12 +20623,12 @@
       <c r="M44" s="664"/>
     </row>
     <row r="45" spans="2:18" ht="25" customHeight="1">
-      <c r="B45" s="1001" t="s">
+      <c r="B45" s="1000" t="s">
         <v>719</v>
       </c>
-      <c r="C45" s="1001"/>
-      <c r="D45" s="1001"/>
-      <c r="E45" s="1001"/>
+      <c r="C45" s="1000"/>
+      <c r="D45" s="1000"/>
+      <c r="E45" s="1000"/>
       <c r="M45" s="664"/>
     </row>
     <row r="46" spans="2:18" s="651" customFormat="1" ht="25" customHeight="1">
@@ -21090,12 +21090,12 @@
       <c r="T59" s="714"/>
     </row>
     <row r="60" spans="1:20" ht="25" hidden="1" customHeight="1">
-      <c r="B60" s="987" t="s">
+      <c r="B60" s="996" t="s">
         <v>578</v>
       </c>
-      <c r="C60" s="987"/>
-      <c r="D60" s="987"/>
-      <c r="E60" s="987"/>
+      <c r="C60" s="996"/>
+      <c r="D60" s="996"/>
+      <c r="E60" s="996"/>
       <c r="M60" s="664"/>
     </row>
     <row r="61" spans="1:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -21355,12 +21355,12 @@
       <c r="R69" s="685"/>
     </row>
     <row r="70" spans="2:20" ht="25" hidden="1" customHeight="1">
-      <c r="B70" s="987" t="s">
+      <c r="B70" s="996" t="s">
         <v>578</v>
       </c>
-      <c r="C70" s="987"/>
-      <c r="D70" s="987"/>
-      <c r="E70" s="987"/>
+      <c r="C70" s="996"/>
+      <c r="D70" s="996"/>
+      <c r="E70" s="996"/>
       <c r="M70" s="664"/>
     </row>
     <row r="71" spans="2:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -21745,38 +21745,38 @@
       <c r="M86" s="664"/>
     </row>
     <row r="87" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B87" s="980" t="s">
+      <c r="B87" s="978" t="s">
         <v>591</v>
       </c>
-      <c r="C87" s="980"/>
-      <c r="D87" s="980"/>
-      <c r="E87" s="980"/>
-      <c r="F87" s="980"/>
-      <c r="G87" s="980"/>
+      <c r="C87" s="978"/>
+      <c r="D87" s="978"/>
+      <c r="E87" s="978"/>
+      <c r="F87" s="978"/>
+      <c r="G87" s="978"/>
       <c r="H87" s="672"/>
       <c r="J87" s="674"/>
       <c r="K87" s="833"/>
       <c r="M87" s="664"/>
     </row>
     <row r="88" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B88" s="980"/>
-      <c r="C88" s="980"/>
-      <c r="D88" s="980"/>
-      <c r="E88" s="980"/>
-      <c r="F88" s="980"/>
-      <c r="G88" s="980"/>
+      <c r="B88" s="978"/>
+      <c r="C88" s="978"/>
+      <c r="D88" s="978"/>
+      <c r="E88" s="978"/>
+      <c r="F88" s="978"/>
+      <c r="G88" s="978"/>
       <c r="H88" s="672"/>
       <c r="J88" s="674"/>
       <c r="K88" s="833"/>
       <c r="M88" s="664"/>
     </row>
     <row r="89" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B89" s="980"/>
-      <c r="C89" s="980"/>
-      <c r="D89" s="980"/>
-      <c r="E89" s="980"/>
-      <c r="F89" s="980"/>
-      <c r="G89" s="980"/>
+      <c r="B89" s="978"/>
+      <c r="C89" s="978"/>
+      <c r="D89" s="978"/>
+      <c r="E89" s="978"/>
+      <c r="F89" s="978"/>
+      <c r="G89" s="978"/>
       <c r="H89" s="672"/>
       <c r="J89" s="674"/>
       <c r="K89" s="833"/>
@@ -21981,14 +21981,14 @@
       <c r="C100" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="984" t="s">
+      <c r="D100" s="992" t="s">
         <v>225</v>
       </c>
-      <c r="E100" s="984"/>
-      <c r="F100" s="984"/>
-      <c r="G100" s="984"/>
-      <c r="H100" s="984"/>
-      <c r="I100" s="984"/>
+      <c r="E100" s="992"/>
+      <c r="F100" s="992"/>
+      <c r="G100" s="992"/>
+      <c r="H100" s="992"/>
+      <c r="I100" s="992"/>
       <c r="J100" s="131"/>
       <c r="K100" s="612"/>
       <c r="L100" s="680"/>
@@ -22029,15 +22029,15 @@
       <c r="C102" s="604" t="s">
         <v>415</v>
       </c>
-      <c r="D102" s="983">
+      <c r="D102" s="991">
         <f>S3_archive.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E102" s="983"/>
-      <c r="F102" s="983"/>
-      <c r="G102" s="983"/>
-      <c r="H102" s="983"/>
-      <c r="I102" s="983"/>
+      <c r="E102" s="991"/>
+      <c r="F102" s="991"/>
+      <c r="G102" s="991"/>
+      <c r="H102" s="991"/>
+      <c r="I102" s="991"/>
       <c r="J102" s="884"/>
       <c r="K102" s="849"/>
       <c r="L102" s="680"/>
@@ -22051,15 +22051,15 @@
       <c r="C103" s="616" t="s">
         <v>416</v>
       </c>
-      <c r="D103" s="988">
+      <c r="D103" s="989">
         <f>S3_archive.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E103" s="988"/>
-      <c r="F103" s="988"/>
-      <c r="G103" s="988"/>
-      <c r="H103" s="988"/>
-      <c r="I103" s="988"/>
+      <c r="E103" s="989"/>
+      <c r="F103" s="989"/>
+      <c r="G103" s="989"/>
+      <c r="H103" s="989"/>
+      <c r="I103" s="989"/>
       <c r="J103" s="886"/>
       <c r="K103" s="850"/>
       <c r="L103" s="680"/>
@@ -22073,15 +22073,15 @@
       <c r="C104" s="604" t="s">
         <v>417</v>
       </c>
-      <c r="D104" s="990">
+      <c r="D104" s="980">
         <f>S3_archive.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E104" s="990"/>
-      <c r="F104" s="990"/>
-      <c r="G104" s="990"/>
-      <c r="H104" s="990"/>
-      <c r="I104" s="990"/>
+      <c r="E104" s="980"/>
+      <c r="F104" s="980"/>
+      <c r="G104" s="980"/>
+      <c r="H104" s="980"/>
+      <c r="I104" s="980"/>
       <c r="J104" s="887"/>
       <c r="K104" s="851"/>
       <c r="L104" s="680"/>
@@ -22095,15 +22095,15 @@
       <c r="C105" s="616" t="s">
         <v>418</v>
       </c>
-      <c r="D105" s="988">
+      <c r="D105" s="989">
         <f>S3_archive.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E105" s="988"/>
-      <c r="F105" s="988"/>
-      <c r="G105" s="988"/>
-      <c r="H105" s="988"/>
-      <c r="I105" s="988"/>
+      <c r="E105" s="989"/>
+      <c r="F105" s="989"/>
+      <c r="G105" s="989"/>
+      <c r="H105" s="989"/>
+      <c r="I105" s="989"/>
       <c r="J105" s="886"/>
       <c r="K105" s="850"/>
       <c r="L105" s="680"/>
@@ -22117,15 +22117,15 @@
       <c r="C106" s="608" t="s">
         <v>419</v>
       </c>
-      <c r="D106" s="989" t="str">
+      <c r="D106" s="990" t="str">
         <f>S3_archive.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E106" s="989"/>
-      <c r="F106" s="989"/>
-      <c r="G106" s="989"/>
-      <c r="H106" s="989"/>
-      <c r="I106" s="989"/>
+      <c r="E106" s="990"/>
+      <c r="F106" s="990"/>
+      <c r="G106" s="990"/>
+      <c r="H106" s="990"/>
+      <c r="I106" s="990"/>
       <c r="J106" s="885"/>
       <c r="K106" s="852"/>
       <c r="L106" s="680"/>
@@ -22189,14 +22189,14 @@
       <c r="Q109" s="4"/>
     </row>
     <row r="110" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B110" s="980" t="s">
+      <c r="B110" s="978" t="s">
         <v>592</v>
       </c>
-      <c r="C110" s="980"/>
-      <c r="D110" s="980"/>
-      <c r="E110" s="980"/>
-      <c r="F110" s="980"/>
-      <c r="G110" s="980"/>
+      <c r="C110" s="978"/>
+      <c r="D110" s="978"/>
+      <c r="E110" s="978"/>
+      <c r="F110" s="978"/>
+      <c r="G110" s="978"/>
       <c r="H110" s="672"/>
       <c r="J110" s="674"/>
       <c r="K110" s="833"/>
@@ -22204,12 +22204,12 @@
       <c r="M110" s="664"/>
     </row>
     <row r="111" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B111" s="980"/>
-      <c r="C111" s="980"/>
-      <c r="D111" s="980"/>
-      <c r="E111" s="980"/>
-      <c r="F111" s="980"/>
-      <c r="G111" s="980"/>
+      <c r="B111" s="978"/>
+      <c r="C111" s="978"/>
+      <c r="D111" s="978"/>
+      <c r="E111" s="978"/>
+      <c r="F111" s="978"/>
+      <c r="G111" s="978"/>
       <c r="H111" s="672"/>
       <c r="J111" s="674"/>
       <c r="K111" s="833"/>
@@ -22217,12 +22217,12 @@
       <c r="M111" s="664"/>
     </row>
     <row r="112" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B112" s="980"/>
-      <c r="C112" s="980"/>
-      <c r="D112" s="980"/>
-      <c r="E112" s="980"/>
-      <c r="F112" s="980"/>
-      <c r="G112" s="980"/>
+      <c r="B112" s="978"/>
+      <c r="C112" s="978"/>
+      <c r="D112" s="978"/>
+      <c r="E112" s="978"/>
+      <c r="F112" s="978"/>
+      <c r="G112" s="978"/>
       <c r="H112" s="672"/>
       <c r="J112" s="674"/>
       <c r="K112" s="833"/>
@@ -22244,13 +22244,13 @@
       <c r="M113" s="664"/>
     </row>
     <row r="114" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B114" s="982" t="s">
+      <c r="B114" s="994" t="s">
         <v>543</v>
       </c>
-      <c r="C114" s="982"/>
-      <c r="D114" s="982"/>
-      <c r="E114" s="982"/>
-      <c r="F114" s="982"/>
+      <c r="C114" s="994"/>
+      <c r="D114" s="994"/>
+      <c r="E114" s="994"/>
+      <c r="F114" s="994"/>
       <c r="G114" s="677"/>
       <c r="H114" s="678"/>
       <c r="J114" s="679"/>
@@ -22510,14 +22510,14 @@
       <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B125" s="980" t="s">
+      <c r="B125" s="978" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="980"/>
-      <c r="D125" s="980"/>
-      <c r="E125" s="980"/>
-      <c r="F125" s="980"/>
-      <c r="G125" s="980"/>
+      <c r="C125" s="978"/>
+      <c r="D125" s="978"/>
+      <c r="E125" s="978"/>
+      <c r="F125" s="978"/>
+      <c r="G125" s="978"/>
       <c r="H125" s="672"/>
       <c r="J125" s="674"/>
       <c r="K125" s="833"/>
@@ -22525,12 +22525,12 @@
       <c r="M125" s="664"/>
     </row>
     <row r="126" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B126" s="980"/>
-      <c r="C126" s="980"/>
-      <c r="D126" s="980"/>
-      <c r="E126" s="980"/>
-      <c r="F126" s="980"/>
-      <c r="G126" s="980"/>
+      <c r="B126" s="978"/>
+      <c r="C126" s="978"/>
+      <c r="D126" s="978"/>
+      <c r="E126" s="978"/>
+      <c r="F126" s="978"/>
+      <c r="G126" s="978"/>
       <c r="H126" s="672"/>
       <c r="J126" s="674"/>
       <c r="K126" s="833"/>
@@ -22538,12 +22538,12 @@
       <c r="M126" s="664"/>
     </row>
     <row r="127" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B127" s="980"/>
-      <c r="C127" s="980"/>
-      <c r="D127" s="980"/>
-      <c r="E127" s="980"/>
-      <c r="F127" s="980"/>
-      <c r="G127" s="980"/>
+      <c r="B127" s="978"/>
+      <c r="C127" s="978"/>
+      <c r="D127" s="978"/>
+      <c r="E127" s="978"/>
+      <c r="F127" s="978"/>
+      <c r="G127" s="978"/>
       <c r="H127" s="672"/>
       <c r="J127" s="674"/>
       <c r="K127" s="833"/>
@@ -22565,13 +22565,13 @@
       <c r="M128" s="664"/>
     </row>
     <row r="129" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B129" s="982" t="s">
+      <c r="B129" s="994" t="s">
         <v>587</v>
       </c>
-      <c r="C129" s="982"/>
-      <c r="D129" s="982"/>
-      <c r="E129" s="982"/>
-      <c r="F129" s="982"/>
+      <c r="C129" s="994"/>
+      <c r="D129" s="994"/>
+      <c r="E129" s="994"/>
+      <c r="F129" s="994"/>
       <c r="G129" s="677"/>
       <c r="H129" s="678"/>
       <c r="J129" s="679"/>
@@ -22635,18 +22635,18 @@
       <c r="B132" s="444" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="991" t="s">
+      <c r="C132" s="979" t="s">
         <v>559</v>
       </c>
-      <c r="D132" s="991"/>
-      <c r="E132" s="991" t="s">
+      <c r="D132" s="979"/>
+      <c r="E132" s="979" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="991"/>
-      <c r="G132" s="991" t="s">
+      <c r="F132" s="979"/>
+      <c r="G132" s="979" t="s">
         <v>281</v>
       </c>
-      <c r="H132" s="991"/>
+      <c r="H132" s="979"/>
       <c r="I132" s="24"/>
       <c r="J132" s="24"/>
       <c r="K132" s="612" t="s">
@@ -22659,18 +22659,18 @@
       <c r="B133" s="826" t="s">
         <v>457</v>
       </c>
-      <c r="C133" s="996" t="s">
+      <c r="C133" s="985" t="s">
         <v>517</v>
       </c>
-      <c r="D133" s="996"/>
-      <c r="E133" s="998" t="s">
+      <c r="D133" s="985"/>
+      <c r="E133" s="987" t="s">
         <v>575</v>
       </c>
-      <c r="F133" s="998"/>
-      <c r="G133" s="992">
+      <c r="F133" s="987"/>
+      <c r="G133" s="981">
         <v>15000</v>
       </c>
-      <c r="H133" s="993"/>
+      <c r="H133" s="982"/>
       <c r="I133" s="749"/>
       <c r="J133" s="911">
         <v>2</v>
@@ -22686,18 +22686,18 @@
       <c r="B134" s="137" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="997" t="s">
+      <c r="C134" s="986" t="s">
         <v>561</v>
       </c>
-      <c r="D134" s="997"/>
-      <c r="E134" s="999" t="s">
+      <c r="D134" s="986"/>
+      <c r="E134" s="988" t="s">
         <v>562</v>
       </c>
-      <c r="F134" s="999"/>
-      <c r="G134" s="994">
+      <c r="F134" s="988"/>
+      <c r="G134" s="983">
         <v>24000</v>
       </c>
-      <c r="H134" s="995"/>
+      <c r="H134" s="984"/>
       <c r="I134" s="753"/>
       <c r="J134" s="738"/>
       <c r="K134" s="855" t="str">
@@ -22803,51 +22803,51 @@
       <c r="S138" s="729"/>
     </row>
     <row r="139" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B139" s="980" t="s">
+      <c r="B139" s="978" t="s">
         <v>287</v>
       </c>
-      <c r="C139" s="980"/>
-      <c r="D139" s="980"/>
-      <c r="E139" s="980"/>
-      <c r="F139" s="980"/>
-      <c r="G139" s="980"/>
+      <c r="C139" s="978"/>
+      <c r="D139" s="978"/>
+      <c r="E139" s="978"/>
+      <c r="F139" s="978"/>
+      <c r="G139" s="978"/>
       <c r="H139" s="672"/>
       <c r="J139" s="674"/>
       <c r="K139" s="833"/>
       <c r="M139" s="664"/>
     </row>
     <row r="140" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B140" s="980"/>
-      <c r="C140" s="980"/>
-      <c r="D140" s="980"/>
-      <c r="E140" s="980"/>
-      <c r="F140" s="980"/>
-      <c r="G140" s="980"/>
+      <c r="B140" s="978"/>
+      <c r="C140" s="978"/>
+      <c r="D140" s="978"/>
+      <c r="E140" s="978"/>
+      <c r="F140" s="978"/>
+      <c r="G140" s="978"/>
       <c r="H140" s="672"/>
       <c r="J140" s="674"/>
       <c r="K140" s="833"/>
       <c r="M140" s="664"/>
     </row>
     <row r="141" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B141" s="980"/>
-      <c r="C141" s="980"/>
-      <c r="D141" s="980"/>
-      <c r="E141" s="980"/>
-      <c r="F141" s="980"/>
-      <c r="G141" s="980"/>
+      <c r="B141" s="978"/>
+      <c r="C141" s="978"/>
+      <c r="D141" s="978"/>
+      <c r="E141" s="978"/>
+      <c r="F141" s="978"/>
+      <c r="G141" s="978"/>
       <c r="H141" s="672"/>
       <c r="J141" s="674"/>
       <c r="K141" s="833"/>
       <c r="M141" s="664"/>
     </row>
     <row r="142" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B142" s="982" t="s">
+      <c r="B142" s="994" t="s">
         <v>543</v>
       </c>
-      <c r="C142" s="982"/>
-      <c r="D142" s="982"/>
-      <c r="E142" s="982"/>
-      <c r="F142" s="982"/>
+      <c r="C142" s="994"/>
+      <c r="D142" s="994"/>
+      <c r="E142" s="994"/>
+      <c r="F142" s="994"/>
       <c r="G142" s="677"/>
       <c r="H142" s="678"/>
       <c r="J142" s="679"/>
@@ -22864,11 +22864,11 @@
       <c r="Z142" s="675"/>
     </row>
     <row r="143" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B143" s="1000"/>
-      <c r="C143" s="1000"/>
-      <c r="D143" s="1000"/>
-      <c r="E143" s="1000"/>
-      <c r="F143" s="1000"/>
+      <c r="B143" s="1001"/>
+      <c r="C143" s="1001"/>
+      <c r="D143" s="1001"/>
+      <c r="E143" s="1001"/>
+      <c r="F143" s="1001"/>
       <c r="G143" s="677"/>
       <c r="H143" s="678"/>
       <c r="I143" s="677"/>
@@ -23452,7 +23452,7 @@
       <c r="H174" s="30"/>
       <c r="I174" s="30"/>
       <c r="J174" s="40"/>
-      <c r="K174" s="629" t="s">
+      <c r="K174" s="868" t="s">
         <v>567</v>
       </c>
       <c r="M174" s="664"/>
@@ -23481,20 +23481,20 @@
       <c r="O175" s="8"/>
     </row>
     <row r="176" spans="2:18" ht="25" customHeight="1">
-      <c r="B176" s="137" t="s">
+      <c r="B176" s="134" t="s">
         <v>471</v>
       </c>
-      <c r="C176" s="130"/>
-      <c r="D176" s="38"/>
-      <c r="E176" s="38" t="s">
+      <c r="C176" s="129"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="F176" s="771"/>
-      <c r="G176" s="771"/>
-      <c r="H176" s="771"/>
-      <c r="I176" s="771"/>
-      <c r="J176" s="779"/>
-      <c r="K176" s="867" t="s">
+      <c r="F176" s="30"/>
+      <c r="G176" s="30"/>
+      <c r="H176" s="30"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="868" t="s">
         <v>567</v>
       </c>
       <c r="M176" s="664"/>
@@ -23502,20 +23502,20 @@
       <c r="O176" s="8"/>
     </row>
     <row r="177" spans="2:20" ht="25" customHeight="1">
-      <c r="B177" s="134" t="s">
+      <c r="B177" s="137" t="s">
         <v>472</v>
       </c>
-      <c r="C177" s="129"/>
-      <c r="D177" s="30"/>
-      <c r="E177" s="30" t="s">
+      <c r="C177" s="130"/>
+      <c r="D177" s="38"/>
+      <c r="E177" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F177" s="30"/>
-      <c r="G177" s="30"/>
-      <c r="H177" s="30"/>
-      <c r="I177" s="30"/>
-      <c r="J177" s="40"/>
-      <c r="K177" s="629" t="s">
+      <c r="F177" s="771"/>
+      <c r="G177" s="771"/>
+      <c r="H177" s="771"/>
+      <c r="I177" s="771"/>
+      <c r="J177" s="779"/>
+      <c r="K177" s="867" t="s">
         <v>567</v>
       </c>
       <c r="M177" s="664"/>
@@ -23523,20 +23523,20 @@
       <c r="O177" s="8"/>
     </row>
     <row r="178" spans="2:20" ht="25" customHeight="1">
-      <c r="B178" s="137" t="s">
+      <c r="B178" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="C178" s="130"/>
-      <c r="D178" s="38"/>
-      <c r="E178" s="38" t="s">
+      <c r="C178" s="129"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F178" s="771"/>
-      <c r="G178" s="771"/>
-      <c r="H178" s="771"/>
-      <c r="I178" s="771"/>
-      <c r="J178" s="779"/>
-      <c r="K178" s="867" t="s">
+      <c r="F178" s="30"/>
+      <c r="G178" s="30"/>
+      <c r="H178" s="30"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="40"/>
+      <c r="K178" s="868" t="s">
         <v>567</v>
       </c>
       <c r="M178" s="664"/>
@@ -23586,64 +23586,64 @@
       <c r="O181" s="675"/>
     </row>
     <row r="182" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B182" s="980" t="s">
+      <c r="B182" s="978" t="s">
         <v>295</v>
       </c>
-      <c r="C182" s="980"/>
-      <c r="D182" s="980"/>
-      <c r="E182" s="980"/>
-      <c r="F182" s="980"/>
-      <c r="G182" s="980"/>
+      <c r="C182" s="978"/>
+      <c r="D182" s="978"/>
+      <c r="E182" s="978"/>
+      <c r="F182" s="978"/>
+      <c r="G182" s="978"/>
       <c r="H182" s="780"/>
       <c r="J182" s="674"/>
       <c r="K182" s="833"/>
       <c r="M182" s="664"/>
     </row>
     <row r="183" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B183" s="980"/>
-      <c r="C183" s="980"/>
-      <c r="D183" s="980"/>
-      <c r="E183" s="980"/>
-      <c r="F183" s="980"/>
-      <c r="G183" s="980"/>
+      <c r="B183" s="978"/>
+      <c r="C183" s="978"/>
+      <c r="D183" s="978"/>
+      <c r="E183" s="978"/>
+      <c r="F183" s="978"/>
+      <c r="G183" s="978"/>
       <c r="H183" s="780"/>
       <c r="J183" s="674"/>
       <c r="K183" s="833"/>
       <c r="M183" s="664"/>
     </row>
     <row r="184" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B184" s="980"/>
-      <c r="C184" s="980"/>
-      <c r="D184" s="980"/>
-      <c r="E184" s="980"/>
-      <c r="F184" s="980"/>
-      <c r="G184" s="980"/>
+      <c r="B184" s="978"/>
+      <c r="C184" s="978"/>
+      <c r="D184" s="978"/>
+      <c r="E184" s="978"/>
+      <c r="F184" s="978"/>
+      <c r="G184" s="978"/>
       <c r="H184" s="780"/>
       <c r="J184" s="674"/>
       <c r="K184" s="833"/>
       <c r="M184" s="664"/>
     </row>
     <row r="185" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B185" s="981" t="s">
+      <c r="B185" s="999" t="s">
         <v>570</v>
       </c>
-      <c r="C185" s="981"/>
-      <c r="D185" s="981"/>
-      <c r="E185" s="981"/>
-      <c r="F185" s="981"/>
+      <c r="C185" s="999"/>
+      <c r="D185" s="999"/>
+      <c r="E185" s="999"/>
+      <c r="F185" s="999"/>
       <c r="H185" s="780"/>
       <c r="J185" s="674"/>
       <c r="K185" s="833"/>
       <c r="M185" s="664"/>
     </row>
     <row r="186" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B186" s="982" t="s">
+      <c r="B186" s="994" t="s">
         <v>543</v>
       </c>
-      <c r="C186" s="982"/>
-      <c r="D186" s="982"/>
-      <c r="E186" s="982"/>
-      <c r="F186" s="982"/>
+      <c r="C186" s="994"/>
+      <c r="D186" s="994"/>
+      <c r="E186" s="994"/>
+      <c r="F186" s="994"/>
       <c r="G186" s="677"/>
       <c r="H186" s="678"/>
       <c r="I186" s="677"/>
@@ -24340,14 +24340,14 @@
     </row>
     <row r="220" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A220" s="3"/>
-      <c r="B220" s="978" t="s">
+      <c r="B220" s="997" t="s">
         <v>308</v>
       </c>
-      <c r="C220" s="978"/>
-      <c r="D220" s="978"/>
-      <c r="E220" s="978"/>
-      <c r="F220" s="978"/>
-      <c r="G220" s="978"/>
+      <c r="C220" s="997"/>
+      <c r="D220" s="997"/>
+      <c r="E220" s="997"/>
+      <c r="F220" s="997"/>
+      <c r="G220" s="997"/>
       <c r="H220" s="666"/>
       <c r="I220" s="793"/>
       <c r="J220" s="3"/>
@@ -24357,12 +24357,12 @@
     </row>
     <row r="221" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A221" s="3"/>
-      <c r="B221" s="978"/>
-      <c r="C221" s="978"/>
-      <c r="D221" s="978"/>
-      <c r="E221" s="978"/>
-      <c r="F221" s="978"/>
-      <c r="G221" s="978"/>
+      <c r="B221" s="997"/>
+      <c r="C221" s="997"/>
+      <c r="D221" s="997"/>
+      <c r="E221" s="997"/>
+      <c r="F221" s="997"/>
+      <c r="G221" s="997"/>
       <c r="H221" s="666"/>
       <c r="I221" s="793"/>
       <c r="J221" s="3"/>
@@ -24372,12 +24372,12 @@
     </row>
     <row r="222" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A222" s="3"/>
-      <c r="B222" s="978"/>
-      <c r="C222" s="978"/>
-      <c r="D222" s="978"/>
-      <c r="E222" s="978"/>
-      <c r="F222" s="978"/>
-      <c r="G222" s="978"/>
+      <c r="B222" s="997"/>
+      <c r="C222" s="997"/>
+      <c r="D222" s="997"/>
+      <c r="E222" s="997"/>
+      <c r="F222" s="997"/>
+      <c r="G222" s="997"/>
       <c r="H222" s="666"/>
       <c r="I222" s="793"/>
       <c r="J222" s="3"/>
@@ -24387,13 +24387,13 @@
     </row>
     <row r="223" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A223" s="3"/>
-      <c r="B223" s="979" t="s">
+      <c r="B223" s="998" t="s">
         <v>543</v>
       </c>
-      <c r="C223" s="979"/>
-      <c r="D223" s="979"/>
-      <c r="E223" s="979"/>
-      <c r="F223" s="979"/>
+      <c r="C223" s="998"/>
+      <c r="D223" s="998"/>
+      <c r="E223" s="998"/>
+      <c r="F223" s="998"/>
       <c r="G223" s="3"/>
       <c r="H223" s="666"/>
       <c r="I223" s="793"/>
@@ -25372,39 +25372,8 @@
       <c r="D329" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Bpa1cAwOtTSmd7wNVWKLx0gm1Ac5rYLteYvoO+RV33WR0QPtWg95TfrEl3LJAOj+/sVQ8Dm2KMVqaGlPY4mKqQ==" saltValue="BKOeVm+HjQT1fSkqgOjuhQ==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TeXO5i3iHzhpfVzSOyXKBANhqT7AYANW51Cx392gchMmlG1inruMe1RjWN4PiZb5VNWOu00GXhYVOJZSNNvCsw==" saltValue="neJfbEgMMFNOobwXJZ70wg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="47">
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B87:G89"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="B110:G112"/>
-    <mergeCell ref="B125:G127"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
     <mergeCell ref="B185:F185"/>
     <mergeCell ref="B186:F186"/>
     <mergeCell ref="B220:G222"/>
@@ -25421,6 +25390,37 @@
     <mergeCell ref="C133:D133"/>
     <mergeCell ref="E133:F133"/>
     <mergeCell ref="G133:H133"/>
+    <mergeCell ref="B110:G112"/>
+    <mergeCell ref="B125:G127"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B87:G89"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B45:E45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I26:I39 K26:K39 I47:I56 K47:K56 I62:I65 K62:K65 I72:I74 K72:K74 I81:I83 K81:K83 I95:I96 K95:K96 I118:I120 K118:K120 J119:J120">
@@ -25532,8 +25532,8 @@
     </row>
     <row r="4" spans="1:28" ht="25" customHeight="1">
       <c r="A4" s="157"/>
-      <c r="B4" s="1053"/>
-      <c r="C4" s="1053"/>
+      <c r="B4" s="1031"/>
+      <c r="C4" s="1031"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="157"/>
@@ -25663,12 +25663,12 @@
       <c r="A11" s="162"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
-      <c r="D11" s="1055" t="str">
+      <c r="D11" s="1033" t="str">
         <f>"1 SEK = "&amp;EUR&amp;" EUR"</f>
         <v>1 SEK = 0,089 EUR</v>
       </c>
-      <c r="E11" s="1055"/>
-      <c r="F11" s="1055"/>
+      <c r="E11" s="1033"/>
+      <c r="F11" s="1033"/>
       <c r="G11" s="164"/>
       <c r="H11" s="164"/>
       <c r="I11" s="165"/>
@@ -25721,14 +25721,14 @@
       <c r="O14" s="168"/>
     </row>
     <row r="15" spans="1:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B15" s="1045" t="s">
+      <c r="B15" s="1005" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1045"/>
-      <c r="D15" s="1045"/>
-      <c r="E15" s="1045"/>
-      <c r="F15" s="1045"/>
-      <c r="G15" s="1045"/>
+      <c r="C15" s="1005"/>
+      <c r="D15" s="1005"/>
+      <c r="E15" s="1005"/>
+      <c r="F15" s="1005"/>
+      <c r="G15" s="1005"/>
       <c r="H15" s="177"/>
       <c r="J15" s="178"/>
       <c r="L15" s="179"/>
@@ -25740,12 +25740,12 @@
       <c r="AB15" s="180"/>
     </row>
     <row r="16" spans="1:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B16" s="1045"/>
-      <c r="C16" s="1045"/>
-      <c r="D16" s="1045"/>
-      <c r="E16" s="1045"/>
-      <c r="F16" s="1045"/>
-      <c r="G16" s="1045"/>
+      <c r="B16" s="1005"/>
+      <c r="C16" s="1005"/>
+      <c r="D16" s="1005"/>
+      <c r="E16" s="1005"/>
+      <c r="F16" s="1005"/>
+      <c r="G16" s="1005"/>
       <c r="H16" s="177"/>
       <c r="J16" s="178"/>
       <c r="L16" s="179"/>
@@ -25757,12 +25757,12 @@
       <c r="AB16" s="180"/>
     </row>
     <row r="17" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B17" s="1045"/>
-      <c r="C17" s="1045"/>
-      <c r="D17" s="1045"/>
-      <c r="E17" s="1045"/>
-      <c r="F17" s="1045"/>
-      <c r="G17" s="1045"/>
+      <c r="B17" s="1005"/>
+      <c r="C17" s="1005"/>
+      <c r="D17" s="1005"/>
+      <c r="E17" s="1005"/>
+      <c r="F17" s="1005"/>
+      <c r="G17" s="1005"/>
       <c r="H17" s="177"/>
       <c r="J17" s="178"/>
       <c r="L17" s="179"/>
@@ -25796,13 +25796,13 @@
       <c r="AB18" s="180"/>
     </row>
     <row r="19" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B19" s="1052" t="s">
+      <c r="B19" s="1032" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1052"/>
-      <c r="D19" s="1052"/>
-      <c r="E19" s="1052"/>
-      <c r="F19" s="1052"/>
+      <c r="C19" s="1032"/>
+      <c r="D19" s="1032"/>
+      <c r="E19" s="1032"/>
+      <c r="F19" s="1032"/>
       <c r="G19" s="182"/>
       <c r="H19" s="183"/>
       <c r="I19" s="182"/>
@@ -27986,10 +27986,10 @@
       <c r="E88" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="1054" t="s">
+      <c r="F88" s="1024" t="s">
         <v>65</v>
       </c>
-      <c r="G88" s="1054"/>
+      <c r="G88" s="1024"/>
       <c r="H88" s="265"/>
       <c r="I88" s="266" t="s">
         <v>66</v>
@@ -28015,11 +28015,11 @@
         <f>F89/720</f>
         <v>1.4833333333333332E-4</v>
       </c>
-      <c r="F89" s="1028">
+      <c r="F89" s="1037">
         <f>VOLUME_large_EUR</f>
         <v>0.10679999999999999</v>
       </c>
-      <c r="G89" s="1028"/>
+      <c r="G89" s="1037"/>
       <c r="H89" s="613"/>
       <c r="I89" s="271"/>
       <c r="J89" s="272" t="s">
@@ -28044,11 +28044,11 @@
         <f>F90/720</f>
         <v>4.4500000000000003E-4</v>
       </c>
-      <c r="F90" s="1050">
+      <c r="F90" s="1053">
         <f>VOLUME_fast_EUR</f>
         <v>0.32040000000000002</v>
       </c>
-      <c r="G90" s="1050"/>
+      <c r="G90" s="1053"/>
       <c r="H90" s="614"/>
       <c r="I90" s="275"/>
       <c r="J90" s="276" t="s">
@@ -28129,14 +28129,14 @@
       <c r="O94" s="168"/>
     </row>
     <row r="95" spans="2:23" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B95" s="1045" t="s">
+      <c r="B95" s="1005" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="1045"/>
-      <c r="D95" s="1045"/>
-      <c r="E95" s="1045"/>
-      <c r="F95" s="1045"/>
-      <c r="G95" s="1045"/>
+      <c r="C95" s="1005"/>
+      <c r="D95" s="1005"/>
+      <c r="E95" s="1005"/>
+      <c r="F95" s="1005"/>
+      <c r="G95" s="1005"/>
       <c r="H95" s="177"/>
       <c r="J95" s="178"/>
       <c r="K95" s="178"/>
@@ -28144,12 +28144,12 @@
       <c r="O95" s="168"/>
     </row>
     <row r="96" spans="2:23" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B96" s="1045"/>
-      <c r="C96" s="1045"/>
-      <c r="D96" s="1045"/>
-      <c r="E96" s="1045"/>
-      <c r="F96" s="1045"/>
-      <c r="G96" s="1045"/>
+      <c r="B96" s="1005"/>
+      <c r="C96" s="1005"/>
+      <c r="D96" s="1005"/>
+      <c r="E96" s="1005"/>
+      <c r="F96" s="1005"/>
+      <c r="G96" s="1005"/>
       <c r="H96" s="177"/>
       <c r="J96" s="178"/>
       <c r="K96" s="178"/>
@@ -28157,12 +28157,12 @@
       <c r="O96" s="168"/>
     </row>
     <row r="97" spans="2:22" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B97" s="1045"/>
-      <c r="C97" s="1045"/>
-      <c r="D97" s="1045"/>
-      <c r="E97" s="1045"/>
-      <c r="F97" s="1045"/>
-      <c r="G97" s="1045"/>
+      <c r="B97" s="1005"/>
+      <c r="C97" s="1005"/>
+      <c r="D97" s="1005"/>
+      <c r="E97" s="1005"/>
+      <c r="F97" s="1005"/>
+      <c r="G97" s="1005"/>
       <c r="H97" s="177"/>
       <c r="J97" s="178"/>
       <c r="K97" s="178"/>
@@ -28170,13 +28170,13 @@
       <c r="O97" s="168"/>
     </row>
     <row r="98" spans="2:22" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B98" s="1051" t="s">
+      <c r="B98" s="1054" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="1051"/>
-      <c r="D98" s="1051"/>
-      <c r="E98" s="1051"/>
-      <c r="F98" s="1051"/>
+      <c r="C98" s="1054"/>
+      <c r="D98" s="1054"/>
+      <c r="E98" s="1054"/>
+      <c r="F98" s="1054"/>
       <c r="H98" s="177"/>
       <c r="J98" s="178"/>
       <c r="K98" s="178"/>
@@ -28185,13 +28185,13 @@
       <c r="O98" s="187"/>
     </row>
     <row r="99" spans="2:22" s="291" customFormat="1" ht="25" customHeight="1">
-      <c r="B99" s="1052" t="s">
+      <c r="B99" s="1032" t="s">
         <v>74</v>
       </c>
-      <c r="C99" s="1052"/>
-      <c r="D99" s="1052"/>
-      <c r="E99" s="1052"/>
-      <c r="F99" s="1052"/>
+      <c r="C99" s="1032"/>
+      <c r="D99" s="1032"/>
+      <c r="E99" s="1032"/>
+      <c r="F99" s="1032"/>
       <c r="G99" s="285"/>
       <c r="H99" s="286"/>
       <c r="I99" s="285"/>
@@ -28246,18 +28246,18 @@
       <c r="C102" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D102" s="1054" t="s">
+      <c r="D102" s="1024" t="s">
         <v>76</v>
       </c>
-      <c r="E102" s="1054"/>
-      <c r="F102" s="1054"/>
-      <c r="G102" s="1054"/>
+      <c r="E102" s="1024"/>
+      <c r="F102" s="1024"/>
+      <c r="G102" s="1024"/>
       <c r="H102" s="266" t="s">
         <v>75</v>
       </c>
       <c r="I102" s="265"/>
-      <c r="J102" s="1054"/>
-      <c r="K102" s="1054"/>
+      <c r="J102" s="1024"/>
+      <c r="K102" s="1024"/>
       <c r="L102" s="535"/>
       <c r="M102" s="621" t="s">
         <v>83</v>
@@ -28304,17 +28304,17 @@
       <c r="C104" s="604" t="s">
         <v>415</v>
       </c>
-      <c r="D104" s="1048">
+      <c r="D104" s="1035">
         <f>S3_storage.50_EUR</f>
         <v>31.15</v>
       </c>
-      <c r="E104" s="1048"/>
-      <c r="F104" s="1049"/>
-      <c r="G104" s="1049"/>
-      <c r="H104" s="1049"/>
-      <c r="I104" s="1049"/>
-      <c r="J104" s="1049"/>
-      <c r="K104" s="1049"/>
+      <c r="E104" s="1035"/>
+      <c r="F104" s="1036"/>
+      <c r="G104" s="1036"/>
+      <c r="H104" s="1036"/>
+      <c r="I104" s="1036"/>
+      <c r="J104" s="1036"/>
+      <c r="K104" s="1036"/>
       <c r="L104" s="605"/>
       <c r="M104" s="622"/>
       <c r="N104" s="186"/>
@@ -28329,17 +28329,17 @@
       <c r="C105" s="616" t="s">
         <v>416</v>
       </c>
-      <c r="D105" s="1057">
+      <c r="D105" s="1023">
         <f>S3_storage.100_EUR</f>
         <v>24.029999999999998</v>
       </c>
-      <c r="E105" s="1057"/>
-      <c r="F105" s="1002"/>
-      <c r="G105" s="1002"/>
-      <c r="H105" s="1002"/>
-      <c r="I105" s="1002"/>
-      <c r="J105" s="1002"/>
-      <c r="K105" s="1002"/>
+      <c r="E105" s="1023"/>
+      <c r="F105" s="1028"/>
+      <c r="G105" s="1028"/>
+      <c r="H105" s="1028"/>
+      <c r="I105" s="1028"/>
+      <c r="J105" s="1028"/>
+      <c r="K105" s="1028"/>
       <c r="L105" s="617"/>
       <c r="M105" s="623"/>
       <c r="N105" s="186"/>
@@ -28354,17 +28354,17 @@
       <c r="C106" s="604" t="s">
         <v>417</v>
       </c>
-      <c r="D106" s="1058">
+      <c r="D106" s="1027">
         <f>S3_storage.500_EUR</f>
         <v>17.8</v>
       </c>
-      <c r="E106" s="1058"/>
-      <c r="F106" s="1011"/>
-      <c r="G106" s="1011"/>
-      <c r="H106" s="1011"/>
-      <c r="I106" s="1011"/>
-      <c r="J106" s="1011"/>
-      <c r="K106" s="1011"/>
+      <c r="E106" s="1027"/>
+      <c r="F106" s="1022"/>
+      <c r="G106" s="1022"/>
+      <c r="H106" s="1022"/>
+      <c r="I106" s="1022"/>
+      <c r="J106" s="1022"/>
+      <c r="K106" s="1022"/>
       <c r="L106" s="606"/>
       <c r="M106" s="624"/>
       <c r="N106" s="186"/>
@@ -28379,17 +28379,17 @@
       <c r="C107" s="616" t="s">
         <v>418</v>
       </c>
-      <c r="D107" s="1057">
+      <c r="D107" s="1023">
         <f>S3_storage.1000_EUR</f>
         <v>16.465</v>
       </c>
-      <c r="E107" s="1057"/>
-      <c r="F107" s="1002"/>
-      <c r="G107" s="1002"/>
-      <c r="H107" s="1002"/>
-      <c r="I107" s="1002"/>
-      <c r="J107" s="1002"/>
-      <c r="K107" s="1002"/>
+      <c r="E107" s="1023"/>
+      <c r="F107" s="1028"/>
+      <c r="G107" s="1028"/>
+      <c r="H107" s="1028"/>
+      <c r="I107" s="1028"/>
+      <c r="J107" s="1028"/>
+      <c r="K107" s="1028"/>
       <c r="L107" s="617"/>
       <c r="M107" s="623"/>
       <c r="N107" s="186"/>
@@ -28404,17 +28404,17 @@
       <c r="C108" s="608" t="s">
         <v>419</v>
       </c>
-      <c r="D108" s="1003" t="str">
+      <c r="D108" s="1029" t="str">
         <f>S3_storage.quote_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="E108" s="1003"/>
-      <c r="F108" s="1012"/>
-      <c r="G108" s="1012"/>
-      <c r="H108" s="1012"/>
-      <c r="I108" s="1012"/>
-      <c r="J108" s="1012"/>
-      <c r="K108" s="1012"/>
+      <c r="E108" s="1029"/>
+      <c r="F108" s="1030"/>
+      <c r="G108" s="1030"/>
+      <c r="H108" s="1030"/>
+      <c r="I108" s="1030"/>
+      <c r="J108" s="1030"/>
+      <c r="K108" s="1030"/>
       <c r="L108" s="609"/>
       <c r="M108" s="625"/>
       <c r="N108" s="186"/>
@@ -28469,18 +28469,18 @@
       <c r="C111" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D111" s="1056" t="s">
+      <c r="D111" s="1034" t="s">
         <v>76</v>
       </c>
-      <c r="E111" s="1056"/>
-      <c r="F111" s="1054"/>
-      <c r="G111" s="1054"/>
+      <c r="E111" s="1034"/>
+      <c r="F111" s="1024"/>
+      <c r="G111" s="1024"/>
       <c r="H111" s="266" t="s">
         <v>75</v>
       </c>
       <c r="I111" s="266"/>
-      <c r="J111" s="1054"/>
-      <c r="K111" s="1054"/>
+      <c r="J111" s="1024"/>
+      <c r="K111" s="1024"/>
       <c r="L111" s="535"/>
       <c r="M111" s="621"/>
       <c r="N111" s="186"/>
@@ -28525,17 +28525,17 @@
       <c r="C113" s="604" t="s">
         <v>415</v>
       </c>
-      <c r="D113" s="1048">
+      <c r="D113" s="1035">
         <f>S3_archive.50_EUR</f>
         <v>31.15</v>
       </c>
-      <c r="E113" s="1048"/>
-      <c r="F113" s="1049"/>
-      <c r="G113" s="1049"/>
-      <c r="H113" s="1049"/>
-      <c r="I113" s="1049"/>
-      <c r="J113" s="1049"/>
-      <c r="K113" s="1049"/>
+      <c r="E113" s="1035"/>
+      <c r="F113" s="1036"/>
+      <c r="G113" s="1036"/>
+      <c r="H113" s="1036"/>
+      <c r="I113" s="1036"/>
+      <c r="J113" s="1036"/>
+      <c r="K113" s="1036"/>
       <c r="L113" s="605"/>
       <c r="M113" s="622"/>
       <c r="N113" s="186"/>
@@ -28550,17 +28550,17 @@
       <c r="C114" s="616" t="s">
         <v>416</v>
       </c>
-      <c r="D114" s="1057">
+      <c r="D114" s="1023">
         <f>S3_archive.100_EUR</f>
         <v>24.029999999999998</v>
       </c>
-      <c r="E114" s="1057"/>
-      <c r="F114" s="1002"/>
-      <c r="G114" s="1002"/>
-      <c r="H114" s="1002"/>
-      <c r="I114" s="1002"/>
-      <c r="J114" s="1002"/>
-      <c r="K114" s="1002"/>
+      <c r="E114" s="1023"/>
+      <c r="F114" s="1028"/>
+      <c r="G114" s="1028"/>
+      <c r="H114" s="1028"/>
+      <c r="I114" s="1028"/>
+      <c r="J114" s="1028"/>
+      <c r="K114" s="1028"/>
       <c r="L114" s="617"/>
       <c r="M114" s="623"/>
       <c r="N114" s="186"/>
@@ -28575,17 +28575,17 @@
       <c r="C115" s="604" t="s">
         <v>417</v>
       </c>
-      <c r="D115" s="1058">
+      <c r="D115" s="1027">
         <f>S3_archive.500_EUR</f>
         <v>17.8</v>
       </c>
-      <c r="E115" s="1058"/>
-      <c r="F115" s="1011"/>
-      <c r="G115" s="1011"/>
-      <c r="H115" s="1011"/>
-      <c r="I115" s="1011"/>
-      <c r="J115" s="1011"/>
-      <c r="K115" s="1011"/>
+      <c r="E115" s="1027"/>
+      <c r="F115" s="1022"/>
+      <c r="G115" s="1022"/>
+      <c r="H115" s="1022"/>
+      <c r="I115" s="1022"/>
+      <c r="J115" s="1022"/>
+      <c r="K115" s="1022"/>
       <c r="L115" s="606"/>
       <c r="M115" s="624"/>
       <c r="N115" s="186"/>
@@ -28600,17 +28600,17 @@
       <c r="C116" s="616" t="s">
         <v>418</v>
       </c>
-      <c r="D116" s="1057">
+      <c r="D116" s="1023">
         <f>S3_archive.1000_EUR</f>
         <v>16.465</v>
       </c>
-      <c r="E116" s="1057"/>
-      <c r="F116" s="1002"/>
-      <c r="G116" s="1002"/>
-      <c r="H116" s="1002"/>
-      <c r="I116" s="1002"/>
-      <c r="J116" s="1002"/>
-      <c r="K116" s="1002"/>
+      <c r="E116" s="1023"/>
+      <c r="F116" s="1028"/>
+      <c r="G116" s="1028"/>
+      <c r="H116" s="1028"/>
+      <c r="I116" s="1028"/>
+      <c r="J116" s="1028"/>
+      <c r="K116" s="1028"/>
       <c r="L116" s="617"/>
       <c r="M116" s="623"/>
       <c r="N116" s="186"/>
@@ -28625,17 +28625,17 @@
       <c r="C117" s="608" t="s">
         <v>419</v>
       </c>
-      <c r="D117" s="1003" t="str">
+      <c r="D117" s="1029" t="str">
         <f>S3_archive.quote_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="E117" s="1003"/>
-      <c r="F117" s="1012"/>
-      <c r="G117" s="1012"/>
-      <c r="H117" s="1012"/>
-      <c r="I117" s="1012"/>
-      <c r="J117" s="1012"/>
-      <c r="K117" s="1012"/>
+      <c r="E117" s="1029"/>
+      <c r="F117" s="1030"/>
+      <c r="G117" s="1030"/>
+      <c r="H117" s="1030"/>
+      <c r="I117" s="1030"/>
+      <c r="J117" s="1030"/>
+      <c r="K117" s="1030"/>
       <c r="L117" s="609"/>
       <c r="M117" s="625"/>
       <c r="N117" s="186"/>
@@ -28725,14 +28725,14 @@
       <c r="O121" s="168"/>
     </row>
     <row r="122" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B122" s="1045" t="s">
+      <c r="B122" s="1005" t="s">
         <v>86</v>
       </c>
-      <c r="C122" s="1045"/>
-      <c r="D122" s="1045"/>
-      <c r="E122" s="1045"/>
-      <c r="F122" s="1045"/>
-      <c r="G122" s="1045"/>
+      <c r="C122" s="1005"/>
+      <c r="D122" s="1005"/>
+      <c r="E122" s="1005"/>
+      <c r="F122" s="1005"/>
+      <c r="G122" s="1005"/>
       <c r="H122" s="177"/>
       <c r="J122" s="178"/>
       <c r="K122" s="178"/>
@@ -28742,12 +28742,12 @@
       <c r="O122" s="168"/>
     </row>
     <row r="123" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B123" s="1045"/>
-      <c r="C123" s="1045"/>
-      <c r="D123" s="1045"/>
-      <c r="E123" s="1045"/>
-      <c r="F123" s="1045"/>
-      <c r="G123" s="1045"/>
+      <c r="B123" s="1005"/>
+      <c r="C123" s="1005"/>
+      <c r="D123" s="1005"/>
+      <c r="E123" s="1005"/>
+      <c r="F123" s="1005"/>
+      <c r="G123" s="1005"/>
       <c r="H123" s="177"/>
       <c r="J123" s="178"/>
       <c r="K123" s="178"/>
@@ -28757,12 +28757,12 @@
       <c r="O123" s="168"/>
     </row>
     <row r="124" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B124" s="1045"/>
-      <c r="C124" s="1045"/>
-      <c r="D124" s="1045"/>
-      <c r="E124" s="1045"/>
-      <c r="F124" s="1045"/>
-      <c r="G124" s="1045"/>
+      <c r="B124" s="1005"/>
+      <c r="C124" s="1005"/>
+      <c r="D124" s="1005"/>
+      <c r="E124" s="1005"/>
+      <c r="F124" s="1005"/>
+      <c r="G124" s="1005"/>
       <c r="H124" s="177"/>
       <c r="J124" s="178"/>
       <c r="K124" s="178"/>
@@ -28772,13 +28772,13 @@
       <c r="O124" s="168"/>
     </row>
     <row r="125" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B125" s="1059" t="s">
+      <c r="B125" s="1026" t="s">
         <v>87</v>
       </c>
-      <c r="C125" s="1059"/>
-      <c r="D125" s="1059"/>
-      <c r="E125" s="1059"/>
-      <c r="F125" s="1059"/>
+      <c r="C125" s="1026"/>
+      <c r="D125" s="1026"/>
+      <c r="E125" s="1026"/>
+      <c r="F125" s="1026"/>
       <c r="H125" s="177"/>
       <c r="J125" s="178"/>
       <c r="K125" s="178"/>
@@ -28788,13 +28788,13 @@
       <c r="O125" s="187"/>
     </row>
     <row r="126" spans="2:28" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B126" s="1046" t="s">
+      <c r="B126" s="1006" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="1046"/>
-      <c r="D126" s="1046"/>
-      <c r="E126" s="1046"/>
-      <c r="F126" s="1046"/>
+      <c r="C126" s="1006"/>
+      <c r="D126" s="1006"/>
+      <c r="E126" s="1006"/>
+      <c r="F126" s="1006"/>
       <c r="G126" s="182"/>
       <c r="H126" s="183"/>
       <c r="I126" s="182"/>
@@ -28863,18 +28863,18 @@
         <v>88</v>
       </c>
       <c r="E129" s="131"/>
-      <c r="F129" s="1054" t="s">
+      <c r="F129" s="1024" t="s">
         <v>89</v>
       </c>
-      <c r="G129" s="1054"/>
+      <c r="G129" s="1024"/>
       <c r="H129" s="266" t="s">
         <v>90</v>
       </c>
       <c r="I129" s="265"/>
-      <c r="J129" s="1029" t="s">
+      <c r="J129" s="1038" t="s">
         <v>91</v>
       </c>
-      <c r="K129" s="1029"/>
+      <c r="K129" s="1038"/>
       <c r="L129" s="533"/>
       <c r="M129" s="575" t="s">
         <v>92</v>
@@ -28883,29 +28883,29 @@
       <c r="O129" s="160"/>
     </row>
     <row r="130" spans="2:34" ht="25" customHeight="1">
-      <c r="B130" s="1031" t="s">
+      <c r="B130" s="1039" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="1031"/>
+      <c r="C130" s="1039"/>
       <c r="D130" s="467" t="s">
         <v>94</v>
       </c>
       <c r="E130" s="29"/>
-      <c r="F130" s="1032">
+      <c r="F130" s="1040">
         <f>BAAS_on.demand_EUR</f>
         <v>0.21804999999999999</v>
       </c>
-      <c r="G130" s="1033"/>
+      <c r="G130" s="1041"/>
       <c r="H130" s="307">
         <v>0</v>
       </c>
       <c r="I130" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="J130" s="1034" t="s">
+      <c r="J130" s="1042" t="s">
         <v>94</v>
       </c>
-      <c r="K130" s="1034"/>
+      <c r="K130" s="1042"/>
       <c r="L130" s="308"/>
       <c r="M130" s="576">
         <f>ROUNDUP(H130*F130,2)</f>
@@ -28915,30 +28915,30 @@
       <c r="O130" s="160"/>
     </row>
     <row r="131" spans="2:34" ht="25" customHeight="1">
-      <c r="B131" s="1035" t="s">
+      <c r="B131" s="1043" t="s">
         <v>95</v>
       </c>
-      <c r="C131" s="1035"/>
+      <c r="C131" s="1043"/>
       <c r="D131" s="468">
         <f>BAAS_small.fee_EUR</f>
         <v>489.5</v>
       </c>
       <c r="E131" s="32"/>
-      <c r="F131" s="1036">
+      <c r="F131" s="1044">
         <f>BAAS_small_EUR</f>
         <v>0.15575</v>
       </c>
-      <c r="G131" s="1037"/>
+      <c r="G131" s="1045"/>
       <c r="H131" s="309">
         <v>0</v>
       </c>
       <c r="I131" s="276" t="s">
         <v>69</v>
       </c>
-      <c r="J131" s="1038">
+      <c r="J131" s="1046">
         <v>0.75</v>
       </c>
-      <c r="K131" s="1039"/>
+      <c r="K131" s="1047"/>
       <c r="L131" s="276"/>
       <c r="M131" s="577">
         <f>IF(H131&gt;0,IF(SUM($D$131+($F$131*((H131*(1-$J$131))-1000)))&lt;=D131,$D$131,$D$131+($F$131*((H131*(1-$J$131))-1000))),0)</f>
@@ -28948,30 +28948,30 @@
       <c r="O131" s="160"/>
     </row>
     <row r="132" spans="2:34" s="310" customFormat="1" ht="25" customHeight="1">
-      <c r="B132" s="1040" t="s">
+      <c r="B132" s="1048" t="s">
         <v>96</v>
       </c>
-      <c r="C132" s="1040"/>
+      <c r="C132" s="1048"/>
       <c r="D132" s="469">
         <f>BAAS_large.fee_EUR</f>
         <v>845.5</v>
       </c>
       <c r="E132" s="35"/>
-      <c r="F132" s="1041">
+      <c r="F132" s="1049">
         <f>BAAS_large_EUR</f>
         <v>8.1879999999999994E-2</v>
       </c>
-      <c r="G132" s="1042"/>
+      <c r="G132" s="1050"/>
       <c r="H132" s="298">
         <v>0</v>
       </c>
       <c r="I132" s="299" t="s">
         <v>69</v>
       </c>
-      <c r="J132" s="1043">
+      <c r="J132" s="1051">
         <v>0.75</v>
       </c>
-      <c r="K132" s="1044"/>
+      <c r="K132" s="1052"/>
       <c r="L132" s="299"/>
       <c r="M132" s="581">
         <f>IF(H132&gt;0,$D$132+($F$132*(H132*(1-$J$132))),0)</f>
@@ -29062,16 +29062,16 @@
       <c r="AH134" s="161"/>
     </row>
     <row r="135" spans="2:34" s="310" customFormat="1" ht="25" customHeight="1">
-      <c r="B135" s="1047" t="s">
+      <c r="B135" s="1025" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="1047"/>
-      <c r="D135" s="1047"/>
-      <c r="E135" s="1047"/>
-      <c r="F135" s="1047"/>
-      <c r="G135" s="1047"/>
-      <c r="H135" s="1047"/>
-      <c r="I135" s="1047"/>
+      <c r="C135" s="1025"/>
+      <c r="D135" s="1025"/>
+      <c r="E135" s="1025"/>
+      <c r="F135" s="1025"/>
+      <c r="G135" s="1025"/>
+      <c r="H135" s="1025"/>
+      <c r="I135" s="1025"/>
       <c r="J135" s="217"/>
       <c r="K135" s="302"/>
       <c r="L135" s="302"/>
@@ -29094,16 +29094,16 @@
       <c r="AH135" s="161"/>
     </row>
     <row r="136" spans="2:34" ht="25" customHeight="1">
-      <c r="B136" s="1047" t="s">
+      <c r="B136" s="1025" t="s">
         <v>98</v>
       </c>
-      <c r="C136" s="1047"/>
-      <c r="D136" s="1047"/>
-      <c r="E136" s="1047"/>
-      <c r="F136" s="1047"/>
-      <c r="G136" s="1047"/>
-      <c r="H136" s="1047"/>
-      <c r="I136" s="1047"/>
+      <c r="C136" s="1025"/>
+      <c r="D136" s="1025"/>
+      <c r="E136" s="1025"/>
+      <c r="F136" s="1025"/>
+      <c r="G136" s="1025"/>
+      <c r="H136" s="1025"/>
+      <c r="I136" s="1025"/>
       <c r="J136" s="217"/>
       <c r="K136" s="302"/>
       <c r="L136" s="302"/>
@@ -29114,16 +29114,16 @@
       <c r="R136" s="180"/>
     </row>
     <row r="137" spans="2:34" ht="25" customHeight="1">
-      <c r="B137" s="1047" t="s">
+      <c r="B137" s="1025" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="1047"/>
-      <c r="D137" s="1047"/>
-      <c r="E137" s="1047"/>
-      <c r="F137" s="1047"/>
-      <c r="G137" s="1047"/>
-      <c r="H137" s="1047"/>
-      <c r="I137" s="1047"/>
+      <c r="C137" s="1025"/>
+      <c r="D137" s="1025"/>
+      <c r="E137" s="1025"/>
+      <c r="F137" s="1025"/>
+      <c r="G137" s="1025"/>
+      <c r="H137" s="1025"/>
+      <c r="I137" s="1025"/>
       <c r="J137" s="281"/>
       <c r="K137" s="306"/>
       <c r="L137" s="306"/>
@@ -29134,16 +29134,16 @@
       <c r="R137" s="180"/>
     </row>
     <row r="138" spans="2:34" ht="25" customHeight="1">
-      <c r="B138" s="1047" t="s">
+      <c r="B138" s="1025" t="s">
         <v>404</v>
       </c>
-      <c r="C138" s="1047"/>
-      <c r="D138" s="1047"/>
-      <c r="E138" s="1047"/>
-      <c r="F138" s="1047"/>
-      <c r="G138" s="1047"/>
-      <c r="H138" s="1047"/>
-      <c r="I138" s="1047"/>
+      <c r="C138" s="1025"/>
+      <c r="D138" s="1025"/>
+      <c r="E138" s="1025"/>
+      <c r="F138" s="1025"/>
+      <c r="G138" s="1025"/>
+      <c r="H138" s="1025"/>
+      <c r="I138" s="1025"/>
       <c r="J138" s="281"/>
       <c r="K138" s="306"/>
       <c r="L138" s="284"/>
@@ -29226,14 +29226,14 @@
       <c r="Q142" s="180"/>
     </row>
     <row r="143" spans="2:34" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B143" s="1045" t="s">
+      <c r="B143" s="1005" t="s">
         <v>100</v>
       </c>
-      <c r="C143" s="1045"/>
-      <c r="D143" s="1045"/>
-      <c r="E143" s="1045"/>
-      <c r="F143" s="1045"/>
-      <c r="G143" s="1045"/>
+      <c r="C143" s="1005"/>
+      <c r="D143" s="1005"/>
+      <c r="E143" s="1005"/>
+      <c r="F143" s="1005"/>
+      <c r="G143" s="1005"/>
       <c r="H143" s="177"/>
       <c r="J143" s="178"/>
       <c r="K143" s="178"/>
@@ -29242,12 +29242,12 @@
       <c r="O143" s="205"/>
     </row>
     <row r="144" spans="2:34" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B144" s="1045"/>
-      <c r="C144" s="1045"/>
-      <c r="D144" s="1045"/>
-      <c r="E144" s="1045"/>
-      <c r="F144" s="1045"/>
-      <c r="G144" s="1045"/>
+      <c r="B144" s="1005"/>
+      <c r="C144" s="1005"/>
+      <c r="D144" s="1005"/>
+      <c r="E144" s="1005"/>
+      <c r="F144" s="1005"/>
+      <c r="G144" s="1005"/>
       <c r="H144" s="177"/>
       <c r="J144" s="178"/>
       <c r="K144" s="178"/>
@@ -29256,12 +29256,12 @@
       <c r="O144" s="205"/>
     </row>
     <row r="145" spans="2:26" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B145" s="1045"/>
-      <c r="C145" s="1045"/>
-      <c r="D145" s="1045"/>
-      <c r="E145" s="1045"/>
-      <c r="F145" s="1045"/>
-      <c r="G145" s="1045"/>
+      <c r="B145" s="1005"/>
+      <c r="C145" s="1005"/>
+      <c r="D145" s="1005"/>
+      <c r="E145" s="1005"/>
+      <c r="F145" s="1005"/>
+      <c r="G145" s="1005"/>
       <c r="H145" s="177"/>
       <c r="J145" s="178"/>
       <c r="K145" s="178"/>
@@ -29270,13 +29270,13 @@
       <c r="O145" s="205"/>
     </row>
     <row r="146" spans="2:26" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B146" s="1046" t="s">
+      <c r="B146" s="1006" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="1046"/>
-      <c r="D146" s="1046"/>
-      <c r="E146" s="1046"/>
-      <c r="F146" s="1046"/>
+      <c r="C146" s="1006"/>
+      <c r="D146" s="1006"/>
+      <c r="E146" s="1006"/>
+      <c r="F146" s="1006"/>
       <c r="H146" s="177"/>
       <c r="J146" s="178"/>
       <c r="K146" s="178"/>
@@ -29285,11 +29285,11 @@
       <c r="O146" s="205"/>
     </row>
     <row r="147" spans="2:26" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B147" s="1030"/>
-      <c r="C147" s="1030"/>
-      <c r="D147" s="1030"/>
-      <c r="E147" s="1030"/>
-      <c r="F147" s="1030"/>
+      <c r="B147" s="1007"/>
+      <c r="C147" s="1007"/>
+      <c r="D147" s="1007"/>
+      <c r="E147" s="1007"/>
+      <c r="F147" s="1007"/>
       <c r="G147" s="182"/>
       <c r="H147" s="183"/>
       <c r="I147" s="182"/>
@@ -29366,10 +29366,10 @@
       <c r="K150" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="L150" s="1015" t="s">
+      <c r="L150" s="1003" t="s">
         <v>14</v>
       </c>
-      <c r="M150" s="1015"/>
+      <c r="M150" s="1003"/>
       <c r="N150" s="198"/>
       <c r="O150" s="205"/>
       <c r="P150" s="315"/>
@@ -29396,11 +29396,11 @@
       <c r="K151" s="318" t="s">
         <v>107</v>
       </c>
-      <c r="L151" s="1025">
+      <c r="L151" s="1004">
         <f>NET_publicv4_EUR</f>
         <v>2.2250000000000001</v>
       </c>
-      <c r="M151" s="1025"/>
+      <c r="M151" s="1004"/>
       <c r="O151" s="205"/>
       <c r="P151" s="190"/>
       <c r="R151" s="284"/>
@@ -29425,11 +29425,11 @@
       <c r="K152" s="321" t="s">
         <v>94</v>
       </c>
-      <c r="L152" s="1026">
+      <c r="L152" s="1056">
         <f>NET_publicv6_EUR</f>
         <v>0</v>
       </c>
-      <c r="M152" s="1026"/>
+      <c r="M152" s="1056"/>
       <c r="O152" s="205"/>
       <c r="P152" s="190"/>
       <c r="R152" s="284"/>
@@ -29452,11 +29452,11 @@
       <c r="K153" s="318" t="s">
         <v>69</v>
       </c>
-      <c r="L153" s="1027">
+      <c r="L153" s="1057">
         <f>NET_ingress_EUR</f>
         <v>0</v>
       </c>
-      <c r="M153" s="1027"/>
+      <c r="M153" s="1057"/>
       <c r="O153" s="205"/>
       <c r="P153" s="190"/>
       <c r="R153" s="284"/>
@@ -29481,11 +29481,11 @@
       <c r="K154" s="324" t="s">
         <v>69</v>
       </c>
-      <c r="L154" s="1026">
+      <c r="L154" s="1056">
         <f>NET_egress_EUR</f>
         <v>0</v>
       </c>
-      <c r="M154" s="1026"/>
+      <c r="M154" s="1056"/>
       <c r="O154" s="205"/>
       <c r="P154" s="190"/>
       <c r="R154" s="284"/>
@@ -29508,11 +29508,11 @@
       <c r="K155" s="318" t="s">
         <v>116</v>
       </c>
-      <c r="L155" s="1005" t="str">
+      <c r="L155" s="1018" t="str">
         <f>NET_mgn.slb_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M155" s="1005"/>
+      <c r="M155" s="1018"/>
       <c r="O155" s="205"/>
       <c r="Q155" s="191"/>
     </row>
@@ -29533,11 +29533,11 @@
       <c r="K156" s="321" t="s">
         <v>94</v>
       </c>
-      <c r="L156" s="1026">
+      <c r="L156" s="1056">
         <f>NET_rdns_EUR</f>
         <v>0</v>
       </c>
-      <c r="M156" s="1026"/>
+      <c r="M156" s="1056"/>
       <c r="O156" s="205"/>
       <c r="P156" s="190"/>
       <c r="R156" s="284"/>
@@ -29560,11 +29560,11 @@
       <c r="K157" s="318" t="s">
         <v>94</v>
       </c>
-      <c r="L157" s="1005">
+      <c r="L157" s="1018">
         <f>NET_byoip_EUR</f>
         <v>0</v>
       </c>
-      <c r="M157" s="1005"/>
+      <c r="M157" s="1018"/>
       <c r="O157" s="205"/>
       <c r="P157" s="190"/>
       <c r="R157" s="284"/>
@@ -29581,8 +29581,8 @@
       <c r="I158" s="327"/>
       <c r="J158" s="327"/>
       <c r="K158" s="326"/>
-      <c r="L158" s="1024"/>
-      <c r="M158" s="1024"/>
+      <c r="L158" s="1055"/>
+      <c r="M158" s="1055"/>
       <c r="O158" s="205"/>
       <c r="P158" s="190"/>
       <c r="R158" s="284"/>
@@ -29599,8 +29599,8 @@
       <c r="I159" s="198"/>
       <c r="J159" s="198"/>
       <c r="K159" s="328"/>
-      <c r="L159" s="1010"/>
-      <c r="M159" s="1010"/>
+      <c r="L159" s="1002"/>
+      <c r="M159" s="1002"/>
       <c r="O159" s="205"/>
       <c r="Q159" s="191"/>
       <c r="R159" s="284"/>
@@ -29623,10 +29623,10 @@
       <c r="K160" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="L160" s="1015" t="s">
+      <c r="L160" s="1003" t="s">
         <v>14</v>
       </c>
-      <c r="M160" s="1015"/>
+      <c r="M160" s="1003"/>
       <c r="O160" s="205"/>
       <c r="R160" s="284"/>
       <c r="S160" s="189"/>
@@ -29648,11 +29648,11 @@
       <c r="K161" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="L161" s="1025">
+      <c r="L161" s="1004">
         <f>SW_win.ser.201X_EUR</f>
         <v>15.574999999999999</v>
       </c>
-      <c r="M161" s="1025"/>
+      <c r="M161" s="1004"/>
       <c r="N161" s="281"/>
       <c r="O161" s="205"/>
       <c r="Q161" s="284"/>
@@ -29678,11 +29678,11 @@
       <c r="K162" s="324" t="s">
         <v>10</v>
       </c>
-      <c r="L162" s="1004">
+      <c r="L162" s="1061">
         <f>SW_win.ser.201X_EUR</f>
         <v>15.574999999999999</v>
       </c>
-      <c r="M162" s="1004"/>
+      <c r="M162" s="1061"/>
       <c r="N162" s="281"/>
       <c r="O162" s="205"/>
       <c r="Q162" s="284"/>
@@ -29708,11 +29708,11 @@
       <c r="K163" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="L163" s="1005">
+      <c r="L163" s="1018">
         <f>SW_ms.sql.ser_EUR</f>
         <v>109.381</v>
       </c>
-      <c r="M163" s="1005"/>
+      <c r="M163" s="1018"/>
       <c r="O163" s="205"/>
       <c r="P163" s="161"/>
       <c r="R163" s="284"/>
@@ -29735,11 +29735,11 @@
       <c r="K164" s="324" t="s">
         <v>116</v>
       </c>
-      <c r="L164" s="1023" t="str">
+      <c r="L164" s="1062" t="str">
         <f>SW_stackn_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M164" s="1023"/>
+      <c r="M164" s="1062"/>
       <c r="O164" s="205"/>
       <c r="R164" s="284"/>
       <c r="S164" s="189"/>
@@ -29761,11 +29761,11 @@
       <c r="K165" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="L165" s="1019" t="str">
+      <c r="L165" s="1063" t="str">
         <f>SW_nextcloud_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M165" s="1019"/>
+      <c r="M165" s="1063"/>
       <c r="N165" s="281"/>
       <c r="O165" s="205"/>
       <c r="Q165" s="284"/>
@@ -29791,11 +29791,11 @@
       <c r="K166" s="321" t="s">
         <v>94</v>
       </c>
-      <c r="L166" s="1023" t="str">
+      <c r="L166" s="1062" t="str">
         <f>SW_suse_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M166" s="1023"/>
+      <c r="M166" s="1062"/>
       <c r="O166" s="205"/>
       <c r="P166" s="161"/>
       <c r="R166" s="284"/>
@@ -29818,11 +29818,11 @@
       <c r="K167" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="L167" s="1019" t="str">
+      <c r="L167" s="1063" t="str">
         <f>SW_cluster.control_EUR</f>
         <v>3x instance price</v>
       </c>
-      <c r="M167" s="1019"/>
+      <c r="M167" s="1063"/>
       <c r="O167" s="205"/>
       <c r="R167" s="284"/>
       <c r="S167" s="189"/>
@@ -29844,11 +29844,11 @@
       <c r="K168" s="324" t="s">
         <v>138</v>
       </c>
-      <c r="L168" s="1020">
+      <c r="L168" s="1019">
         <f>SW_backup.ninja_EUR</f>
         <v>35.6</v>
       </c>
-      <c r="M168" s="1020"/>
+      <c r="M168" s="1019"/>
       <c r="O168" s="205"/>
       <c r="R168" s="284"/>
       <c r="S168" s="189"/>
@@ -29864,8 +29864,8 @@
       <c r="I169" s="331"/>
       <c r="J169" s="331"/>
       <c r="K169" s="332"/>
-      <c r="L169" s="1008"/>
-      <c r="M169" s="1008"/>
+      <c r="L169" s="1020"/>
+      <c r="M169" s="1020"/>
       <c r="O169" s="205"/>
       <c r="P169" s="190"/>
       <c r="R169" s="284"/>
@@ -29874,8 +29874,8 @@
     <row r="170" spans="2:22" ht="25" customHeight="1">
       <c r="B170" s="471"/>
       <c r="K170" s="334"/>
-      <c r="L170" s="1021"/>
-      <c r="M170" s="1021"/>
+      <c r="L170" s="1058"/>
+      <c r="M170" s="1058"/>
       <c r="O170" s="205"/>
       <c r="Q170" s="191"/>
       <c r="R170" s="284"/>
@@ -29894,8 +29894,8 @@
       <c r="I171" s="198"/>
       <c r="J171" s="198"/>
       <c r="K171" s="328"/>
-      <c r="L171" s="1010"/>
-      <c r="M171" s="1010"/>
+      <c r="L171" s="1002"/>
+      <c r="M171" s="1002"/>
       <c r="O171" s="205"/>
       <c r="Q171" s="191"/>
       <c r="R171" s="284"/>
@@ -29918,10 +29918,10 @@
       <c r="K172" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="L172" s="1015" t="s">
+      <c r="L172" s="1003" t="s">
         <v>14</v>
       </c>
-      <c r="M172" s="1015"/>
+      <c r="M172" s="1003"/>
       <c r="O172" s="205"/>
       <c r="Q172" s="191"/>
       <c r="R172" s="284"/>
@@ -29942,11 +29942,11 @@
       <c r="I173" s="317"/>
       <c r="J173" s="317"/>
       <c r="K173" s="318"/>
-      <c r="L173" s="1016" t="str">
+      <c r="L173" s="1068" t="str">
         <f>PAAS_man.kubernetes24_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M173" s="1016"/>
+      <c r="M173" s="1068"/>
       <c r="O173" s="205"/>
       <c r="Q173" s="191"/>
       <c r="R173" s="284"/>
@@ -29967,11 +29967,11 @@
       <c r="I174" s="320"/>
       <c r="J174" s="320"/>
       <c r="K174" s="324"/>
-      <c r="L174" s="1017" t="str">
+      <c r="L174" s="1069" t="str">
         <f>PAAS_man.kubernetes8_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M174" s="1017"/>
+      <c r="M174" s="1069"/>
       <c r="O174" s="205"/>
       <c r="Q174" s="191"/>
       <c r="R174" s="284"/>
@@ -29994,11 +29994,11 @@
       <c r="K175" s="318" t="s">
         <v>116</v>
       </c>
-      <c r="L175" s="1018" t="str">
+      <c r="L175" s="1059" t="str">
         <f>PAAS_man.elasticsearch_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M175" s="1018"/>
+      <c r="M175" s="1059"/>
       <c r="O175" s="205"/>
       <c r="Q175" s="191"/>
       <c r="R175" s="284"/>
@@ -30021,11 +30021,11 @@
       <c r="K176" s="324" t="s">
         <v>145</v>
       </c>
-      <c r="L176" s="1017" t="str">
+      <c r="L176" s="1069" t="str">
         <f>PAAS_man.redis_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M176" s="1017"/>
+      <c r="M176" s="1069"/>
       <c r="O176" s="205"/>
       <c r="Q176" s="191"/>
       <c r="R176" s="284"/>
@@ -30048,11 +30048,11 @@
       <c r="K177" s="318" t="s">
         <v>148</v>
       </c>
-      <c r="L177" s="1018" t="str">
+      <c r="L177" s="1059" t="str">
         <f>PAAS_man.nats_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M177" s="1018"/>
+      <c r="M177" s="1059"/>
       <c r="O177" s="205"/>
       <c r="Q177" s="191"/>
       <c r="R177" s="284"/>
@@ -30075,11 +30075,11 @@
       <c r="K178" s="324" t="s">
         <v>140</v>
       </c>
-      <c r="L178" s="1022" t="str">
+      <c r="L178" s="1060" t="str">
         <f>PAAS_man.mariadb_EUR</f>
         <v>Request a quote</v>
       </c>
-      <c r="M178" s="1022"/>
+      <c r="M178" s="1060"/>
       <c r="O178" s="205"/>
       <c r="Q178" s="191"/>
       <c r="R178" s="284"/>
@@ -30096,8 +30096,8 @@
       <c r="I179" s="331"/>
       <c r="J179" s="331"/>
       <c r="K179" s="332"/>
-      <c r="L179" s="1008"/>
-      <c r="M179" s="1008"/>
+      <c r="L179" s="1020"/>
+      <c r="M179" s="1020"/>
       <c r="O179" s="205"/>
       <c r="Q179" s="191"/>
       <c r="R179" s="284"/>
@@ -30113,8 +30113,8 @@
       <c r="H180" s="324"/>
       <c r="I180" s="541"/>
       <c r="K180" s="161"/>
-      <c r="L180" s="1013"/>
-      <c r="M180" s="1013"/>
+      <c r="L180" s="1066"/>
+      <c r="M180" s="1066"/>
       <c r="N180" s="189"/>
       <c r="O180" s="205"/>
     </row>
@@ -30129,85 +30129,85 @@
       <c r="I181" s="281"/>
       <c r="J181" s="281"/>
       <c r="K181" s="284"/>
-      <c r="L181" s="1014"/>
-      <c r="M181" s="1014"/>
+      <c r="L181" s="1067"/>
+      <c r="M181" s="1067"/>
       <c r="N181" s="189"/>
       <c r="O181" s="205"/>
       <c r="P181" s="180"/>
       <c r="Q181" s="180"/>
     </row>
     <row r="182" spans="2:19" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B182" s="1045" t="s">
+      <c r="B182" s="1005" t="s">
         <v>151</v>
       </c>
-      <c r="C182" s="1045"/>
-      <c r="D182" s="1045"/>
-      <c r="E182" s="1045"/>
-      <c r="F182" s="1045"/>
-      <c r="G182" s="1045"/>
+      <c r="C182" s="1005"/>
+      <c r="D182" s="1005"/>
+      <c r="E182" s="1005"/>
+      <c r="F182" s="1005"/>
+      <c r="G182" s="1005"/>
       <c r="H182" s="335"/>
       <c r="J182" s="178"/>
-      <c r="L182" s="1063"/>
-      <c r="M182" s="1063"/>
+      <c r="L182" s="1011"/>
+      <c r="M182" s="1011"/>
       <c r="N182" s="189"/>
       <c r="O182" s="205"/>
     </row>
     <row r="183" spans="2:19" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B183" s="1045"/>
-      <c r="C183" s="1045"/>
-      <c r="D183" s="1045"/>
-      <c r="E183" s="1045"/>
-      <c r="F183" s="1045"/>
-      <c r="G183" s="1045"/>
+      <c r="B183" s="1005"/>
+      <c r="C183" s="1005"/>
+      <c r="D183" s="1005"/>
+      <c r="E183" s="1005"/>
+      <c r="F183" s="1005"/>
+      <c r="G183" s="1005"/>
       <c r="H183" s="335"/>
       <c r="J183" s="178"/>
-      <c r="L183" s="1063"/>
-      <c r="M183" s="1063"/>
+      <c r="L183" s="1011"/>
+      <c r="M183" s="1011"/>
       <c r="N183" s="189"/>
       <c r="O183" s="205"/>
     </row>
     <row r="184" spans="2:19" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B184" s="1045"/>
-      <c r="C184" s="1045"/>
-      <c r="D184" s="1045"/>
-      <c r="E184" s="1045"/>
-      <c r="F184" s="1045"/>
-      <c r="G184" s="1045"/>
+      <c r="B184" s="1005"/>
+      <c r="C184" s="1005"/>
+      <c r="D184" s="1005"/>
+      <c r="E184" s="1005"/>
+      <c r="F184" s="1005"/>
+      <c r="G184" s="1005"/>
       <c r="H184" s="335"/>
       <c r="J184" s="178"/>
-      <c r="L184" s="1063"/>
-      <c r="M184" s="1063"/>
+      <c r="L184" s="1011"/>
+      <c r="M184" s="1011"/>
       <c r="N184" s="189"/>
       <c r="O184" s="205"/>
     </row>
     <row r="185" spans="2:19" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B185" s="1046" t="s">
+      <c r="B185" s="1006" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="1046"/>
-      <c r="D185" s="1046"/>
-      <c r="E185" s="1046"/>
-      <c r="F185" s="1046"/>
+      <c r="C185" s="1006"/>
+      <c r="D185" s="1006"/>
+      <c r="E185" s="1006"/>
+      <c r="F185" s="1006"/>
       <c r="H185" s="335"/>
       <c r="J185" s="178"/>
-      <c r="L185" s="1063"/>
-      <c r="M185" s="1063"/>
+      <c r="L185" s="1011"/>
+      <c r="M185" s="1011"/>
       <c r="N185" s="189"/>
       <c r="O185" s="205"/>
     </row>
     <row r="186" spans="2:19" s="169" customFormat="1" ht="25" customHeight="1">
-      <c r="B186" s="1030"/>
-      <c r="C186" s="1030"/>
-      <c r="D186" s="1030"/>
-      <c r="E186" s="1030"/>
-      <c r="F186" s="1030"/>
+      <c r="B186" s="1007"/>
+      <c r="C186" s="1007"/>
+      <c r="D186" s="1007"/>
+      <c r="E186" s="1007"/>
+      <c r="F186" s="1007"/>
       <c r="G186" s="182"/>
       <c r="H186" s="183"/>
       <c r="I186" s="182"/>
       <c r="J186" s="184"/>
       <c r="K186" s="182"/>
-      <c r="L186" s="1064"/>
-      <c r="M186" s="1064"/>
+      <c r="L186" s="1012"/>
+      <c r="M186" s="1012"/>
       <c r="N186" s="189"/>
       <c r="O186" s="205"/>
     </row>
@@ -30222,8 +30222,8 @@
       <c r="I187" s="182"/>
       <c r="J187" s="184"/>
       <c r="K187" s="182"/>
-      <c r="L187" s="1064"/>
-      <c r="M187" s="1064"/>
+      <c r="L187" s="1012"/>
+      <c r="M187" s="1012"/>
       <c r="N187" s="189"/>
       <c r="O187" s="205"/>
     </row>
@@ -30239,8 +30239,8 @@
       <c r="I188" s="198"/>
       <c r="J188" s="198"/>
       <c r="K188" s="198"/>
-      <c r="L188" s="1065"/>
-      <c r="M188" s="1065"/>
+      <c r="L188" s="1013"/>
+      <c r="M188" s="1013"/>
       <c r="N188" s="189"/>
       <c r="O188" s="205"/>
       <c r="P188" s="180"/>
@@ -30263,10 +30263,10 @@
       <c r="K189" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="L189" s="1015" t="s">
+      <c r="L189" s="1003" t="s">
         <v>14</v>
       </c>
-      <c r="M189" s="1015"/>
+      <c r="M189" s="1003"/>
       <c r="N189" s="189"/>
       <c r="O189" s="205"/>
       <c r="P189" s="180"/>
@@ -30289,10 +30289,10 @@
       <c r="K190" s="325" t="s">
         <v>94</v>
       </c>
-      <c r="L190" s="1066">
-        <v>0</v>
-      </c>
-      <c r="M190" s="1066"/>
+      <c r="L190" s="1014">
+        <v>0</v>
+      </c>
+      <c r="M190" s="1014"/>
       <c r="N190" s="189"/>
       <c r="O190" s="205"/>
       <c r="P190" s="180"/>
@@ -30315,10 +30315,10 @@
       <c r="K191" s="324" t="s">
         <v>157</v>
       </c>
-      <c r="L191" s="1006" t="s">
+      <c r="L191" s="1064" t="s">
         <v>158</v>
       </c>
-      <c r="M191" s="1006"/>
+      <c r="M191" s="1064"/>
       <c r="N191" s="189"/>
       <c r="O191" s="205"/>
       <c r="P191" s="180"/>
@@ -30341,10 +30341,10 @@
       <c r="K192" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="L192" s="1007" t="s">
+      <c r="L192" s="1065" t="s">
         <v>162</v>
       </c>
-      <c r="M192" s="1007"/>
+      <c r="M192" s="1065"/>
       <c r="N192" s="189"/>
       <c r="O192" s="205"/>
       <c r="P192" s="180"/>
@@ -30363,8 +30363,8 @@
       <c r="I193" s="331"/>
       <c r="J193" s="331"/>
       <c r="K193" s="332"/>
-      <c r="L193" s="1008"/>
-      <c r="M193" s="1008"/>
+      <c r="L193" s="1020"/>
+      <c r="M193" s="1020"/>
       <c r="N193" s="189"/>
       <c r="O193" s="205"/>
       <c r="P193" s="180"/>
@@ -30381,8 +30381,8 @@
       <c r="I194" s="320"/>
       <c r="J194" s="320"/>
       <c r="K194" s="324"/>
-      <c r="L194" s="1009"/>
-      <c r="M194" s="1009"/>
+      <c r="L194" s="1021"/>
+      <c r="M194" s="1021"/>
       <c r="N194" s="189"/>
       <c r="O194" s="205"/>
       <c r="P194" s="180"/>
@@ -30401,8 +30401,8 @@
       <c r="I195" s="198"/>
       <c r="J195" s="198"/>
       <c r="K195" s="328"/>
-      <c r="L195" s="1010"/>
-      <c r="M195" s="1010"/>
+      <c r="L195" s="1002"/>
+      <c r="M195" s="1002"/>
       <c r="N195" s="189"/>
       <c r="O195" s="205"/>
       <c r="P195" s="180"/>
@@ -30425,10 +30425,10 @@
       <c r="K196" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="L196" s="1015" t="s">
+      <c r="L196" s="1003" t="s">
         <v>14</v>
       </c>
-      <c r="M196" s="1015"/>
+      <c r="M196" s="1003"/>
       <c r="N196" s="189"/>
       <c r="O196" s="205"/>
       <c r="P196" s="180"/>
@@ -30451,11 +30451,11 @@
       <c r="K197" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="L197" s="1025">
+      <c r="L197" s="1004">
         <f>PS_consult.jun_EUR</f>
         <v>100.303</v>
       </c>
-      <c r="M197" s="1025"/>
+      <c r="M197" s="1004"/>
       <c r="N197" s="189"/>
       <c r="O197" s="205"/>
       <c r="P197" s="180"/>
@@ -30478,11 +30478,11 @@
       <c r="K198" s="324" t="s">
         <v>161</v>
       </c>
-      <c r="L198" s="1004">
+      <c r="L198" s="1061">
         <f>PS_consult.sen_EUR</f>
         <v>122.28599999999999</v>
       </c>
-      <c r="M198" s="1004"/>
+      <c r="M198" s="1061"/>
       <c r="N198" s="189"/>
       <c r="O198" s="205"/>
       <c r="P198" s="180"/>
@@ -30505,11 +30505,11 @@
       <c r="K199" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="L199" s="1005">
+      <c r="L199" s="1018">
         <f>PS_cloudarch.jun_EUR</f>
         <v>113.65299999999999</v>
       </c>
-      <c r="M199" s="1005"/>
+      <c r="M199" s="1018"/>
       <c r="N199" s="189"/>
       <c r="O199" s="205"/>
       <c r="P199" s="180"/>
@@ -30532,11 +30532,11 @@
       <c r="K200" s="324" t="s">
         <v>161</v>
       </c>
-      <c r="L200" s="1004">
+      <c r="L200" s="1061">
         <f>PS_cloudarch.sen_EUR</f>
         <v>122.28599999999999</v>
       </c>
-      <c r="M200" s="1004"/>
+      <c r="M200" s="1061"/>
       <c r="N200" s="189"/>
       <c r="O200" s="205"/>
       <c r="P200" s="180"/>
@@ -30559,11 +30559,11 @@
       <c r="K201" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="L201" s="1005">
+      <c r="L201" s="1018">
         <f>PS_pm.jun_EUR</f>
         <v>101.371</v>
       </c>
-      <c r="M201" s="1005"/>
+      <c r="M201" s="1018"/>
       <c r="N201" s="189"/>
       <c r="O201" s="205"/>
       <c r="P201" s="180"/>
@@ -30586,11 +30586,11 @@
       <c r="K202" s="324" t="s">
         <v>161</v>
       </c>
-      <c r="L202" s="1020">
+      <c r="L202" s="1019">
         <f>PS_pm.sen_EUR</f>
         <v>122.28599999999999</v>
       </c>
-      <c r="M202" s="1020"/>
+      <c r="M202" s="1019"/>
       <c r="N202" s="189"/>
       <c r="O202" s="205"/>
       <c r="P202" s="180"/>
@@ -30607,8 +30607,8 @@
       <c r="I203" s="331"/>
       <c r="J203" s="331"/>
       <c r="K203" s="332"/>
-      <c r="L203" s="1008"/>
-      <c r="M203" s="1008"/>
+      <c r="L203" s="1020"/>
+      <c r="M203" s="1020"/>
       <c r="N203" s="189"/>
       <c r="O203" s="205"/>
       <c r="P203" s="180"/>
@@ -30625,8 +30625,8 @@
       <c r="I204" s="320"/>
       <c r="J204" s="320"/>
       <c r="K204" s="324"/>
-      <c r="L204" s="1009"/>
-      <c r="M204" s="1009"/>
+      <c r="L204" s="1021"/>
+      <c r="M204" s="1021"/>
       <c r="N204" s="189"/>
       <c r="O204" s="205"/>
     </row>
@@ -30643,8 +30643,8 @@
       <c r="I205" s="198"/>
       <c r="J205" s="198"/>
       <c r="K205" s="328"/>
-      <c r="L205" s="1010"/>
-      <c r="M205" s="1010"/>
+      <c r="L205" s="1002"/>
+      <c r="M205" s="1002"/>
       <c r="N205" s="189"/>
       <c r="O205" s="205"/>
       <c r="P205" s="180"/>
@@ -30669,10 +30669,10 @@
       <c r="K206" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="L206" s="1015" t="s">
+      <c r="L206" s="1003" t="s">
         <v>179</v>
       </c>
-      <c r="M206" s="1015"/>
+      <c r="M206" s="1003"/>
       <c r="N206" s="189"/>
       <c r="O206" s="205"/>
       <c r="P206" s="180"/>
@@ -30697,10 +30697,10 @@
       <c r="K207" s="318" t="s">
         <v>183</v>
       </c>
-      <c r="L207" s="1066" t="s">
+      <c r="L207" s="1014" t="s">
         <v>162</v>
       </c>
-      <c r="M207" s="1066"/>
+      <c r="M207" s="1014"/>
       <c r="N207" s="189"/>
       <c r="O207" s="205"/>
       <c r="P207" s="180"/>
@@ -30725,10 +30725,10 @@
       <c r="K208" s="324" t="s">
         <v>183</v>
       </c>
-      <c r="L208" s="1067" t="s">
+      <c r="L208" s="1015" t="s">
         <v>162</v>
       </c>
-      <c r="M208" s="1067"/>
+      <c r="M208" s="1015"/>
       <c r="N208" s="189"/>
       <c r="O208" s="205"/>
       <c r="P208" s="180"/>
@@ -30753,10 +30753,10 @@
       <c r="K209" s="318" t="s">
         <v>183</v>
       </c>
-      <c r="L209" s="1068" t="s">
+      <c r="L209" s="1016" t="s">
         <v>162</v>
       </c>
-      <c r="M209" s="1068"/>
+      <c r="M209" s="1016"/>
       <c r="N209" s="189"/>
       <c r="O209" s="205"/>
       <c r="P209" s="180"/>
@@ -30781,10 +30781,10 @@
       <c r="K210" s="324" t="s">
         <v>183</v>
       </c>
-      <c r="L210" s="1069" t="s">
+      <c r="L210" s="1017" t="s">
         <v>162</v>
       </c>
-      <c r="M210" s="1069"/>
+      <c r="M210" s="1017"/>
       <c r="N210" s="189"/>
       <c r="O210" s="205"/>
       <c r="P210" s="180"/>
@@ -30898,14 +30898,14 @@
     </row>
     <row r="217" spans="1:17" s="169" customFormat="1" ht="25" customHeight="1">
       <c r="A217" s="162"/>
-      <c r="B217" s="1060" t="s">
+      <c r="B217" s="1008" t="s">
         <v>191</v>
       </c>
-      <c r="C217" s="1060"/>
-      <c r="D217" s="1060"/>
-      <c r="E217" s="1060"/>
-      <c r="F217" s="1060"/>
-      <c r="G217" s="1060"/>
+      <c r="C217" s="1008"/>
+      <c r="D217" s="1008"/>
+      <c r="E217" s="1008"/>
+      <c r="F217" s="1008"/>
+      <c r="G217" s="1008"/>
       <c r="H217" s="165"/>
       <c r="I217" s="162"/>
       <c r="J217" s="166"/>
@@ -30917,12 +30917,12 @@
     </row>
     <row r="218" spans="1:17" s="169" customFormat="1" ht="25" customHeight="1">
       <c r="A218" s="162"/>
-      <c r="B218" s="1060"/>
-      <c r="C218" s="1060"/>
-      <c r="D218" s="1060"/>
-      <c r="E218" s="1060"/>
-      <c r="F218" s="1060"/>
-      <c r="G218" s="1060"/>
+      <c r="B218" s="1008"/>
+      <c r="C218" s="1008"/>
+      <c r="D218" s="1008"/>
+      <c r="E218" s="1008"/>
+      <c r="F218" s="1008"/>
+      <c r="G218" s="1008"/>
       <c r="H218" s="165"/>
       <c r="I218" s="162"/>
       <c r="J218" s="166"/>
@@ -30934,12 +30934,12 @@
     </row>
     <row r="219" spans="1:17" s="169" customFormat="1" ht="25" customHeight="1">
       <c r="A219" s="162"/>
-      <c r="B219" s="1060"/>
-      <c r="C219" s="1060"/>
-      <c r="D219" s="1060"/>
-      <c r="E219" s="1060"/>
-      <c r="F219" s="1060"/>
-      <c r="G219" s="1060"/>
+      <c r="B219" s="1008"/>
+      <c r="C219" s="1008"/>
+      <c r="D219" s="1008"/>
+      <c r="E219" s="1008"/>
+      <c r="F219" s="1008"/>
+      <c r="G219" s="1008"/>
       <c r="H219" s="165"/>
       <c r="I219" s="162"/>
       <c r="J219" s="166"/>
@@ -30951,13 +30951,13 @@
     </row>
     <row r="220" spans="1:17" s="169" customFormat="1" ht="25" customHeight="1">
       <c r="A220" s="162"/>
-      <c r="B220" s="1061" t="s">
+      <c r="B220" s="1009" t="s">
         <v>6</v>
       </c>
-      <c r="C220" s="1061"/>
-      <c r="D220" s="1061"/>
-      <c r="E220" s="1061"/>
-      <c r="F220" s="1061"/>
+      <c r="C220" s="1009"/>
+      <c r="D220" s="1009"/>
+      <c r="E220" s="1009"/>
+      <c r="F220" s="1009"/>
       <c r="G220" s="162"/>
       <c r="H220" s="165"/>
       <c r="I220" s="162"/>
@@ -31105,11 +31105,11 @@
         <f>SUM(E38)&amp;" GB  Disk"</f>
         <v>0 GB  Disk</v>
       </c>
-      <c r="F227" s="1062" t="str">
+      <c r="F227" s="1010" t="str">
         <f>SUM(E67)&amp;" GB NVME-Disk"</f>
         <v>0 GB NVME-Disk</v>
       </c>
-      <c r="G227" s="1062"/>
+      <c r="G227" s="1010"/>
       <c r="H227" s="361"/>
       <c r="I227" s="361"/>
       <c r="J227" s="362"/>
@@ -32139,6 +32139,126 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="144">
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="L198:M198"/>
+    <mergeCell ref="L199:M199"/>
+    <mergeCell ref="L200:M200"/>
+    <mergeCell ref="L191:M191"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="L193:M193"/>
+    <mergeCell ref="L194:M194"/>
+    <mergeCell ref="L195:M195"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L180:M180"/>
+    <mergeCell ref="L181:M181"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="L173:M173"/>
+    <mergeCell ref="L174:M174"/>
+    <mergeCell ref="L175:M175"/>
+    <mergeCell ref="L176:M176"/>
+    <mergeCell ref="L167:M167"/>
+    <mergeCell ref="L168:M168"/>
+    <mergeCell ref="L169:M169"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="L171:M171"/>
+    <mergeCell ref="L177:M177"/>
+    <mergeCell ref="L178:M178"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="L165:M165"/>
+    <mergeCell ref="L166:M166"/>
+    <mergeCell ref="L158:M158"/>
+    <mergeCell ref="L159:M159"/>
+    <mergeCell ref="L160:M160"/>
+    <mergeCell ref="L161:M161"/>
+    <mergeCell ref="L150:M150"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="L152:M152"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="L154:M154"/>
+    <mergeCell ref="L155:M155"/>
+    <mergeCell ref="L156:M156"/>
+    <mergeCell ref="L157:M157"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="B143:G145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B135:I135"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B95:G97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B122:G124"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="B136:I136"/>
+    <mergeCell ref="B137:I137"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
     <mergeCell ref="L205:M205"/>
     <mergeCell ref="L196:M196"/>
     <mergeCell ref="L197:M197"/>
@@ -32163,126 +32283,6 @@
     <mergeCell ref="L209:M209"/>
     <mergeCell ref="L210:M210"/>
     <mergeCell ref="L201:M201"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="B136:I136"/>
-    <mergeCell ref="B137:I137"/>
-    <mergeCell ref="B138:I138"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="B143:G145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B135:I135"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B95:G97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B122:G124"/>
-    <mergeCell ref="L158:M158"/>
-    <mergeCell ref="L159:M159"/>
-    <mergeCell ref="L160:M160"/>
-    <mergeCell ref="L161:M161"/>
-    <mergeCell ref="L150:M150"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="L152:M152"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="L154:M154"/>
-    <mergeCell ref="L155:M155"/>
-    <mergeCell ref="L156:M156"/>
-    <mergeCell ref="L157:M157"/>
-    <mergeCell ref="L168:M168"/>
-    <mergeCell ref="L169:M169"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="L171:M171"/>
-    <mergeCell ref="L177:M177"/>
-    <mergeCell ref="L178:M178"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="L164:M164"/>
-    <mergeCell ref="L165:M165"/>
-    <mergeCell ref="L166:M166"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="L198:M198"/>
-    <mergeCell ref="L199:M199"/>
-    <mergeCell ref="L200:M200"/>
-    <mergeCell ref="L191:M191"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="L193:M193"/>
-    <mergeCell ref="L194:M194"/>
-    <mergeCell ref="L195:M195"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L180:M180"/>
-    <mergeCell ref="L181:M181"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="L173:M173"/>
-    <mergeCell ref="L174:M174"/>
-    <mergeCell ref="L175:M175"/>
-    <mergeCell ref="L176:M176"/>
-    <mergeCell ref="L167:M167"/>
   </mergeCells>
   <conditionalFormatting sqref="H103">
     <cfRule type="cellIs" dxfId="57" priority="3" operator="greaterThan">
@@ -32467,8 +32467,8 @@
     </row>
     <row r="4" spans="1:28" ht="25.5" customHeight="1">
       <c r="A4" s="157"/>
-      <c r="B4" s="1053"/>
-      <c r="C4" s="1053"/>
+      <c r="B4" s="1031"/>
+      <c r="C4" s="1031"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="157"/>
@@ -32598,12 +32598,12 @@
       <c r="A11" s="162"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
-      <c r="D11" s="1055" t="str">
+      <c r="D11" s="1033" t="str">
         <f>"1 SEK = "&amp;NOK&amp;" NOK"</f>
         <v>1 SEK = 1 NOK</v>
       </c>
-      <c r="E11" s="1055"/>
-      <c r="F11" s="1055"/>
+      <c r="E11" s="1033"/>
+      <c r="F11" s="1033"/>
       <c r="G11" s="164"/>
       <c r="H11" s="164"/>
       <c r="I11" s="165"/>
@@ -32656,14 +32656,14 @@
       <c r="O14" s="168"/>
     </row>
     <row r="15" spans="1:28" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="1045" t="s">
+      <c r="B15" s="1005" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1045"/>
-      <c r="D15" s="1045"/>
-      <c r="E15" s="1045"/>
-      <c r="F15" s="1045"/>
-      <c r="G15" s="1045"/>
+      <c r="C15" s="1005"/>
+      <c r="D15" s="1005"/>
+      <c r="E15" s="1005"/>
+      <c r="F15" s="1005"/>
+      <c r="G15" s="1005"/>
       <c r="H15" s="177"/>
       <c r="J15" s="178"/>
       <c r="K15" s="178"/>
@@ -32675,12 +32675,12 @@
       <c r="AB15" s="180"/>
     </row>
     <row r="16" spans="1:28" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="1045"/>
-      <c r="C16" s="1045"/>
-      <c r="D16" s="1045"/>
-      <c r="E16" s="1045"/>
-      <c r="F16" s="1045"/>
-      <c r="G16" s="1045"/>
+      <c r="B16" s="1005"/>
+      <c r="C16" s="1005"/>
+      <c r="D16" s="1005"/>
+      <c r="E16" s="1005"/>
+      <c r="F16" s="1005"/>
+      <c r="G16" s="1005"/>
       <c r="H16" s="177"/>
       <c r="J16" s="178"/>
       <c r="K16" s="178"/>
@@ -32692,12 +32692,12 @@
       <c r="AB16" s="180"/>
     </row>
     <row r="17" spans="2:28" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="1045"/>
-      <c r="C17" s="1045"/>
-      <c r="D17" s="1045"/>
-      <c r="E17" s="1045"/>
-      <c r="F17" s="1045"/>
-      <c r="G17" s="1045"/>
+      <c r="B17" s="1005"/>
+      <c r="C17" s="1005"/>
+      <c r="D17" s="1005"/>
+      <c r="E17" s="1005"/>
+      <c r="F17" s="1005"/>
+      <c r="G17" s="1005"/>
       <c r="H17" s="177"/>
       <c r="J17" s="178"/>
       <c r="K17" s="178"/>
@@ -32731,13 +32731,13 @@
       <c r="AB18" s="180"/>
     </row>
     <row r="19" spans="2:28" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="1052" t="s">
+      <c r="B19" s="1032" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="1052"/>
-      <c r="D19" s="1052"/>
-      <c r="E19" s="1052"/>
-      <c r="F19" s="1052"/>
+      <c r="C19" s="1032"/>
+      <c r="D19" s="1032"/>
+      <c r="E19" s="1032"/>
+      <c r="F19" s="1032"/>
       <c r="G19" s="182"/>
       <c r="H19" s="183"/>
       <c r="I19" s="182"/>
@@ -34908,10 +34908,10 @@
       <c r="E88" s="132" t="s">
         <v>263</v>
       </c>
-      <c r="F88" s="1054" t="s">
+      <c r="F88" s="1024" t="s">
         <v>272</v>
       </c>
-      <c r="G88" s="1054"/>
+      <c r="G88" s="1024"/>
       <c r="H88" s="265"/>
       <c r="I88" s="266" t="s">
         <v>273</v>
@@ -34939,11 +34939,11 @@
         <f>F89/720</f>
         <v>1.6666666666666666E-3</v>
       </c>
-      <c r="F89" s="1070">
+      <c r="F89" s="1084">
         <f>VOLUME_large_SEK</f>
         <v>1.2</v>
       </c>
-      <c r="G89" s="1070"/>
+      <c r="G89" s="1084"/>
       <c r="H89" s="613"/>
       <c r="I89" s="271"/>
       <c r="J89" s="472" t="s">
@@ -34968,11 +34968,11 @@
         <f>F90/720</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F90" s="1072">
+      <c r="F90" s="1082">
         <f>VOLUME_fast_SEK</f>
         <v>3.6</v>
       </c>
-      <c r="G90" s="1072"/>
+      <c r="G90" s="1082"/>
       <c r="H90" s="614"/>
       <c r="I90" s="275"/>
       <c r="J90" s="473" t="s">
@@ -35053,14 +35053,14 @@
       <c r="O94" s="168"/>
     </row>
     <row r="95" spans="2:23" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B95" s="1045" t="s">
+      <c r="B95" s="1005" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="1045"/>
-      <c r="D95" s="1045"/>
-      <c r="E95" s="1045"/>
-      <c r="F95" s="1045"/>
-      <c r="G95" s="1045"/>
+      <c r="C95" s="1005"/>
+      <c r="D95" s="1005"/>
+      <c r="E95" s="1005"/>
+      <c r="F95" s="1005"/>
+      <c r="G95" s="1005"/>
       <c r="H95" s="177"/>
       <c r="J95" s="178"/>
       <c r="K95" s="178"/>
@@ -35068,12 +35068,12 @@
       <c r="O95" s="168"/>
     </row>
     <row r="96" spans="2:23" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B96" s="1045"/>
-      <c r="C96" s="1045"/>
-      <c r="D96" s="1045"/>
-      <c r="E96" s="1045"/>
-      <c r="F96" s="1045"/>
-      <c r="G96" s="1045"/>
+      <c r="B96" s="1005"/>
+      <c r="C96" s="1005"/>
+      <c r="D96" s="1005"/>
+      <c r="E96" s="1005"/>
+      <c r="F96" s="1005"/>
+      <c r="G96" s="1005"/>
       <c r="H96" s="177"/>
       <c r="J96" s="178"/>
       <c r="K96" s="178"/>
@@ -35081,12 +35081,12 @@
       <c r="O96" s="168"/>
     </row>
     <row r="97" spans="2:23" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B97" s="1045"/>
-      <c r="C97" s="1045"/>
-      <c r="D97" s="1045"/>
-      <c r="E97" s="1045"/>
-      <c r="F97" s="1045"/>
-      <c r="G97" s="1045"/>
+      <c r="B97" s="1005"/>
+      <c r="C97" s="1005"/>
+      <c r="D97" s="1005"/>
+      <c r="E97" s="1005"/>
+      <c r="F97" s="1005"/>
+      <c r="G97" s="1005"/>
       <c r="H97" s="177"/>
       <c r="J97" s="178"/>
       <c r="K97" s="178"/>
@@ -35094,13 +35094,13 @@
       <c r="O97" s="168"/>
     </row>
     <row r="98" spans="2:23" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B98" s="1073" t="s">
+      <c r="B98" s="1080" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="1073"/>
-      <c r="D98" s="1073"/>
-      <c r="E98" s="1073"/>
-      <c r="F98" s="1073"/>
+      <c r="C98" s="1080"/>
+      <c r="D98" s="1080"/>
+      <c r="E98" s="1080"/>
+      <c r="F98" s="1080"/>
       <c r="H98" s="177"/>
       <c r="J98" s="178"/>
       <c r="K98" s="178"/>
@@ -35109,13 +35109,13 @@
       <c r="O98" s="187"/>
     </row>
     <row r="99" spans="2:23" s="291" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B99" s="1052" t="s">
+      <c r="B99" s="1032" t="s">
         <v>275</v>
       </c>
-      <c r="C99" s="1052"/>
-      <c r="D99" s="1052"/>
-      <c r="E99" s="1052"/>
-      <c r="F99" s="1052"/>
+      <c r="C99" s="1032"/>
+      <c r="D99" s="1032"/>
+      <c r="E99" s="1032"/>
+      <c r="F99" s="1032"/>
       <c r="G99" s="285"/>
       <c r="H99" s="286"/>
       <c r="I99" s="285"/>
@@ -35171,16 +35171,16 @@
       <c r="C102" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D102" s="1054" t="s">
+      <c r="D102" s="1024" t="s">
         <v>278</v>
       </c>
-      <c r="E102" s="1054"/>
-      <c r="F102" s="1054"/>
-      <c r="G102" s="1054"/>
-      <c r="H102" s="1054"/>
-      <c r="I102" s="1054"/>
-      <c r="J102" s="1054"/>
-      <c r="K102" s="1054"/>
+      <c r="E102" s="1024"/>
+      <c r="F102" s="1024"/>
+      <c r="G102" s="1024"/>
+      <c r="H102" s="1024"/>
+      <c r="I102" s="1024"/>
+      <c r="J102" s="1024"/>
+      <c r="K102" s="1024"/>
       <c r="L102" s="535"/>
       <c r="M102" s="265"/>
       <c r="N102" s="186"/>
@@ -35195,17 +35195,17 @@
       <c r="C103" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="1071">
+      <c r="D103" s="1083">
         <f>S3_storage.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E103" s="1071"/>
-      <c r="F103" s="1071"/>
-      <c r="G103" s="1071"/>
-      <c r="H103" s="1071"/>
-      <c r="I103" s="1071"/>
-      <c r="J103" s="1071"/>
-      <c r="K103" s="1071"/>
+      <c r="E103" s="1083"/>
+      <c r="F103" s="1083"/>
+      <c r="G103" s="1083"/>
+      <c r="H103" s="1083"/>
+      <c r="I103" s="1083"/>
+      <c r="J103" s="1083"/>
+      <c r="K103" s="1083"/>
       <c r="L103" s="538"/>
       <c r="M103" s="292"/>
       <c r="N103" s="186"/>
@@ -35220,17 +35220,17 @@
       <c r="C104" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D104" s="1075">
+      <c r="D104" s="1078">
         <f>S3_storage.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E104" s="1075"/>
-      <c r="F104" s="1075"/>
-      <c r="G104" s="1075"/>
-      <c r="H104" s="1075"/>
-      <c r="I104" s="1075"/>
-      <c r="J104" s="1075"/>
-      <c r="K104" s="1075"/>
+      <c r="E104" s="1078"/>
+      <c r="F104" s="1078"/>
+      <c r="G104" s="1078"/>
+      <c r="H104" s="1078"/>
+      <c r="I104" s="1078"/>
+      <c r="J104" s="1078"/>
+      <c r="K104" s="1078"/>
       <c r="L104" s="532"/>
       <c r="M104" s="293"/>
       <c r="N104" s="186"/>
@@ -35245,17 +35245,17 @@
       <c r="C105" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D105" s="1074">
+      <c r="D105" s="1081">
         <f>S3_storage.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E105" s="1074"/>
-      <c r="F105" s="1074"/>
-      <c r="G105" s="1074"/>
-      <c r="H105" s="1074"/>
-      <c r="I105" s="1074"/>
-      <c r="J105" s="1074"/>
-      <c r="K105" s="1074"/>
+      <c r="E105" s="1081"/>
+      <c r="F105" s="1081"/>
+      <c r="G105" s="1081"/>
+      <c r="H105" s="1081"/>
+      <c r="I105" s="1081"/>
+      <c r="J105" s="1081"/>
+      <c r="K105" s="1081"/>
       <c r="L105" s="537"/>
       <c r="M105" s="294"/>
       <c r="N105" s="186"/>
@@ -35270,17 +35270,17 @@
       <c r="C106" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="1075">
+      <c r="D106" s="1078">
         <f>S3_storage.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E106" s="1075"/>
-      <c r="F106" s="1075"/>
-      <c r="G106" s="1075"/>
-      <c r="H106" s="1075"/>
-      <c r="I106" s="1075"/>
-      <c r="J106" s="1075"/>
-      <c r="K106" s="1075"/>
+      <c r="E106" s="1078"/>
+      <c r="F106" s="1078"/>
+      <c r="G106" s="1078"/>
+      <c r="H106" s="1078"/>
+      <c r="I106" s="1078"/>
+      <c r="J106" s="1078"/>
+      <c r="K106" s="1078"/>
       <c r="L106" s="532"/>
       <c r="M106" s="293"/>
       <c r="N106" s="186"/>
@@ -35295,17 +35295,17 @@
       <c r="C107" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D107" s="1076" t="str">
+      <c r="D107" s="1079" t="str">
         <f>S3_storage.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E107" s="1076"/>
-      <c r="F107" s="1076"/>
-      <c r="G107" s="1076"/>
-      <c r="H107" s="1076"/>
-      <c r="I107" s="1076"/>
-      <c r="J107" s="1076"/>
-      <c r="K107" s="1076"/>
+      <c r="E107" s="1079"/>
+      <c r="F107" s="1079"/>
+      <c r="G107" s="1079"/>
+      <c r="H107" s="1079"/>
+      <c r="I107" s="1079"/>
+      <c r="J107" s="1079"/>
+      <c r="K107" s="1079"/>
       <c r="L107" s="534"/>
       <c r="M107" s="295"/>
       <c r="N107" s="186"/>
@@ -35485,14 +35485,14 @@
       <c r="O115" s="168"/>
     </row>
     <row r="116" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B116" s="1045" t="s">
+      <c r="B116" s="1005" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="1045"/>
-      <c r="D116" s="1045"/>
-      <c r="E116" s="1045"/>
-      <c r="F116" s="1045"/>
-      <c r="G116" s="1045"/>
+      <c r="C116" s="1005"/>
+      <c r="D116" s="1005"/>
+      <c r="E116" s="1005"/>
+      <c r="F116" s="1005"/>
+      <c r="G116" s="1005"/>
       <c r="H116" s="177"/>
       <c r="J116" s="178"/>
       <c r="K116" s="178"/>
@@ -35502,12 +35502,12 @@
       <c r="O116" s="168"/>
     </row>
     <row r="117" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B117" s="1045"/>
-      <c r="C117" s="1045"/>
-      <c r="D117" s="1045"/>
-      <c r="E117" s="1045"/>
-      <c r="F117" s="1045"/>
-      <c r="G117" s="1045"/>
+      <c r="B117" s="1005"/>
+      <c r="C117" s="1005"/>
+      <c r="D117" s="1005"/>
+      <c r="E117" s="1005"/>
+      <c r="F117" s="1005"/>
+      <c r="G117" s="1005"/>
       <c r="H117" s="177"/>
       <c r="J117" s="178"/>
       <c r="K117" s="178"/>
@@ -35517,12 +35517,12 @@
       <c r="O117" s="168"/>
     </row>
     <row r="118" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B118" s="1045"/>
-      <c r="C118" s="1045"/>
-      <c r="D118" s="1045"/>
-      <c r="E118" s="1045"/>
-      <c r="F118" s="1045"/>
-      <c r="G118" s="1045"/>
+      <c r="B118" s="1005"/>
+      <c r="C118" s="1005"/>
+      <c r="D118" s="1005"/>
+      <c r="E118" s="1005"/>
+      <c r="F118" s="1005"/>
+      <c r="G118" s="1005"/>
       <c r="H118" s="177"/>
       <c r="J118" s="178"/>
       <c r="K118" s="178"/>
@@ -35532,13 +35532,13 @@
       <c r="O118" s="168"/>
     </row>
     <row r="119" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B119" s="1073" t="s">
+      <c r="B119" s="1080" t="s">
         <v>279</v>
       </c>
-      <c r="C119" s="1073"/>
-      <c r="D119" s="1073"/>
-      <c r="E119" s="1073"/>
-      <c r="F119" s="1073"/>
+      <c r="C119" s="1080"/>
+      <c r="D119" s="1080"/>
+      <c r="E119" s="1080"/>
+      <c r="F119" s="1080"/>
       <c r="H119" s="177"/>
       <c r="J119" s="178"/>
       <c r="K119" s="178"/>
@@ -35548,13 +35548,13 @@
       <c r="O119" s="187"/>
     </row>
     <row r="120" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B120" s="1052" t="s">
+      <c r="B120" s="1032" t="s">
         <v>280</v>
       </c>
-      <c r="C120" s="1052"/>
-      <c r="D120" s="1052"/>
-      <c r="E120" s="1052"/>
-      <c r="F120" s="1052"/>
+      <c r="C120" s="1032"/>
+      <c r="D120" s="1032"/>
+      <c r="E120" s="1032"/>
+      <c r="F120" s="1032"/>
       <c r="G120" s="182"/>
       <c r="H120" s="183"/>
       <c r="I120" s="182"/>
@@ -35619,25 +35619,25 @@
       <c r="B123" s="444" t="s">
         <v>208</v>
       </c>
-      <c r="C123" s="1054" t="s">
+      <c r="C123" s="1024" t="s">
         <v>281</v>
       </c>
-      <c r="D123" s="1054"/>
+      <c r="D123" s="1024"/>
       <c r="E123" s="131" t="s">
         <v>263</v>
       </c>
-      <c r="F123" s="1054" t="s">
+      <c r="F123" s="1024" t="s">
         <v>272</v>
       </c>
-      <c r="G123" s="1054"/>
+      <c r="G123" s="1024"/>
       <c r="H123" s="266" t="s">
         <v>90</v>
       </c>
       <c r="I123" s="265"/>
-      <c r="J123" s="1029" t="s">
+      <c r="J123" s="1038" t="s">
         <v>282</v>
       </c>
-      <c r="K123" s="1029"/>
+      <c r="K123" s="1038"/>
       <c r="L123" s="533"/>
       <c r="M123" s="535" t="s">
         <v>92</v>
@@ -35656,19 +35656,19 @@
       <c r="E124" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F124" s="1077">
+      <c r="F124" s="1072">
         <f>BAAS_on.demand_SEK</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G124" s="1078"/>
+      <c r="G124" s="1073"/>
       <c r="H124" s="307"/>
       <c r="I124" s="472" t="s">
         <v>69</v>
       </c>
-      <c r="J124" s="1034" t="s">
+      <c r="J124" s="1042" t="s">
         <v>94</v>
       </c>
-      <c r="K124" s="1034"/>
+      <c r="K124" s="1042"/>
       <c r="L124" s="308"/>
       <c r="M124" s="274">
         <f>ROUNDUP(H124*F124,2)</f>
@@ -35688,19 +35688,19 @@
       <c r="E125" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F125" s="1079">
+      <c r="F125" s="1074">
         <f>BAAS_small_SEK</f>
         <v>1.75</v>
       </c>
-      <c r="G125" s="1080"/>
+      <c r="G125" s="1075"/>
       <c r="H125" s="309"/>
       <c r="I125" s="473" t="s">
         <v>69</v>
       </c>
-      <c r="J125" s="1038">
+      <c r="J125" s="1046">
         <v>0.75</v>
       </c>
-      <c r="K125" s="1039"/>
+      <c r="K125" s="1047"/>
       <c r="L125" s="276"/>
       <c r="M125" s="277">
         <f>IF(H125&gt;0,IF(SUM($D$125+($F$125*((H125*(1-$J$125))-1000)))&lt;=D125,$D$125,$D$125+($F$125*((H125*(1-$J$125))-1000))),0)</f>
@@ -35720,19 +35720,19 @@
       <c r="E126" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F126" s="1081">
+      <c r="F126" s="1076">
         <f>BAAS_large_SEK</f>
         <v>0.92</v>
       </c>
-      <c r="G126" s="1082"/>
+      <c r="G126" s="1077"/>
       <c r="H126" s="298"/>
       <c r="I126" s="474" t="s">
         <v>69</v>
       </c>
-      <c r="J126" s="1043">
+      <c r="J126" s="1051">
         <v>0.75</v>
       </c>
-      <c r="K126" s="1044"/>
+      <c r="K126" s="1052"/>
       <c r="L126" s="299"/>
       <c r="M126" s="301">
         <f>IF(H126&gt;0,$D$126+($F$126*(H126*(1-$J$126))),0)</f>
@@ -35987,14 +35987,14 @@
       <c r="Q136" s="180"/>
     </row>
     <row r="137" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B137" s="1045" t="s">
+      <c r="B137" s="1005" t="s">
         <v>287</v>
       </c>
-      <c r="C137" s="1045"/>
-      <c r="D137" s="1045"/>
-      <c r="E137" s="1045"/>
-      <c r="F137" s="1045"/>
-      <c r="G137" s="1045"/>
+      <c r="C137" s="1005"/>
+      <c r="D137" s="1005"/>
+      <c r="E137" s="1005"/>
+      <c r="F137" s="1005"/>
+      <c r="G137" s="1005"/>
       <c r="H137" s="177"/>
       <c r="J137" s="178"/>
       <c r="K137" s="178"/>
@@ -36003,12 +36003,12 @@
       <c r="O137" s="205"/>
     </row>
     <row r="138" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B138" s="1045"/>
-      <c r="C138" s="1045"/>
-      <c r="D138" s="1045"/>
-      <c r="E138" s="1045"/>
-      <c r="F138" s="1045"/>
-      <c r="G138" s="1045"/>
+      <c r="B138" s="1005"/>
+      <c r="C138" s="1005"/>
+      <c r="D138" s="1005"/>
+      <c r="E138" s="1005"/>
+      <c r="F138" s="1005"/>
+      <c r="G138" s="1005"/>
       <c r="H138" s="177"/>
       <c r="J138" s="178"/>
       <c r="K138" s="178"/>
@@ -36017,12 +36017,12 @@
       <c r="O138" s="205"/>
     </row>
     <row r="139" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B139" s="1045"/>
-      <c r="C139" s="1045"/>
-      <c r="D139" s="1045"/>
-      <c r="E139" s="1045"/>
-      <c r="F139" s="1045"/>
-      <c r="G139" s="1045"/>
+      <c r="B139" s="1005"/>
+      <c r="C139" s="1005"/>
+      <c r="D139" s="1005"/>
+      <c r="E139" s="1005"/>
+      <c r="F139" s="1005"/>
+      <c r="G139" s="1005"/>
       <c r="H139" s="177"/>
       <c r="J139" s="178"/>
       <c r="K139" s="178"/>
@@ -36031,13 +36031,13 @@
       <c r="O139" s="205"/>
     </row>
     <row r="140" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B140" s="1052" t="s">
+      <c r="B140" s="1032" t="s">
         <v>280</v>
       </c>
-      <c r="C140" s="1052"/>
-      <c r="D140" s="1052"/>
-      <c r="E140" s="1052"/>
-      <c r="F140" s="1052"/>
+      <c r="C140" s="1032"/>
+      <c r="D140" s="1032"/>
+      <c r="E140" s="1032"/>
+      <c r="F140" s="1032"/>
       <c r="H140" s="177"/>
       <c r="J140" s="178"/>
       <c r="K140" s="178"/>
@@ -36046,11 +36046,11 @@
       <c r="O140" s="205"/>
     </row>
     <row r="141" spans="2:34" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B141" s="1030"/>
-      <c r="C141" s="1030"/>
-      <c r="D141" s="1030"/>
-      <c r="E141" s="1030"/>
-      <c r="F141" s="1030"/>
+      <c r="B141" s="1007"/>
+      <c r="C141" s="1007"/>
+      <c r="D141" s="1007"/>
+      <c r="E141" s="1007"/>
+      <c r="F141" s="1007"/>
       <c r="G141" s="182"/>
       <c r="H141" s="183"/>
       <c r="I141" s="182"/>
@@ -36876,14 +36876,14 @@
       <c r="Q175" s="180"/>
     </row>
     <row r="176" spans="2:19" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B176" s="1045" t="s">
+      <c r="B176" s="1005" t="s">
         <v>295</v>
       </c>
-      <c r="C176" s="1045"/>
-      <c r="D176" s="1045"/>
-      <c r="E176" s="1045"/>
-      <c r="F176" s="1045"/>
-      <c r="G176" s="1045"/>
+      <c r="C176" s="1005"/>
+      <c r="D176" s="1005"/>
+      <c r="E176" s="1005"/>
+      <c r="F176" s="1005"/>
+      <c r="G176" s="1005"/>
       <c r="H176" s="335"/>
       <c r="J176" s="178"/>
       <c r="K176" s="178"/>
@@ -36892,12 +36892,12 @@
       <c r="O176" s="205"/>
     </row>
     <row r="177" spans="2:22" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B177" s="1045"/>
-      <c r="C177" s="1045"/>
-      <c r="D177" s="1045"/>
-      <c r="E177" s="1045"/>
-      <c r="F177" s="1045"/>
-      <c r="G177" s="1045"/>
+      <c r="B177" s="1005"/>
+      <c r="C177" s="1005"/>
+      <c r="D177" s="1005"/>
+      <c r="E177" s="1005"/>
+      <c r="F177" s="1005"/>
+      <c r="G177" s="1005"/>
       <c r="H177" s="335"/>
       <c r="J177" s="178"/>
       <c r="K177" s="178"/>
@@ -36906,12 +36906,12 @@
       <c r="O177" s="205"/>
     </row>
     <row r="178" spans="2:22" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B178" s="1045"/>
-      <c r="C178" s="1045"/>
-      <c r="D178" s="1045"/>
-      <c r="E178" s="1045"/>
-      <c r="F178" s="1045"/>
-      <c r="G178" s="1045"/>
+      <c r="B178" s="1005"/>
+      <c r="C178" s="1005"/>
+      <c r="D178" s="1005"/>
+      <c r="E178" s="1005"/>
+      <c r="F178" s="1005"/>
+      <c r="G178" s="1005"/>
       <c r="H178" s="335"/>
       <c r="J178" s="178"/>
       <c r="K178" s="178"/>
@@ -36920,13 +36920,13 @@
       <c r="O178" s="205"/>
     </row>
     <row r="179" spans="2:22" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B179" s="1052" t="s">
+      <c r="B179" s="1032" t="s">
         <v>280</v>
       </c>
-      <c r="C179" s="1052"/>
-      <c r="D179" s="1052"/>
-      <c r="E179" s="1052"/>
-      <c r="F179" s="1052"/>
+      <c r="C179" s="1032"/>
+      <c r="D179" s="1032"/>
+      <c r="E179" s="1032"/>
+      <c r="F179" s="1032"/>
       <c r="H179" s="335"/>
       <c r="J179" s="178"/>
       <c r="K179" s="178"/>
@@ -36935,11 +36935,11 @@
       <c r="O179" s="205"/>
     </row>
     <row r="180" spans="2:22" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B180" s="1030"/>
-      <c r="C180" s="1030"/>
-      <c r="D180" s="1030"/>
-      <c r="E180" s="1030"/>
-      <c r="F180" s="1030"/>
+      <c r="B180" s="1007"/>
+      <c r="C180" s="1007"/>
+      <c r="D180" s="1007"/>
+      <c r="E180" s="1007"/>
+      <c r="F180" s="1007"/>
       <c r="G180" s="182"/>
       <c r="H180" s="183"/>
       <c r="I180" s="182"/>
@@ -37710,14 +37710,14 @@
     </row>
     <row r="211" spans="1:22" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A211" s="162"/>
-      <c r="B211" s="1060" t="s">
+      <c r="B211" s="1008" t="s">
         <v>308</v>
       </c>
-      <c r="C211" s="1060"/>
-      <c r="D211" s="1060"/>
-      <c r="E211" s="1060"/>
-      <c r="F211" s="1060"/>
-      <c r="G211" s="1060"/>
+      <c r="C211" s="1008"/>
+      <c r="D211" s="1008"/>
+      <c r="E211" s="1008"/>
+      <c r="F211" s="1008"/>
+      <c r="G211" s="1008"/>
       <c r="H211" s="165"/>
       <c r="I211" s="162"/>
       <c r="J211" s="166"/>
@@ -37729,12 +37729,12 @@
     </row>
     <row r="212" spans="1:22" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A212" s="162"/>
-      <c r="B212" s="1060"/>
-      <c r="C212" s="1060"/>
-      <c r="D212" s="1060"/>
-      <c r="E212" s="1060"/>
-      <c r="F212" s="1060"/>
-      <c r="G212" s="1060"/>
+      <c r="B212" s="1008"/>
+      <c r="C212" s="1008"/>
+      <c r="D212" s="1008"/>
+      <c r="E212" s="1008"/>
+      <c r="F212" s="1008"/>
+      <c r="G212" s="1008"/>
       <c r="H212" s="165"/>
       <c r="I212" s="162"/>
       <c r="J212" s="166"/>
@@ -37746,12 +37746,12 @@
     </row>
     <row r="213" spans="1:22" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A213" s="162"/>
-      <c r="B213" s="1060"/>
-      <c r="C213" s="1060"/>
-      <c r="D213" s="1060"/>
-      <c r="E213" s="1060"/>
-      <c r="F213" s="1060"/>
-      <c r="G213" s="1060"/>
+      <c r="B213" s="1008"/>
+      <c r="C213" s="1008"/>
+      <c r="D213" s="1008"/>
+      <c r="E213" s="1008"/>
+      <c r="F213" s="1008"/>
+      <c r="G213" s="1008"/>
       <c r="H213" s="165"/>
       <c r="I213" s="162"/>
       <c r="J213" s="166"/>
@@ -37763,13 +37763,13 @@
     </row>
     <row r="214" spans="1:22" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A214" s="162"/>
-      <c r="B214" s="1083" t="s">
+      <c r="B214" s="1070" t="s">
         <v>309</v>
       </c>
-      <c r="C214" s="1083"/>
-      <c r="D214" s="1083"/>
-      <c r="E214" s="1083"/>
-      <c r="F214" s="1083"/>
+      <c r="C214" s="1070"/>
+      <c r="D214" s="1070"/>
+      <c r="E214" s="1070"/>
+      <c r="F214" s="1070"/>
       <c r="G214" s="162"/>
       <c r="H214" s="165"/>
       <c r="I214" s="162"/>
@@ -37917,11 +37917,11 @@
         <f>SUM(E38)&amp;" GB  Disk"</f>
         <v>0 GB  Disk</v>
       </c>
-      <c r="F221" s="1084" t="str">
+      <c r="F221" s="1071" t="str">
         <f>SUM(E67)&amp;" GB NVME-Disk"</f>
         <v>0 GB NVME-Disk</v>
       </c>
-      <c r="G221" s="1084"/>
+      <c r="G221" s="1071"/>
       <c r="H221" s="361"/>
       <c r="I221" s="361"/>
       <c r="J221" s="362"/>
@@ -38946,21 +38946,32 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="55">
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B211:G213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="B137:G139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B176:G178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B95:G97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
     <mergeCell ref="D106:E106"/>
     <mergeCell ref="F106:G106"/>
     <mergeCell ref="H106:I106"/>
@@ -38975,32 +38986,21 @@
     <mergeCell ref="B120:F120"/>
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B95:G97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B211:G213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="B137:G139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B176:G178"/>
+    <mergeCell ref="B179:F179"/>
   </mergeCells>
   <conditionalFormatting sqref="H111">
     <cfRule type="cellIs" dxfId="40" priority="40" operator="greaterThan">
@@ -39181,8 +39181,8 @@
     </row>
     <row r="4" spans="1:29" ht="25.5" customHeight="1">
       <c r="A4" s="157"/>
-      <c r="B4" s="1053"/>
-      <c r="C4" s="1053"/>
+      <c r="B4" s="1031"/>
+      <c r="C4" s="1031"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="157"/>
@@ -39380,14 +39380,14 @@
       <c r="P14" s="168"/>
     </row>
     <row r="15" spans="1:29" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="1045" t="s">
+      <c r="B15" s="1005" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="1045"/>
-      <c r="D15" s="1045"/>
-      <c r="E15" s="1045"/>
-      <c r="F15" s="1045"/>
-      <c r="G15" s="1045"/>
+      <c r="C15" s="1005"/>
+      <c r="D15" s="1005"/>
+      <c r="E15" s="1005"/>
+      <c r="F15" s="1005"/>
+      <c r="G15" s="1005"/>
       <c r="H15" s="177"/>
       <c r="J15" s="178"/>
       <c r="K15" s="178"/>
@@ -39400,12 +39400,12 @@
       <c r="AC15" s="180"/>
     </row>
     <row r="16" spans="1:29" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B16" s="1045"/>
-      <c r="C16" s="1045"/>
-      <c r="D16" s="1045"/>
-      <c r="E16" s="1045"/>
-      <c r="F16" s="1045"/>
-      <c r="G16" s="1045"/>
+      <c r="B16" s="1005"/>
+      <c r="C16" s="1005"/>
+      <c r="D16" s="1005"/>
+      <c r="E16" s="1005"/>
+      <c r="F16" s="1005"/>
+      <c r="G16" s="1005"/>
       <c r="H16" s="177"/>
       <c r="J16" s="178"/>
       <c r="K16" s="178"/>
@@ -39418,12 +39418,12 @@
       <c r="AC16" s="180"/>
     </row>
     <row r="17" spans="2:29" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B17" s="1045"/>
-      <c r="C17" s="1045"/>
-      <c r="D17" s="1045"/>
-      <c r="E17" s="1045"/>
-      <c r="F17" s="1045"/>
-      <c r="G17" s="1045"/>
+      <c r="B17" s="1005"/>
+      <c r="C17" s="1005"/>
+      <c r="D17" s="1005"/>
+      <c r="E17" s="1005"/>
+      <c r="F17" s="1005"/>
+      <c r="G17" s="1005"/>
       <c r="H17" s="177"/>
       <c r="J17" s="178"/>
       <c r="K17" s="178"/>
@@ -39459,13 +39459,13 @@
       <c r="AC18" s="180"/>
     </row>
     <row r="19" spans="2:29" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="1030" t="s">
+      <c r="B19" s="1007" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="1030"/>
-      <c r="D19" s="1030"/>
-      <c r="E19" s="1030"/>
-      <c r="F19" s="1030"/>
+      <c r="C19" s="1007"/>
+      <c r="D19" s="1007"/>
+      <c r="E19" s="1007"/>
+      <c r="F19" s="1007"/>
       <c r="G19" s="182"/>
       <c r="H19" s="183"/>
       <c r="I19" s="182"/>
@@ -42523,12 +42523,12 @@
       <c r="E98" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="F98" s="1054" t="s">
+      <c r="F98" s="1024" t="s">
         <v>221</v>
       </c>
-      <c r="G98" s="1054"/>
-      <c r="H98" s="1029"/>
-      <c r="I98" s="1029"/>
+      <c r="G98" s="1024"/>
+      <c r="H98" s="1038"/>
+      <c r="I98" s="1038"/>
       <c r="J98" s="266" t="s">
         <v>66</v>
       </c>
@@ -42556,13 +42556,13 @@
         <f>F99/720</f>
         <v>1.6666666666666666E-3</v>
       </c>
-      <c r="F99" s="1070">
+      <c r="F99" s="1084">
         <f>VOLUME_large_SEK</f>
         <v>1.2</v>
       </c>
-      <c r="G99" s="1070"/>
-      <c r="H99" s="1097"/>
-      <c r="I99" s="1097"/>
+      <c r="G99" s="1084"/>
+      <c r="H99" s="1087"/>
+      <c r="I99" s="1087"/>
       <c r="J99" s="271"/>
       <c r="K99" s="472" t="s">
         <v>69</v>
@@ -42588,13 +42588,13 @@
         <f>F100/720</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F100" s="1072">
+      <c r="F100" s="1082">
         <f>VOLUME_fast_SEK</f>
         <v>3.6</v>
       </c>
-      <c r="G100" s="1072"/>
-      <c r="H100" s="1098"/>
-      <c r="I100" s="1098"/>
+      <c r="G100" s="1082"/>
+      <c r="H100" s="1089"/>
+      <c r="I100" s="1089"/>
       <c r="J100" s="275">
         <v>0</v>
       </c>
@@ -42683,14 +42683,14 @@
       <c r="P104" s="168"/>
     </row>
     <row r="105" spans="2:25" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B105" s="1045" t="s">
+      <c r="B105" s="1005" t="s">
         <v>339</v>
       </c>
-      <c r="C105" s="1045"/>
-      <c r="D105" s="1045"/>
-      <c r="E105" s="1045"/>
-      <c r="F105" s="1045"/>
-      <c r="G105" s="1045"/>
+      <c r="C105" s="1005"/>
+      <c r="D105" s="1005"/>
+      <c r="E105" s="1005"/>
+      <c r="F105" s="1005"/>
+      <c r="G105" s="1005"/>
       <c r="H105" s="177"/>
       <c r="J105" s="178"/>
       <c r="K105" s="178"/>
@@ -42699,12 +42699,12 @@
       <c r="P105" s="168"/>
     </row>
     <row r="106" spans="2:25" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B106" s="1045"/>
-      <c r="C106" s="1045"/>
-      <c r="D106" s="1045"/>
-      <c r="E106" s="1045"/>
-      <c r="F106" s="1045"/>
-      <c r="G106" s="1045"/>
+      <c r="B106" s="1005"/>
+      <c r="C106" s="1005"/>
+      <c r="D106" s="1005"/>
+      <c r="E106" s="1005"/>
+      <c r="F106" s="1005"/>
+      <c r="G106" s="1005"/>
       <c r="H106" s="177"/>
       <c r="J106" s="178"/>
       <c r="K106" s="178"/>
@@ -42713,12 +42713,12 @@
       <c r="P106" s="168"/>
     </row>
     <row r="107" spans="2:25" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B107" s="1045"/>
-      <c r="C107" s="1045"/>
-      <c r="D107" s="1045"/>
-      <c r="E107" s="1045"/>
-      <c r="F107" s="1045"/>
-      <c r="G107" s="1045"/>
+      <c r="B107" s="1005"/>
+      <c r="C107" s="1005"/>
+      <c r="D107" s="1005"/>
+      <c r="E107" s="1005"/>
+      <c r="F107" s="1005"/>
+      <c r="G107" s="1005"/>
       <c r="H107" s="177"/>
       <c r="J107" s="178"/>
       <c r="K107" s="178"/>
@@ -42727,13 +42727,13 @@
       <c r="P107" s="168"/>
     </row>
     <row r="108" spans="2:25" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B108" s="1051" t="s">
+      <c r="B108" s="1054" t="s">
         <v>223</v>
       </c>
-      <c r="C108" s="1051"/>
-      <c r="D108" s="1051"/>
-      <c r="E108" s="1051"/>
-      <c r="F108" s="1051"/>
+      <c r="C108" s="1054"/>
+      <c r="D108" s="1054"/>
+      <c r="E108" s="1054"/>
+      <c r="F108" s="1054"/>
       <c r="H108" s="177"/>
       <c r="J108" s="178"/>
       <c r="K108" s="178"/>
@@ -42743,13 +42743,13 @@
       <c r="P108" s="187"/>
     </row>
     <row r="109" spans="2:25" s="291" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B109" s="1052" t="s">
+      <c r="B109" s="1032" t="s">
         <v>340</v>
       </c>
-      <c r="C109" s="1052"/>
-      <c r="D109" s="1052"/>
-      <c r="E109" s="1052"/>
-      <c r="F109" s="1052"/>
+      <c r="C109" s="1032"/>
+      <c r="D109" s="1032"/>
+      <c r="E109" s="1032"/>
+      <c r="F109" s="1032"/>
       <c r="G109" s="285"/>
       <c r="H109" s="286"/>
       <c r="I109" s="285"/>
@@ -42808,16 +42808,16 @@
       <c r="C112" s="504" t="s">
         <v>224</v>
       </c>
-      <c r="D112" s="1054" t="s">
+      <c r="D112" s="1024" t="s">
         <v>341</v>
       </c>
-      <c r="E112" s="1054"/>
-      <c r="F112" s="1054"/>
-      <c r="G112" s="1054"/>
-      <c r="H112" s="1054"/>
-      <c r="I112" s="1054"/>
-      <c r="J112" s="1054"/>
-      <c r="K112" s="1054"/>
+      <c r="E112" s="1024"/>
+      <c r="F112" s="1024"/>
+      <c r="G112" s="1024"/>
+      <c r="H112" s="1024"/>
+      <c r="I112" s="1024"/>
+      <c r="J112" s="1024"/>
+      <c r="K112" s="1024"/>
       <c r="L112" s="535"/>
       <c r="M112" s="265"/>
       <c r="N112" s="265"/>
@@ -42833,17 +42833,17 @@
       <c r="C113" s="505" t="s">
         <v>342</v>
       </c>
-      <c r="D113" s="1094">
+      <c r="D113" s="1090">
         <f>S3_storage.50_SUNET</f>
         <v>0.35</v>
       </c>
-      <c r="E113" s="1094"/>
-      <c r="F113" s="1071"/>
-      <c r="G113" s="1071"/>
-      <c r="H113" s="1071"/>
-      <c r="I113" s="1071"/>
-      <c r="J113" s="1071"/>
-      <c r="K113" s="1071"/>
+      <c r="E113" s="1090"/>
+      <c r="F113" s="1083"/>
+      <c r="G113" s="1083"/>
+      <c r="H113" s="1083"/>
+      <c r="I113" s="1083"/>
+      <c r="J113" s="1083"/>
+      <c r="K113" s="1083"/>
       <c r="L113" s="538"/>
       <c r="M113" s="292"/>
       <c r="N113" s="292"/>
@@ -42859,17 +42859,17 @@
       <c r="C114" s="506" t="s">
         <v>343</v>
       </c>
-      <c r="D114" s="1093">
+      <c r="D114" s="1088">
         <f>S3_storage.100_SUNET</f>
         <v>0.19</v>
       </c>
-      <c r="E114" s="1093"/>
-      <c r="F114" s="1075"/>
-      <c r="G114" s="1075"/>
-      <c r="H114" s="1075"/>
-      <c r="I114" s="1075"/>
-      <c r="J114" s="1075"/>
-      <c r="K114" s="1075"/>
+      <c r="E114" s="1088"/>
+      <c r="F114" s="1078"/>
+      <c r="G114" s="1078"/>
+      <c r="H114" s="1078"/>
+      <c r="I114" s="1078"/>
+      <c r="J114" s="1078"/>
+      <c r="K114" s="1078"/>
       <c r="L114" s="532"/>
       <c r="M114" s="293"/>
       <c r="N114" s="293"/>
@@ -42885,17 +42885,17 @@
       <c r="C115" s="505" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="1092">
+      <c r="D115" s="1091">
         <f>S3_storage.500_SUNET</f>
         <v>0.1</v>
       </c>
-      <c r="E115" s="1092"/>
-      <c r="F115" s="1074"/>
-      <c r="G115" s="1074"/>
-      <c r="H115" s="1074"/>
-      <c r="I115" s="1074"/>
-      <c r="J115" s="1074"/>
-      <c r="K115" s="1074"/>
+      <c r="E115" s="1091"/>
+      <c r="F115" s="1081"/>
+      <c r="G115" s="1081"/>
+      <c r="H115" s="1081"/>
+      <c r="I115" s="1081"/>
+      <c r="J115" s="1081"/>
+      <c r="K115" s="1081"/>
       <c r="L115" s="537"/>
       <c r="M115" s="294"/>
       <c r="N115" s="294"/>
@@ -42911,17 +42911,17 @@
       <c r="C116" s="506" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="1093">
+      <c r="D116" s="1088">
         <f>S3_storage.1000_SUNET</f>
         <v>0.06</v>
       </c>
-      <c r="E116" s="1093"/>
-      <c r="F116" s="1075"/>
-      <c r="G116" s="1075"/>
-      <c r="H116" s="1075"/>
-      <c r="I116" s="1075"/>
-      <c r="J116" s="1075"/>
-      <c r="K116" s="1075"/>
+      <c r="E116" s="1088"/>
+      <c r="F116" s="1078"/>
+      <c r="G116" s="1078"/>
+      <c r="H116" s="1078"/>
+      <c r="I116" s="1078"/>
+      <c r="J116" s="1078"/>
+      <c r="K116" s="1078"/>
       <c r="L116" s="532"/>
       <c r="M116" s="293"/>
       <c r="N116" s="293"/>
@@ -42937,17 +42937,17 @@
       <c r="C117" s="505" t="s">
         <v>82</v>
       </c>
-      <c r="D117" s="1089" t="str">
+      <c r="D117" s="1092" t="str">
         <f>S3_storage.quote_SUNET</f>
         <v>Be om offert</v>
       </c>
-      <c r="E117" s="1089"/>
-      <c r="F117" s="1076"/>
-      <c r="G117" s="1076"/>
-      <c r="H117" s="1076"/>
-      <c r="I117" s="1076"/>
-      <c r="J117" s="1076"/>
-      <c r="K117" s="1076"/>
+      <c r="E117" s="1092"/>
+      <c r="F117" s="1079"/>
+      <c r="G117" s="1079"/>
+      <c r="H117" s="1079"/>
+      <c r="I117" s="1079"/>
+      <c r="J117" s="1079"/>
+      <c r="K117" s="1079"/>
       <c r="L117" s="534"/>
       <c r="M117" s="295"/>
       <c r="N117" s="295"/>
@@ -43008,10 +43008,10 @@
       <c r="E120" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="F120" s="1054" t="s">
+      <c r="F120" s="1024" t="s">
         <v>221</v>
       </c>
-      <c r="G120" s="1054"/>
+      <c r="G120" s="1024"/>
       <c r="H120" s="266" t="s">
         <v>224</v>
       </c>
@@ -43040,11 +43040,11 @@
         <f>F121/720</f>
         <v>4.861111111111111E-4</v>
       </c>
-      <c r="F121" s="1090" cm="1">
+      <c r="F121" s="1093" cm="1">
         <f t="array" ref="F121">_xlfn.IFS(H121&lt;=299,D113,H121&lt;1000,D114,H121&lt;2000,D115,H121&gt;=2000,D116)</f>
         <v>0.35</v>
       </c>
-      <c r="G121" s="1091"/>
+      <c r="G121" s="1094"/>
       <c r="H121" s="298">
         <v>0</v>
       </c>
@@ -43057,11 +43057,11 @@
         <v>6 månader</v>
       </c>
       <c r="L121" s="300"/>
-      <c r="M121" s="1095">
+      <c r="M121" s="1085">
         <f>ROUNDUP((H121*1000)*F121,2)</f>
         <v>0</v>
       </c>
-      <c r="N121" s="1095"/>
+      <c r="N121" s="1085"/>
       <c r="O121" s="297"/>
       <c r="P121" s="262"/>
       <c r="R121" s="246"/>
@@ -43081,11 +43081,11 @@
       <c r="J122" s="217"/>
       <c r="K122" s="302"/>
       <c r="L122" s="302"/>
-      <c r="M122" s="1096">
+      <c r="M122" s="1086">
         <f>SUM(M121)</f>
         <v>0</v>
       </c>
-      <c r="N122" s="1096"/>
+      <c r="N122" s="1086"/>
       <c r="O122" s="297"/>
       <c r="P122" s="205"/>
       <c r="R122" s="180"/>
@@ -43148,14 +43148,14 @@
       <c r="P125" s="168"/>
     </row>
     <row r="126" spans="2:24" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B126" s="1045" t="s">
+      <c r="B126" s="1005" t="s">
         <v>86</v>
       </c>
-      <c r="C126" s="1045"/>
-      <c r="D126" s="1045"/>
-      <c r="E126" s="1045"/>
-      <c r="F126" s="1045"/>
-      <c r="G126" s="1045"/>
+      <c r="C126" s="1005"/>
+      <c r="D126" s="1005"/>
+      <c r="E126" s="1005"/>
+      <c r="F126" s="1005"/>
+      <c r="G126" s="1005"/>
       <c r="H126" s="177"/>
       <c r="J126" s="178"/>
       <c r="K126" s="178"/>
@@ -43165,12 +43165,12 @@
       <c r="P126" s="168"/>
     </row>
     <row r="127" spans="2:24" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B127" s="1045"/>
-      <c r="C127" s="1045"/>
-      <c r="D127" s="1045"/>
-      <c r="E127" s="1045"/>
-      <c r="F127" s="1045"/>
-      <c r="G127" s="1045"/>
+      <c r="B127" s="1005"/>
+      <c r="C127" s="1005"/>
+      <c r="D127" s="1005"/>
+      <c r="E127" s="1005"/>
+      <c r="F127" s="1005"/>
+      <c r="G127" s="1005"/>
       <c r="H127" s="177"/>
       <c r="J127" s="178"/>
       <c r="K127" s="178"/>
@@ -43180,12 +43180,12 @@
       <c r="P127" s="168"/>
     </row>
     <row r="128" spans="2:24" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B128" s="1045"/>
-      <c r="C128" s="1045"/>
-      <c r="D128" s="1045"/>
-      <c r="E128" s="1045"/>
-      <c r="F128" s="1045"/>
-      <c r="G128" s="1045"/>
+      <c r="B128" s="1005"/>
+      <c r="C128" s="1005"/>
+      <c r="D128" s="1005"/>
+      <c r="E128" s="1005"/>
+      <c r="F128" s="1005"/>
+      <c r="G128" s="1005"/>
       <c r="H128" s="177"/>
       <c r="J128" s="178"/>
       <c r="K128" s="178"/>
@@ -43195,13 +43195,13 @@
       <c r="P128" s="168"/>
     </row>
     <row r="129" spans="2:35" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B129" s="1059" t="s">
+      <c r="B129" s="1026" t="s">
         <v>87</v>
       </c>
-      <c r="C129" s="1059"/>
-      <c r="D129" s="1059"/>
-      <c r="E129" s="1059"/>
-      <c r="F129" s="1059"/>
+      <c r="C129" s="1026"/>
+      <c r="D129" s="1026"/>
+      <c r="E129" s="1026"/>
+      <c r="F129" s="1026"/>
       <c r="H129" s="177"/>
       <c r="J129" s="178"/>
       <c r="K129" s="178"/>
@@ -43211,13 +43211,13 @@
       <c r="P129" s="187"/>
     </row>
     <row r="130" spans="2:35" s="169" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B130" s="1030" t="s">
+      <c r="B130" s="1007" t="s">
         <v>226</v>
       </c>
-      <c r="C130" s="1030"/>
-      <c r="D130" s="1030"/>
-      <c r="E130" s="1030"/>
-      <c r="F130" s="1030"/>
+      <c r="C130" s="1007"/>
+      <c r="D130" s="1007"/>
+      <c r="E130" s="1007"/>
+      <c r="F130" s="1007"/>
       <c r="G130" s="182"/>
       <c r="H130" s="183"/>
       <c r="I130" s="182"/>
@@ -43285,25 +43285,25 @@
       <c r="B133" s="444" t="s">
         <v>208</v>
       </c>
-      <c r="C133" s="1054" t="s">
+      <c r="C133" s="1024" t="s">
         <v>228</v>
       </c>
-      <c r="D133" s="1054"/>
+      <c r="D133" s="1024"/>
       <c r="E133" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="F133" s="1054" t="s">
+      <c r="F133" s="1024" t="s">
         <v>221</v>
       </c>
-      <c r="G133" s="1054"/>
+      <c r="G133" s="1024"/>
       <c r="H133" s="266" t="s">
         <v>90</v>
       </c>
       <c r="I133" s="265"/>
-      <c r="J133" s="1029" t="s">
+      <c r="J133" s="1038" t="s">
         <v>229</v>
       </c>
-      <c r="K133" s="1029"/>
+      <c r="K133" s="1038"/>
       <c r="L133" s="533"/>
       <c r="M133" s="265"/>
       <c r="N133" s="535" t="s">
@@ -43323,21 +43323,21 @@
       <c r="E134" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F134" s="1077">
+      <c r="F134" s="1072">
         <f>BAAS_on.demand_SEK</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G134" s="1078"/>
+      <c r="G134" s="1073"/>
       <c r="H134" s="307">
         <v>0</v>
       </c>
       <c r="I134" s="472" t="s">
         <v>69</v>
       </c>
-      <c r="J134" s="1034" t="s">
+      <c r="J134" s="1042" t="s">
         <v>94</v>
       </c>
-      <c r="K134" s="1034"/>
+      <c r="K134" s="1042"/>
       <c r="L134" s="308"/>
       <c r="M134" s="272"/>
       <c r="N134" s="274">
@@ -43358,21 +43358,21 @@
       <c r="E135" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F135" s="1079">
+      <c r="F135" s="1074">
         <f>BAAS_small_SEK</f>
         <v>1.75</v>
       </c>
-      <c r="G135" s="1080"/>
+      <c r="G135" s="1075"/>
       <c r="H135" s="309">
         <v>0</v>
       </c>
       <c r="I135" s="473" t="s">
         <v>69</v>
       </c>
-      <c r="J135" s="1038">
+      <c r="J135" s="1046">
         <v>0.75</v>
       </c>
-      <c r="K135" s="1039"/>
+      <c r="K135" s="1047"/>
       <c r="L135" s="276"/>
       <c r="M135" s="276"/>
       <c r="N135" s="277">
@@ -43393,21 +43393,21 @@
       <c r="E136" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="F136" s="1081">
+      <c r="F136" s="1076">
         <f>BAAS_large_SEK</f>
         <v>0.92</v>
       </c>
-      <c r="G136" s="1082"/>
+      <c r="G136" s="1077"/>
       <c r="H136" s="298">
         <v>0</v>
       </c>
       <c r="I136" s="474" t="s">
         <v>69</v>
       </c>
-      <c r="J136" s="1043">
+      <c r="J136" s="1051">
         <v>0.75</v>
       </c>
-      <c r="K136" s="1044"/>
+      <c r="K136" s="1052"/>
       <c r="L136" s="299"/>
       <c r="M136" s="299"/>
       <c r="N136" s="301">
@@ -43728,14 +43728,14 @@
     </row>
     <row r="150" spans="1:23" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A150" s="162"/>
-      <c r="B150" s="1060" t="s">
+      <c r="B150" s="1008" t="s">
         <v>255</v>
       </c>
-      <c r="C150" s="1060"/>
-      <c r="D150" s="1060"/>
-      <c r="E150" s="1060"/>
-      <c r="F150" s="1060"/>
-      <c r="G150" s="1060"/>
+      <c r="C150" s="1008"/>
+      <c r="D150" s="1008"/>
+      <c r="E150" s="1008"/>
+      <c r="F150" s="1008"/>
+      <c r="G150" s="1008"/>
       <c r="H150" s="165"/>
       <c r="I150" s="162"/>
       <c r="J150" s="166"/>
@@ -43748,12 +43748,12 @@
     </row>
     <row r="151" spans="1:23" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A151" s="162"/>
-      <c r="B151" s="1060"/>
-      <c r="C151" s="1060"/>
-      <c r="D151" s="1060"/>
-      <c r="E151" s="1060"/>
-      <c r="F151" s="1060"/>
-      <c r="G151" s="1060"/>
+      <c r="B151" s="1008"/>
+      <c r="C151" s="1008"/>
+      <c r="D151" s="1008"/>
+      <c r="E151" s="1008"/>
+      <c r="F151" s="1008"/>
+      <c r="G151" s="1008"/>
       <c r="H151" s="165"/>
       <c r="I151" s="162"/>
       <c r="J151" s="166"/>
@@ -43766,12 +43766,12 @@
     </row>
     <row r="152" spans="1:23" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A152" s="162"/>
-      <c r="B152" s="1060"/>
-      <c r="C152" s="1060"/>
-      <c r="D152" s="1060"/>
-      <c r="E152" s="1060"/>
-      <c r="F152" s="1060"/>
-      <c r="G152" s="1060"/>
+      <c r="B152" s="1008"/>
+      <c r="C152" s="1008"/>
+      <c r="D152" s="1008"/>
+      <c r="E152" s="1008"/>
+      <c r="F152" s="1008"/>
+      <c r="G152" s="1008"/>
       <c r="H152" s="165"/>
       <c r="I152" s="162"/>
       <c r="J152" s="166"/>
@@ -43784,13 +43784,13 @@
     </row>
     <row r="153" spans="1:23" s="169" customFormat="1" ht="25.5" customHeight="1">
       <c r="A153" s="162"/>
-      <c r="B153" s="1083" t="s">
+      <c r="B153" s="1070" t="s">
         <v>226</v>
       </c>
-      <c r="C153" s="1083"/>
-      <c r="D153" s="1083"/>
-      <c r="E153" s="1083"/>
-      <c r="F153" s="1083"/>
+      <c r="C153" s="1070"/>
+      <c r="D153" s="1070"/>
+      <c r="E153" s="1070"/>
+      <c r="F153" s="1070"/>
       <c r="G153" s="162"/>
       <c r="H153" s="165"/>
       <c r="I153" s="162"/>
@@ -43930,10 +43930,10 @@
     </row>
     <row r="160" spans="1:23" ht="25.5" customHeight="1">
       <c r="A160" s="157"/>
-      <c r="B160" s="1086" t="s">
+      <c r="B160" s="1096" t="s">
         <v>196</v>
       </c>
-      <c r="C160" s="1086"/>
+      <c r="C160" s="1096"/>
       <c r="D160" s="70"/>
       <c r="E160" s="71"/>
       <c r="F160" s="360"/>
@@ -43954,10 +43954,10 @@
     </row>
     <row r="161" spans="1:17" ht="25.5" customHeight="1">
       <c r="A161" s="157"/>
-      <c r="B161" s="1087" t="s">
+      <c r="B161" s="1097" t="s">
         <v>197</v>
       </c>
-      <c r="C161" s="1087"/>
+      <c r="C161" s="1097"/>
       <c r="D161" s="72"/>
       <c r="E161" s="73"/>
       <c r="F161" s="364"/>
@@ -44002,10 +44002,10 @@
     </row>
     <row r="163" spans="1:17" s="370" customFormat="1" ht="25.5" customHeight="1">
       <c r="A163" s="368"/>
-      <c r="B163" s="1088" t="s">
+      <c r="B163" s="1098" t="s">
         <v>199</v>
       </c>
-      <c r="C163" s="1088"/>
+      <c r="C163" s="1098"/>
       <c r="D163" s="33"/>
       <c r="E163" s="34"/>
       <c r="F163" s="311"/>
@@ -44035,13 +44035,13 @@
       <c r="G164" s="372"/>
       <c r="H164" s="372"/>
       <c r="I164" s="372"/>
-      <c r="J164" s="1085">
+      <c r="J164" s="1095">
         <f>SUM(M160:M163)</f>
         <v>0</v>
       </c>
-      <c r="K164" s="1085"/>
-      <c r="L164" s="1085"/>
-      <c r="M164" s="1085"/>
+      <c r="K164" s="1095"/>
+      <c r="L164" s="1095"/>
+      <c r="M164" s="1095"/>
       <c r="N164" s="373"/>
       <c r="O164" s="157"/>
       <c r="P164" s="160"/>
@@ -45024,6 +45024,48 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="58">
+    <mergeCell ref="J164:M164"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B150:G152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B126:G128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
     <mergeCell ref="M121:N121"/>
     <mergeCell ref="M122:N122"/>
     <mergeCell ref="F99:G99"/>
@@ -45040,48 +45082,6 @@
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="H100:I100"/>
     <mergeCell ref="B105:G107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B126:G128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="J164:M164"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B150:G152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B163:C163"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H121">
@@ -45244,8 +45244,8 @@
     </row>
     <row r="4" spans="1:26" ht="25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="985"/>
-      <c r="C4" s="985"/>
+      <c r="B4" s="993"/>
+      <c r="C4" s="993"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -45408,14 +45408,14 @@
       <c r="M14" s="664"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B15" s="980" t="s">
+      <c r="B15" s="978" t="s">
         <v>590</v>
       </c>
-      <c r="C15" s="980"/>
-      <c r="D15" s="980"/>
-      <c r="E15" s="980"/>
-      <c r="F15" s="980"/>
-      <c r="G15" s="980"/>
+      <c r="C15" s="978"/>
+      <c r="D15" s="978"/>
+      <c r="E15" s="978"/>
+      <c r="F15" s="978"/>
+      <c r="G15" s="978"/>
       <c r="H15" s="672"/>
       <c r="J15" s="674"/>
       <c r="K15" s="924"/>
@@ -45427,12 +45427,12 @@
       <c r="Z15" s="675"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B16" s="980"/>
-      <c r="C16" s="980"/>
-      <c r="D16" s="980"/>
-      <c r="E16" s="980"/>
-      <c r="F16" s="980"/>
-      <c r="G16" s="980"/>
+      <c r="B16" s="978"/>
+      <c r="C16" s="978"/>
+      <c r="D16" s="978"/>
+      <c r="E16" s="978"/>
+      <c r="F16" s="978"/>
+      <c r="G16" s="978"/>
       <c r="H16" s="672"/>
       <c r="J16" s="674"/>
       <c r="K16" s="924"/>
@@ -45444,12 +45444,12 @@
       <c r="Z16" s="675"/>
     </row>
     <row r="17" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B17" s="980"/>
-      <c r="C17" s="980"/>
-      <c r="D17" s="980"/>
-      <c r="E17" s="980"/>
-      <c r="F17" s="980"/>
-      <c r="G17" s="980"/>
+      <c r="B17" s="978"/>
+      <c r="C17" s="978"/>
+      <c r="D17" s="978"/>
+      <c r="E17" s="978"/>
+      <c r="F17" s="978"/>
+      <c r="G17" s="978"/>
       <c r="H17" s="672"/>
       <c r="J17" s="674"/>
       <c r="K17" s="924"/>
@@ -46700,12 +46700,12 @@
       <c r="T59" s="714"/>
     </row>
     <row r="60" spans="1:20" ht="25" hidden="1" customHeight="1">
-      <c r="B60" s="987" t="s">
+      <c r="B60" s="996" t="s">
         <v>487</v>
       </c>
-      <c r="C60" s="987"/>
-      <c r="D60" s="987"/>
-      <c r="E60" s="987"/>
+      <c r="C60" s="996"/>
+      <c r="D60" s="996"/>
+      <c r="E60" s="996"/>
       <c r="M60" s="664"/>
     </row>
     <row r="61" spans="1:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -46965,12 +46965,12 @@
       <c r="R69" s="685"/>
     </row>
     <row r="70" spans="2:20" ht="25" hidden="1" customHeight="1">
-      <c r="B70" s="987" t="s">
+      <c r="B70" s="996" t="s">
         <v>487</v>
       </c>
-      <c r="C70" s="987"/>
-      <c r="D70" s="987"/>
-      <c r="E70" s="987"/>
+      <c r="C70" s="996"/>
+      <c r="D70" s="996"/>
+      <c r="E70" s="996"/>
       <c r="M70" s="664"/>
     </row>
     <row r="71" spans="2:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -47355,38 +47355,38 @@
       <c r="M86" s="664"/>
     </row>
     <row r="87" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B87" s="980" t="s">
+      <c r="B87" s="978" t="s">
         <v>591</v>
       </c>
-      <c r="C87" s="980"/>
-      <c r="D87" s="980"/>
-      <c r="E87" s="980"/>
-      <c r="F87" s="980"/>
-      <c r="G87" s="980"/>
+      <c r="C87" s="978"/>
+      <c r="D87" s="978"/>
+      <c r="E87" s="978"/>
+      <c r="F87" s="978"/>
+      <c r="G87" s="978"/>
       <c r="H87" s="672"/>
       <c r="J87" s="674"/>
       <c r="K87" s="924"/>
       <c r="M87" s="664"/>
     </row>
     <row r="88" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B88" s="980"/>
-      <c r="C88" s="980"/>
-      <c r="D88" s="980"/>
-      <c r="E88" s="980"/>
-      <c r="F88" s="980"/>
-      <c r="G88" s="980"/>
+      <c r="B88" s="978"/>
+      <c r="C88" s="978"/>
+      <c r="D88" s="978"/>
+      <c r="E88" s="978"/>
+      <c r="F88" s="978"/>
+      <c r="G88" s="978"/>
       <c r="H88" s="672"/>
       <c r="J88" s="674"/>
       <c r="K88" s="924"/>
       <c r="M88" s="664"/>
     </row>
     <row r="89" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B89" s="980"/>
-      <c r="C89" s="980"/>
-      <c r="D89" s="980"/>
-      <c r="E89" s="980"/>
-      <c r="F89" s="980"/>
-      <c r="G89" s="980"/>
+      <c r="B89" s="978"/>
+      <c r="C89" s="978"/>
+      <c r="D89" s="978"/>
+      <c r="E89" s="978"/>
+      <c r="F89" s="978"/>
+      <c r="G89" s="978"/>
       <c r="H89" s="672"/>
       <c r="J89" s="674"/>
       <c r="K89" s="924"/>
@@ -47585,14 +47585,14 @@
       <c r="C100" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="984" t="s">
+      <c r="D100" s="992" t="s">
         <v>225</v>
       </c>
-      <c r="E100" s="984"/>
-      <c r="F100" s="984"/>
-      <c r="G100" s="984"/>
-      <c r="H100" s="984"/>
-      <c r="I100" s="984"/>
+      <c r="E100" s="992"/>
+      <c r="F100" s="992"/>
+      <c r="G100" s="992"/>
+      <c r="H100" s="992"/>
+      <c r="I100" s="992"/>
       <c r="J100" s="131"/>
       <c r="K100" s="939"/>
       <c r="L100" s="680"/>
@@ -47633,15 +47633,15 @@
       <c r="C102" s="604" t="s">
         <v>415</v>
       </c>
-      <c r="D102" s="983">
+      <c r="D102" s="991">
         <f>S3_archive.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E102" s="983"/>
-      <c r="F102" s="983"/>
-      <c r="G102" s="983"/>
-      <c r="H102" s="983"/>
-      <c r="I102" s="983"/>
+      <c r="E102" s="991"/>
+      <c r="F102" s="991"/>
+      <c r="G102" s="991"/>
+      <c r="H102" s="991"/>
+      <c r="I102" s="991"/>
       <c r="J102" s="884"/>
       <c r="K102" s="946"/>
       <c r="L102" s="680"/>
@@ -47655,15 +47655,15 @@
       <c r="C103" s="616" t="s">
         <v>416</v>
       </c>
-      <c r="D103" s="988">
+      <c r="D103" s="989">
         <f>S3_archive.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E103" s="988"/>
-      <c r="F103" s="988"/>
-      <c r="G103" s="988"/>
-      <c r="H103" s="988"/>
-      <c r="I103" s="988"/>
+      <c r="E103" s="989"/>
+      <c r="F103" s="989"/>
+      <c r="G103" s="989"/>
+      <c r="H103" s="989"/>
+      <c r="I103" s="989"/>
       <c r="J103" s="886"/>
       <c r="K103" s="947"/>
       <c r="L103" s="680"/>
@@ -47677,15 +47677,15 @@
       <c r="C104" s="604" t="s">
         <v>417</v>
       </c>
-      <c r="D104" s="990">
+      <c r="D104" s="980">
         <f>S3_archive.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E104" s="990"/>
-      <c r="F104" s="990"/>
-      <c r="G104" s="990"/>
-      <c r="H104" s="990"/>
-      <c r="I104" s="990"/>
+      <c r="E104" s="980"/>
+      <c r="F104" s="980"/>
+      <c r="G104" s="980"/>
+      <c r="H104" s="980"/>
+      <c r="I104" s="980"/>
       <c r="J104" s="887"/>
       <c r="K104" s="948"/>
       <c r="L104" s="680"/>
@@ -47699,15 +47699,15 @@
       <c r="C105" s="616" t="s">
         <v>418</v>
       </c>
-      <c r="D105" s="988">
+      <c r="D105" s="989">
         <f>S3_archive.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E105" s="988"/>
-      <c r="F105" s="988"/>
-      <c r="G105" s="988"/>
-      <c r="H105" s="988"/>
-      <c r="I105" s="988"/>
+      <c r="E105" s="989"/>
+      <c r="F105" s="989"/>
+      <c r="G105" s="989"/>
+      <c r="H105" s="989"/>
+      <c r="I105" s="989"/>
       <c r="J105" s="886"/>
       <c r="K105" s="947"/>
       <c r="L105" s="680"/>
@@ -47721,15 +47721,15 @@
       <c r="C106" s="608" t="s">
         <v>419</v>
       </c>
-      <c r="D106" s="989" t="str">
+      <c r="D106" s="990" t="str">
         <f>S3_archive.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E106" s="989"/>
-      <c r="F106" s="989"/>
-      <c r="G106" s="989"/>
-      <c r="H106" s="989"/>
-      <c r="I106" s="989"/>
+      <c r="E106" s="990"/>
+      <c r="F106" s="990"/>
+      <c r="G106" s="990"/>
+      <c r="H106" s="990"/>
+      <c r="I106" s="990"/>
       <c r="J106" s="885"/>
       <c r="K106" s="949"/>
       <c r="L106" s="680"/>
@@ -47793,14 +47793,14 @@
       <c r="Q109" s="4"/>
     </row>
     <row r="110" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B110" s="980" t="s">
+      <c r="B110" s="978" t="s">
         <v>592</v>
       </c>
-      <c r="C110" s="980"/>
-      <c r="D110" s="980"/>
-      <c r="E110" s="980"/>
-      <c r="F110" s="980"/>
-      <c r="G110" s="980"/>
+      <c r="C110" s="978"/>
+      <c r="D110" s="978"/>
+      <c r="E110" s="978"/>
+      <c r="F110" s="978"/>
+      <c r="G110" s="978"/>
       <c r="H110" s="672"/>
       <c r="J110" s="674"/>
       <c r="K110" s="924"/>
@@ -47808,12 +47808,12 @@
       <c r="M110" s="664"/>
     </row>
     <row r="111" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B111" s="980"/>
-      <c r="C111" s="980"/>
-      <c r="D111" s="980"/>
-      <c r="E111" s="980"/>
-      <c r="F111" s="980"/>
-      <c r="G111" s="980"/>
+      <c r="B111" s="978"/>
+      <c r="C111" s="978"/>
+      <c r="D111" s="978"/>
+      <c r="E111" s="978"/>
+      <c r="F111" s="978"/>
+      <c r="G111" s="978"/>
       <c r="H111" s="672"/>
       <c r="J111" s="674"/>
       <c r="K111" s="924"/>
@@ -47821,12 +47821,12 @@
       <c r="M111" s="664"/>
     </row>
     <row r="112" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B112" s="980"/>
-      <c r="C112" s="980"/>
-      <c r="D112" s="980"/>
-      <c r="E112" s="980"/>
-      <c r="F112" s="980"/>
-      <c r="G112" s="980"/>
+      <c r="B112" s="978"/>
+      <c r="C112" s="978"/>
+      <c r="D112" s="978"/>
+      <c r="E112" s="978"/>
+      <c r="F112" s="978"/>
+      <c r="G112" s="978"/>
       <c r="H112" s="672"/>
       <c r="J112" s="674"/>
       <c r="K112" s="924"/>
@@ -48110,14 +48110,14 @@
       <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B125" s="980" t="s">
+      <c r="B125" s="978" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="980"/>
-      <c r="D125" s="980"/>
-      <c r="E125" s="980"/>
-      <c r="F125" s="980"/>
-      <c r="G125" s="980"/>
+      <c r="C125" s="978"/>
+      <c r="D125" s="978"/>
+      <c r="E125" s="978"/>
+      <c r="F125" s="978"/>
+      <c r="G125" s="978"/>
       <c r="H125" s="672"/>
       <c r="J125" s="674"/>
       <c r="K125" s="924"/>
@@ -48125,12 +48125,12 @@
       <c r="M125" s="664"/>
     </row>
     <row r="126" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B126" s="980"/>
-      <c r="C126" s="980"/>
-      <c r="D126" s="980"/>
-      <c r="E126" s="980"/>
-      <c r="F126" s="980"/>
-      <c r="G126" s="980"/>
+      <c r="B126" s="978"/>
+      <c r="C126" s="978"/>
+      <c r="D126" s="978"/>
+      <c r="E126" s="978"/>
+      <c r="F126" s="978"/>
+      <c r="G126" s="978"/>
       <c r="H126" s="672"/>
       <c r="J126" s="674"/>
       <c r="K126" s="924"/>
@@ -48138,12 +48138,12 @@
       <c r="M126" s="664"/>
     </row>
     <row r="127" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B127" s="980"/>
-      <c r="C127" s="980"/>
-      <c r="D127" s="980"/>
-      <c r="E127" s="980"/>
-      <c r="F127" s="980"/>
-      <c r="G127" s="980"/>
+      <c r="B127" s="978"/>
+      <c r="C127" s="978"/>
+      <c r="D127" s="978"/>
+      <c r="E127" s="978"/>
+      <c r="F127" s="978"/>
+      <c r="G127" s="978"/>
       <c r="H127" s="672"/>
       <c r="J127" s="674"/>
       <c r="K127" s="924"/>
@@ -48229,14 +48229,14 @@
       <c r="B132" s="444" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="991" t="s">
+      <c r="C132" s="979" t="s">
         <v>512</v>
       </c>
-      <c r="D132" s="991"/>
-      <c r="E132" s="991" t="s">
+      <c r="D132" s="979"/>
+      <c r="E132" s="979" t="s">
         <v>513</v>
       </c>
-      <c r="F132" s="991"/>
+      <c r="F132" s="979"/>
       <c r="G132" s="1099" t="s">
         <v>505</v>
       </c>
@@ -48253,14 +48253,14 @@
       <c r="B133" s="826" t="s">
         <v>457</v>
       </c>
-      <c r="C133" s="996" t="s">
+      <c r="C133" s="985" t="s">
         <v>517</v>
       </c>
-      <c r="D133" s="996"/>
-      <c r="E133" s="998" t="s">
+      <c r="D133" s="985"/>
+      <c r="E133" s="987" t="s">
         <v>516</v>
       </c>
-      <c r="F133" s="998"/>
+      <c r="F133" s="987"/>
       <c r="G133" s="901" t="str">
         <f>PAAS_man.kubernetes_EUR</f>
         <v>Request a quote</v>
@@ -48281,14 +48281,14 @@
       <c r="B134" s="137" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="997" t="s">
+      <c r="C134" s="986" t="s">
         <v>514</v>
       </c>
-      <c r="D134" s="997"/>
-      <c r="E134" s="999" t="s">
+      <c r="D134" s="986"/>
+      <c r="E134" s="988" t="s">
         <v>515</v>
       </c>
-      <c r="F134" s="999"/>
+      <c r="F134" s="988"/>
       <c r="G134" s="902" t="str">
         <f>PAAS_man.kubernetes8_EUR</f>
         <v>Request a quote</v>
@@ -48399,38 +48399,38 @@
       <c r="S138" s="729"/>
     </row>
     <row r="139" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B139" s="980" t="s">
+      <c r="B139" s="978" t="s">
         <v>690</v>
       </c>
-      <c r="C139" s="980"/>
-      <c r="D139" s="980"/>
-      <c r="E139" s="980"/>
-      <c r="F139" s="980"/>
-      <c r="G139" s="980"/>
+      <c r="C139" s="978"/>
+      <c r="D139" s="978"/>
+      <c r="E139" s="978"/>
+      <c r="F139" s="978"/>
+      <c r="G139" s="978"/>
       <c r="H139" s="672"/>
       <c r="J139" s="674"/>
       <c r="K139" s="924"/>
       <c r="M139" s="664"/>
     </row>
     <row r="140" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B140" s="980"/>
-      <c r="C140" s="980"/>
-      <c r="D140" s="980"/>
-      <c r="E140" s="980"/>
-      <c r="F140" s="980"/>
-      <c r="G140" s="980"/>
+      <c r="B140" s="978"/>
+      <c r="C140" s="978"/>
+      <c r="D140" s="978"/>
+      <c r="E140" s="978"/>
+      <c r="F140" s="978"/>
+      <c r="G140" s="978"/>
       <c r="H140" s="672"/>
       <c r="J140" s="674"/>
       <c r="K140" s="924"/>
       <c r="M140" s="664"/>
     </row>
     <row r="141" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B141" s="980"/>
-      <c r="C141" s="980"/>
-      <c r="D141" s="980"/>
-      <c r="E141" s="980"/>
-      <c r="F141" s="980"/>
-      <c r="G141" s="980"/>
+      <c r="B141" s="978"/>
+      <c r="C141" s="978"/>
+      <c r="D141" s="978"/>
+      <c r="E141" s="978"/>
+      <c r="F141" s="978"/>
+      <c r="G141" s="978"/>
       <c r="H141" s="672"/>
       <c r="J141" s="674"/>
       <c r="K141" s="924"/>
@@ -49030,7 +49030,7 @@
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
       <c r="J173" s="40"/>
-      <c r="K173" s="940" t="s">
+      <c r="K173" s="956" t="s">
         <v>683</v>
       </c>
       <c r="M173" s="664"/>
@@ -49072,7 +49072,7 @@
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
       <c r="J175" s="40"/>
-      <c r="K175" s="940" t="s">
+      <c r="K175" s="956" t="s">
         <v>683</v>
       </c>
       <c r="M175" s="664"/>
@@ -49080,20 +49080,20 @@
       <c r="O175" s="8"/>
     </row>
     <row r="176" spans="2:18" ht="25" customHeight="1">
-      <c r="B176" s="134" t="s">
+      <c r="B176" s="137" t="s">
         <v>472</v>
       </c>
-      <c r="C176" s="129"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30" t="s">
+      <c r="C176" s="130"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="30"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="940" t="s">
+      <c r="F176" s="771"/>
+      <c r="G176" s="771"/>
+      <c r="H176" s="771"/>
+      <c r="I176" s="771"/>
+      <c r="J176" s="779"/>
+      <c r="K176" s="941" t="s">
         <v>683</v>
       </c>
       <c r="M176" s="664"/>
@@ -49101,20 +49101,20 @@
       <c r="O176" s="8"/>
     </row>
     <row r="177" spans="2:20" ht="25" customHeight="1">
-      <c r="B177" s="137" t="s">
+      <c r="B177" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="C177" s="130"/>
-      <c r="D177" s="38"/>
-      <c r="E177" s="38" t="s">
+      <c r="C177" s="129"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F177" s="771"/>
-      <c r="G177" s="771"/>
-      <c r="H177" s="771"/>
-      <c r="I177" s="771"/>
-      <c r="J177" s="779"/>
-      <c r="K177" s="941" t="s">
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="956" t="s">
         <v>683</v>
       </c>
       <c r="M177" s="664"/>
@@ -49164,51 +49164,51 @@
       <c r="O180" s="675"/>
     </row>
     <row r="181" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B181" s="980" t="s">
+      <c r="B181" s="978" t="s">
         <v>295</v>
       </c>
-      <c r="C181" s="980"/>
-      <c r="D181" s="980"/>
-      <c r="E181" s="980"/>
-      <c r="F181" s="980"/>
-      <c r="G181" s="980"/>
+      <c r="C181" s="978"/>
+      <c r="D181" s="978"/>
+      <c r="E181" s="978"/>
+      <c r="F181" s="978"/>
+      <c r="G181" s="978"/>
       <c r="H181" s="780"/>
       <c r="J181" s="674"/>
       <c r="K181" s="924"/>
       <c r="M181" s="664"/>
     </row>
     <row r="182" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B182" s="980"/>
-      <c r="C182" s="980"/>
-      <c r="D182" s="980"/>
-      <c r="E182" s="980"/>
-      <c r="F182" s="980"/>
-      <c r="G182" s="980"/>
+      <c r="B182" s="978"/>
+      <c r="C182" s="978"/>
+      <c r="D182" s="978"/>
+      <c r="E182" s="978"/>
+      <c r="F182" s="978"/>
+      <c r="G182" s="978"/>
       <c r="H182" s="780"/>
       <c r="J182" s="674"/>
       <c r="K182" s="924"/>
       <c r="M182" s="664"/>
     </row>
     <row r="183" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B183" s="980"/>
-      <c r="C183" s="980"/>
-      <c r="D183" s="980"/>
-      <c r="E183" s="980"/>
-      <c r="F183" s="980"/>
-      <c r="G183" s="980"/>
+      <c r="B183" s="978"/>
+      <c r="C183" s="978"/>
+      <c r="D183" s="978"/>
+      <c r="E183" s="978"/>
+      <c r="F183" s="978"/>
+      <c r="G183" s="978"/>
       <c r="H183" s="780"/>
       <c r="J183" s="674"/>
       <c r="K183" s="924"/>
       <c r="M183" s="664"/>
     </row>
     <row r="184" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B184" s="981" t="s">
+      <c r="B184" s="999" t="s">
         <v>695</v>
       </c>
-      <c r="C184" s="981"/>
-      <c r="D184" s="981"/>
-      <c r="E184" s="981"/>
-      <c r="F184" s="981"/>
+      <c r="C184" s="999"/>
+      <c r="D184" s="999"/>
+      <c r="E184" s="999"/>
+      <c r="F184" s="999"/>
       <c r="H184" s="780"/>
       <c r="J184" s="674"/>
       <c r="K184" s="924"/>
@@ -49918,14 +49918,14 @@
     </row>
     <row r="219" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A219" s="3"/>
-      <c r="B219" s="978" t="s">
+      <c r="B219" s="997" t="s">
         <v>685</v>
       </c>
-      <c r="C219" s="978"/>
-      <c r="D219" s="978"/>
-      <c r="E219" s="978"/>
-      <c r="F219" s="978"/>
-      <c r="G219" s="978"/>
+      <c r="C219" s="997"/>
+      <c r="D219" s="997"/>
+      <c r="E219" s="997"/>
+      <c r="F219" s="997"/>
+      <c r="G219" s="997"/>
       <c r="H219" s="666"/>
       <c r="I219" s="793"/>
       <c r="J219" s="3"/>
@@ -49935,12 +49935,12 @@
     </row>
     <row r="220" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A220" s="3"/>
-      <c r="B220" s="978"/>
-      <c r="C220" s="978"/>
-      <c r="D220" s="978"/>
-      <c r="E220" s="978"/>
-      <c r="F220" s="978"/>
-      <c r="G220" s="978"/>
+      <c r="B220" s="997"/>
+      <c r="C220" s="997"/>
+      <c r="D220" s="997"/>
+      <c r="E220" s="997"/>
+      <c r="F220" s="997"/>
+      <c r="G220" s="997"/>
       <c r="H220" s="666"/>
       <c r="I220" s="793"/>
       <c r="J220" s="3"/>
@@ -49950,12 +49950,12 @@
     </row>
     <row r="221" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A221" s="3"/>
-      <c r="B221" s="978"/>
-      <c r="C221" s="978"/>
-      <c r="D221" s="978"/>
-      <c r="E221" s="978"/>
-      <c r="F221" s="978"/>
-      <c r="G221" s="978"/>
+      <c r="B221" s="997"/>
+      <c r="C221" s="997"/>
+      <c r="D221" s="997"/>
+      <c r="E221" s="997"/>
+      <c r="F221" s="997"/>
+      <c r="G221" s="997"/>
       <c r="H221" s="666"/>
       <c r="I221" s="793"/>
       <c r="J221" s="3"/>
@@ -50950,25 +50950,14 @@
       <c r="D328" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bt02u/Wwh3uByHGyTdvuV/dNpW3VLfMgvVhWsQMrT3fGG8PGTR8bPt74HzPSxIm8SzfTqDMyhtlt++b8CY8V4g==" saltValue="uKScgTgNb4auAIvrNDc+iA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vBlm8+x20N7neGXfPW+6gPboyYZIeZ1g0qnTeJUgWwZhPOD5tlmlLv1xcD6zuYsx9YHW1jkmKYTw/P/ZUWakIg==" saltValue="lK1EdqQDkAZu6eUYQv5eNA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="36">
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B87:G89"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B219:G221"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B139:G141"/>
+    <mergeCell ref="B181:G183"/>
     <mergeCell ref="C133:D133"/>
     <mergeCell ref="E133:F133"/>
     <mergeCell ref="D105:E105"/>
@@ -50982,12 +50971,23 @@
     <mergeCell ref="C132:D132"/>
     <mergeCell ref="E132:F132"/>
     <mergeCell ref="G132:H132"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B219:G221"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B139:G141"/>
-    <mergeCell ref="B181:G183"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B87:G89"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I26:I39 K26:K39 I47:I56 K47:K56 I62:I65 K62:K65 I72:I74 K72:K74 I81:I83 K81:K83 I95:I96 K95:K96 I118:I120 K118:K120 J119:J120">
@@ -51093,8 +51093,8 @@
     </row>
     <row r="4" spans="1:26" ht="25" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="985"/>
-      <c r="C4" s="985"/>
+      <c r="B4" s="993"/>
+      <c r="C4" s="993"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -51255,14 +51255,14 @@
       <c r="M14" s="664"/>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B15" s="980" t="s">
+      <c r="B15" s="978" t="s">
         <v>590</v>
       </c>
-      <c r="C15" s="980"/>
-      <c r="D15" s="980"/>
-      <c r="E15" s="980"/>
-      <c r="F15" s="980"/>
-      <c r="G15" s="980"/>
+      <c r="C15" s="978"/>
+      <c r="D15" s="978"/>
+      <c r="E15" s="978"/>
+      <c r="F15" s="978"/>
+      <c r="G15" s="978"/>
       <c r="H15" s="672"/>
       <c r="J15" s="674"/>
       <c r="K15" s="924"/>
@@ -51274,12 +51274,12 @@
       <c r="Z15" s="675"/>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B16" s="980"/>
-      <c r="C16" s="980"/>
-      <c r="D16" s="980"/>
-      <c r="E16" s="980"/>
-      <c r="F16" s="980"/>
-      <c r="G16" s="980"/>
+      <c r="B16" s="978"/>
+      <c r="C16" s="978"/>
+      <c r="D16" s="978"/>
+      <c r="E16" s="978"/>
+      <c r="F16" s="978"/>
+      <c r="G16" s="978"/>
       <c r="H16" s="672"/>
       <c r="J16" s="674"/>
       <c r="K16" s="924"/>
@@ -51291,12 +51291,12 @@
       <c r="Z16" s="675"/>
     </row>
     <row r="17" spans="2:26" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B17" s="980"/>
-      <c r="C17" s="980"/>
-      <c r="D17" s="980"/>
-      <c r="E17" s="980"/>
-      <c r="F17" s="980"/>
-      <c r="G17" s="980"/>
+      <c r="B17" s="978"/>
+      <c r="C17" s="978"/>
+      <c r="D17" s="978"/>
+      <c r="E17" s="978"/>
+      <c r="F17" s="978"/>
+      <c r="G17" s="978"/>
       <c r="H17" s="672"/>
       <c r="J17" s="674"/>
       <c r="K17" s="924"/>
@@ -52547,12 +52547,12 @@
       <c r="T59" s="714"/>
     </row>
     <row r="60" spans="1:20" ht="25" hidden="1" customHeight="1">
-      <c r="B60" s="987" t="s">
+      <c r="B60" s="996" t="s">
         <v>487</v>
       </c>
-      <c r="C60" s="987"/>
-      <c r="D60" s="987"/>
-      <c r="E60" s="987"/>
+      <c r="C60" s="996"/>
+      <c r="D60" s="996"/>
+      <c r="E60" s="996"/>
       <c r="M60" s="664"/>
     </row>
     <row r="61" spans="1:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -52812,12 +52812,12 @@
       <c r="R69" s="685"/>
     </row>
     <row r="70" spans="2:20" ht="25" hidden="1" customHeight="1">
-      <c r="B70" s="987" t="s">
+      <c r="B70" s="996" t="s">
         <v>487</v>
       </c>
-      <c r="C70" s="987"/>
-      <c r="D70" s="987"/>
-      <c r="E70" s="987"/>
+      <c r="C70" s="996"/>
+      <c r="D70" s="996"/>
+      <c r="E70" s="996"/>
       <c r="M70" s="664"/>
     </row>
     <row r="71" spans="2:20" s="715" customFormat="1" ht="25" hidden="1" customHeight="1">
@@ -53202,38 +53202,38 @@
       <c r="M86" s="664"/>
     </row>
     <row r="87" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B87" s="980" t="s">
+      <c r="B87" s="978" t="s">
         <v>591</v>
       </c>
-      <c r="C87" s="980"/>
-      <c r="D87" s="980"/>
-      <c r="E87" s="980"/>
-      <c r="F87" s="980"/>
-      <c r="G87" s="980"/>
+      <c r="C87" s="978"/>
+      <c r="D87" s="978"/>
+      <c r="E87" s="978"/>
+      <c r="F87" s="978"/>
+      <c r="G87" s="978"/>
       <c r="H87" s="672"/>
       <c r="J87" s="674"/>
       <c r="K87" s="924"/>
       <c r="M87" s="664"/>
     </row>
     <row r="88" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B88" s="980"/>
-      <c r="C88" s="980"/>
-      <c r="D88" s="980"/>
-      <c r="E88" s="980"/>
-      <c r="F88" s="980"/>
-      <c r="G88" s="980"/>
+      <c r="B88" s="978"/>
+      <c r="C88" s="978"/>
+      <c r="D88" s="978"/>
+      <c r="E88" s="978"/>
+      <c r="F88" s="978"/>
+      <c r="G88" s="978"/>
       <c r="H88" s="672"/>
       <c r="J88" s="674"/>
       <c r="K88" s="924"/>
       <c r="M88" s="664"/>
     </row>
     <row r="89" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B89" s="980"/>
-      <c r="C89" s="980"/>
-      <c r="D89" s="980"/>
-      <c r="E89" s="980"/>
-      <c r="F89" s="980"/>
-      <c r="G89" s="980"/>
+      <c r="B89" s="978"/>
+      <c r="C89" s="978"/>
+      <c r="D89" s="978"/>
+      <c r="E89" s="978"/>
+      <c r="F89" s="978"/>
+      <c r="G89" s="978"/>
       <c r="H89" s="672"/>
       <c r="J89" s="674"/>
       <c r="K89" s="924"/>
@@ -53432,14 +53432,14 @@
       <c r="C100" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="984" t="s">
+      <c r="D100" s="992" t="s">
         <v>225</v>
       </c>
-      <c r="E100" s="984"/>
-      <c r="F100" s="984"/>
-      <c r="G100" s="984"/>
-      <c r="H100" s="984"/>
-      <c r="I100" s="984"/>
+      <c r="E100" s="992"/>
+      <c r="F100" s="992"/>
+      <c r="G100" s="992"/>
+      <c r="H100" s="992"/>
+      <c r="I100" s="992"/>
       <c r="J100" s="131"/>
       <c r="K100" s="939"/>
       <c r="L100" s="680"/>
@@ -53480,15 +53480,15 @@
       <c r="C102" s="604" t="s">
         <v>415</v>
       </c>
-      <c r="D102" s="983">
+      <c r="D102" s="991">
         <f>S3_archive.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E102" s="983"/>
-      <c r="F102" s="983"/>
-      <c r="G102" s="983"/>
-      <c r="H102" s="983"/>
-      <c r="I102" s="983"/>
+      <c r="E102" s="991"/>
+      <c r="F102" s="991"/>
+      <c r="G102" s="991"/>
+      <c r="H102" s="991"/>
+      <c r="I102" s="991"/>
       <c r="J102" s="884"/>
       <c r="K102" s="946"/>
       <c r="L102" s="680"/>
@@ -53502,15 +53502,15 @@
       <c r="C103" s="616" t="s">
         <v>416</v>
       </c>
-      <c r="D103" s="988">
+      <c r="D103" s="989">
         <f>S3_archive.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E103" s="988"/>
-      <c r="F103" s="988"/>
-      <c r="G103" s="988"/>
-      <c r="H103" s="988"/>
-      <c r="I103" s="988"/>
+      <c r="E103" s="989"/>
+      <c r="F103" s="989"/>
+      <c r="G103" s="989"/>
+      <c r="H103" s="989"/>
+      <c r="I103" s="989"/>
       <c r="J103" s="886"/>
       <c r="K103" s="947"/>
       <c r="L103" s="680"/>
@@ -53524,15 +53524,15 @@
       <c r="C104" s="604" t="s">
         <v>417</v>
       </c>
-      <c r="D104" s="990">
+      <c r="D104" s="980">
         <f>S3_archive.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E104" s="990"/>
-      <c r="F104" s="990"/>
-      <c r="G104" s="990"/>
-      <c r="H104" s="990"/>
-      <c r="I104" s="990"/>
+      <c r="E104" s="980"/>
+      <c r="F104" s="980"/>
+      <c r="G104" s="980"/>
+      <c r="H104" s="980"/>
+      <c r="I104" s="980"/>
       <c r="J104" s="887"/>
       <c r="K104" s="948"/>
       <c r="L104" s="680"/>
@@ -53546,15 +53546,15 @@
       <c r="C105" s="616" t="s">
         <v>418</v>
       </c>
-      <c r="D105" s="988">
+      <c r="D105" s="989">
         <f>S3_archive.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E105" s="988"/>
-      <c r="F105" s="988"/>
-      <c r="G105" s="988"/>
-      <c r="H105" s="988"/>
-      <c r="I105" s="988"/>
+      <c r="E105" s="989"/>
+      <c r="F105" s="989"/>
+      <c r="G105" s="989"/>
+      <c r="H105" s="989"/>
+      <c r="I105" s="989"/>
       <c r="J105" s="886"/>
       <c r="K105" s="947"/>
       <c r="L105" s="680"/>
@@ -53568,15 +53568,15 @@
       <c r="C106" s="608" t="s">
         <v>419</v>
       </c>
-      <c r="D106" s="989" t="str">
+      <c r="D106" s="990" t="str">
         <f>S3_archive.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E106" s="989"/>
-      <c r="F106" s="989"/>
-      <c r="G106" s="989"/>
-      <c r="H106" s="989"/>
-      <c r="I106" s="989"/>
+      <c r="E106" s="990"/>
+      <c r="F106" s="990"/>
+      <c r="G106" s="990"/>
+      <c r="H106" s="990"/>
+      <c r="I106" s="990"/>
       <c r="J106" s="885"/>
       <c r="K106" s="949"/>
       <c r="L106" s="680"/>
@@ -53640,14 +53640,14 @@
       <c r="Q109" s="4"/>
     </row>
     <row r="110" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B110" s="980" t="s">
+      <c r="B110" s="978" t="s">
         <v>592</v>
       </c>
-      <c r="C110" s="980"/>
-      <c r="D110" s="980"/>
-      <c r="E110" s="980"/>
-      <c r="F110" s="980"/>
-      <c r="G110" s="980"/>
+      <c r="C110" s="978"/>
+      <c r="D110" s="978"/>
+      <c r="E110" s="978"/>
+      <c r="F110" s="978"/>
+      <c r="G110" s="978"/>
       <c r="H110" s="672"/>
       <c r="J110" s="674"/>
       <c r="K110" s="924"/>
@@ -53655,12 +53655,12 @@
       <c r="M110" s="664"/>
     </row>
     <row r="111" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B111" s="980"/>
-      <c r="C111" s="980"/>
-      <c r="D111" s="980"/>
-      <c r="E111" s="980"/>
-      <c r="F111" s="980"/>
-      <c r="G111" s="980"/>
+      <c r="B111" s="978"/>
+      <c r="C111" s="978"/>
+      <c r="D111" s="978"/>
+      <c r="E111" s="978"/>
+      <c r="F111" s="978"/>
+      <c r="G111" s="978"/>
       <c r="H111" s="672"/>
       <c r="J111" s="674"/>
       <c r="K111" s="924"/>
@@ -53668,12 +53668,12 @@
       <c r="M111" s="664"/>
     </row>
     <row r="112" spans="2:19" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B112" s="980"/>
-      <c r="C112" s="980"/>
-      <c r="D112" s="980"/>
-      <c r="E112" s="980"/>
-      <c r="F112" s="980"/>
-      <c r="G112" s="980"/>
+      <c r="B112" s="978"/>
+      <c r="C112" s="978"/>
+      <c r="D112" s="978"/>
+      <c r="E112" s="978"/>
+      <c r="F112" s="978"/>
+      <c r="G112" s="978"/>
       <c r="H112" s="672"/>
       <c r="J112" s="674"/>
       <c r="K112" s="924"/>
@@ -53957,14 +53957,14 @@
       <c r="Q124" s="4"/>
     </row>
     <row r="125" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B125" s="980" t="s">
+      <c r="B125" s="978" t="s">
         <v>427</v>
       </c>
-      <c r="C125" s="980"/>
-      <c r="D125" s="980"/>
-      <c r="E125" s="980"/>
-      <c r="F125" s="980"/>
-      <c r="G125" s="980"/>
+      <c r="C125" s="978"/>
+      <c r="D125" s="978"/>
+      <c r="E125" s="978"/>
+      <c r="F125" s="978"/>
+      <c r="G125" s="978"/>
       <c r="H125" s="672"/>
       <c r="J125" s="674"/>
       <c r="K125" s="924"/>
@@ -53972,12 +53972,12 @@
       <c r="M125" s="664"/>
     </row>
     <row r="126" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B126" s="980"/>
-      <c r="C126" s="980"/>
-      <c r="D126" s="980"/>
-      <c r="E126" s="980"/>
-      <c r="F126" s="980"/>
-      <c r="G126" s="980"/>
+      <c r="B126" s="978"/>
+      <c r="C126" s="978"/>
+      <c r="D126" s="978"/>
+      <c r="E126" s="978"/>
+      <c r="F126" s="978"/>
+      <c r="G126" s="978"/>
       <c r="H126" s="672"/>
       <c r="J126" s="674"/>
       <c r="K126" s="924"/>
@@ -53985,12 +53985,12 @@
       <c r="M126" s="664"/>
     </row>
     <row r="127" spans="2:32" s="4" customFormat="1" ht="25" hidden="1" customHeight="1">
-      <c r="B127" s="980"/>
-      <c r="C127" s="980"/>
-      <c r="D127" s="980"/>
-      <c r="E127" s="980"/>
-      <c r="F127" s="980"/>
-      <c r="G127" s="980"/>
+      <c r="B127" s="978"/>
+      <c r="C127" s="978"/>
+      <c r="D127" s="978"/>
+      <c r="E127" s="978"/>
+      <c r="F127" s="978"/>
+      <c r="G127" s="978"/>
       <c r="H127" s="672"/>
       <c r="J127" s="674"/>
       <c r="K127" s="924"/>
@@ -54076,14 +54076,14 @@
       <c r="B132" s="444" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="991" t="s">
+      <c r="C132" s="979" t="s">
         <v>512</v>
       </c>
-      <c r="D132" s="991"/>
-      <c r="E132" s="991" t="s">
+      <c r="D132" s="979"/>
+      <c r="E132" s="979" t="s">
         <v>513</v>
       </c>
-      <c r="F132" s="991"/>
+      <c r="F132" s="979"/>
       <c r="G132" s="1099" t="s">
         <v>505</v>
       </c>
@@ -54100,14 +54100,14 @@
       <c r="B133" s="826" t="s">
         <v>457</v>
       </c>
-      <c r="C133" s="996" t="s">
+      <c r="C133" s="985" t="s">
         <v>517</v>
       </c>
-      <c r="D133" s="996"/>
-      <c r="E133" s="998" t="s">
+      <c r="D133" s="985"/>
+      <c r="E133" s="987" t="s">
         <v>516</v>
       </c>
-      <c r="F133" s="998"/>
+      <c r="F133" s="987"/>
       <c r="G133" s="901" t="str">
         <f>PAAS_man.kubernetes_EUR</f>
         <v>Request a quote</v>
@@ -54128,14 +54128,14 @@
       <c r="B134" s="137" t="s">
         <v>458</v>
       </c>
-      <c r="C134" s="997" t="s">
+      <c r="C134" s="986" t="s">
         <v>514</v>
       </c>
-      <c r="D134" s="997"/>
-      <c r="E134" s="999" t="s">
+      <c r="D134" s="986"/>
+      <c r="E134" s="988" t="s">
         <v>515</v>
       </c>
-      <c r="F134" s="999"/>
+      <c r="F134" s="988"/>
       <c r="G134" s="902" t="str">
         <f>PAAS_man.kubernetes8_EUR</f>
         <v>Request a quote</v>
@@ -54246,38 +54246,38 @@
       <c r="S138" s="729"/>
     </row>
     <row r="139" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B139" s="980" t="s">
+      <c r="B139" s="978" t="s">
         <v>100</v>
       </c>
-      <c r="C139" s="980"/>
-      <c r="D139" s="980"/>
-      <c r="E139" s="980"/>
-      <c r="F139" s="980"/>
-      <c r="G139" s="980"/>
+      <c r="C139" s="978"/>
+      <c r="D139" s="978"/>
+      <c r="E139" s="978"/>
+      <c r="F139" s="978"/>
+      <c r="G139" s="978"/>
       <c r="H139" s="672"/>
       <c r="J139" s="674"/>
       <c r="K139" s="924"/>
       <c r="M139" s="664"/>
     </row>
     <row r="140" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B140" s="980"/>
-      <c r="C140" s="980"/>
-      <c r="D140" s="980"/>
-      <c r="E140" s="980"/>
-      <c r="F140" s="980"/>
-      <c r="G140" s="980"/>
+      <c r="B140" s="978"/>
+      <c r="C140" s="978"/>
+      <c r="D140" s="978"/>
+      <c r="E140" s="978"/>
+      <c r="F140" s="978"/>
+      <c r="G140" s="978"/>
       <c r="H140" s="672"/>
       <c r="J140" s="674"/>
       <c r="K140" s="924"/>
       <c r="M140" s="664"/>
     </row>
     <row r="141" spans="2:32" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B141" s="980"/>
-      <c r="C141" s="980"/>
-      <c r="D141" s="980"/>
-      <c r="E141" s="980"/>
-      <c r="F141" s="980"/>
-      <c r="G141" s="980"/>
+      <c r="B141" s="978"/>
+      <c r="C141" s="978"/>
+      <c r="D141" s="978"/>
+      <c r="E141" s="978"/>
+      <c r="F141" s="978"/>
+      <c r="G141" s="978"/>
       <c r="H141" s="672"/>
       <c r="J141" s="674"/>
       <c r="K141" s="924"/>
@@ -54882,7 +54882,7 @@
       <c r="H173" s="30"/>
       <c r="I173" s="30"/>
       <c r="J173" s="40"/>
-      <c r="K173" s="940" t="str">
+      <c r="K173" s="956" t="str">
         <f>PAAS_man.elasticsearch_EUR</f>
         <v>Request a quote</v>
       </c>
@@ -54926,7 +54926,7 @@
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
       <c r="J175" s="40"/>
-      <c r="K175" s="940" t="str">
+      <c r="K175" s="956" t="str">
         <f>PAAS_man.nats_EUR</f>
         <v>Request a quote</v>
       </c>
@@ -54935,20 +54935,20 @@
       <c r="O175" s="8"/>
     </row>
     <row r="176" spans="2:18" ht="25" customHeight="1">
-      <c r="B176" s="134" t="s">
+      <c r="B176" s="137" t="s">
         <v>472</v>
       </c>
-      <c r="C176" s="129"/>
-      <c r="D176" s="30"/>
-      <c r="E176" s="30" t="s">
+      <c r="C176" s="130"/>
+      <c r="D176" s="38"/>
+      <c r="E176" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="F176" s="30"/>
-      <c r="G176" s="30"/>
-      <c r="H176" s="30"/>
-      <c r="I176" s="30"/>
-      <c r="J176" s="40"/>
-      <c r="K176" s="940" t="str">
+      <c r="F176" s="771"/>
+      <c r="G176" s="771"/>
+      <c r="H176" s="771"/>
+      <c r="I176" s="771"/>
+      <c r="J176" s="779"/>
+      <c r="K176" s="941" t="str">
         <f>PAAS_man.mariadb_EUR</f>
         <v>Request a quote</v>
       </c>
@@ -54957,20 +54957,20 @@
       <c r="O176" s="8"/>
     </row>
     <row r="177" spans="2:20" ht="25" customHeight="1">
-      <c r="B177" s="137" t="s">
+      <c r="B177" s="134" t="s">
         <v>435</v>
       </c>
-      <c r="C177" s="130"/>
-      <c r="D177" s="38"/>
-      <c r="E177" s="38" t="s">
+      <c r="C177" s="129"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="F177" s="771"/>
-      <c r="G177" s="771"/>
-      <c r="H177" s="771"/>
-      <c r="I177" s="771"/>
-      <c r="J177" s="779"/>
-      <c r="K177" s="941" t="str">
+      <c r="F177" s="30"/>
+      <c r="G177" s="30"/>
+      <c r="H177" s="30"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="956" t="str">
         <f>PAAS_man.redis_EUR</f>
         <v>Request a quote</v>
       </c>
@@ -55021,64 +55021,64 @@
       <c r="O180" s="675"/>
     </row>
     <row r="181" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B181" s="980" t="s">
+      <c r="B181" s="978" t="s">
         <v>525</v>
       </c>
-      <c r="C181" s="980"/>
-      <c r="D181" s="980"/>
-      <c r="E181" s="980"/>
-      <c r="F181" s="980"/>
-      <c r="G181" s="980"/>
+      <c r="C181" s="978"/>
+      <c r="D181" s="978"/>
+      <c r="E181" s="978"/>
+      <c r="F181" s="978"/>
+      <c r="G181" s="978"/>
       <c r="H181" s="780"/>
       <c r="J181" s="674"/>
       <c r="K181" s="924"/>
       <c r="M181" s="664"/>
     </row>
     <row r="182" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B182" s="980"/>
-      <c r="C182" s="980"/>
-      <c r="D182" s="980"/>
-      <c r="E182" s="980"/>
-      <c r="F182" s="980"/>
-      <c r="G182" s="980"/>
+      <c r="B182" s="978"/>
+      <c r="C182" s="978"/>
+      <c r="D182" s="978"/>
+      <c r="E182" s="978"/>
+      <c r="F182" s="978"/>
+      <c r="G182" s="978"/>
       <c r="H182" s="780"/>
       <c r="J182" s="674"/>
       <c r="K182" s="924"/>
       <c r="M182" s="664"/>
     </row>
     <row r="183" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B183" s="980"/>
-      <c r="C183" s="980"/>
-      <c r="D183" s="980"/>
-      <c r="E183" s="980"/>
-      <c r="F183" s="980"/>
-      <c r="G183" s="980"/>
+      <c r="B183" s="978"/>
+      <c r="C183" s="978"/>
+      <c r="D183" s="978"/>
+      <c r="E183" s="978"/>
+      <c r="F183" s="978"/>
+      <c r="G183" s="978"/>
       <c r="H183" s="780"/>
       <c r="J183" s="674"/>
       <c r="K183" s="924"/>
       <c r="M183" s="664"/>
     </row>
     <row r="184" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B184" s="981" t="s">
+      <c r="B184" s="999" t="s">
         <v>526</v>
       </c>
-      <c r="C184" s="981"/>
-      <c r="D184" s="981"/>
-      <c r="E184" s="981"/>
-      <c r="F184" s="981"/>
+      <c r="C184" s="999"/>
+      <c r="D184" s="999"/>
+      <c r="E184" s="999"/>
+      <c r="F184" s="999"/>
       <c r="H184" s="780"/>
       <c r="J184" s="674"/>
       <c r="K184" s="924"/>
       <c r="M184" s="664"/>
     </row>
     <row r="185" spans="2:20" s="4" customFormat="1" ht="25" customHeight="1">
-      <c r="B185" s="982" t="s">
+      <c r="B185" s="994" t="s">
         <v>527</v>
       </c>
-      <c r="C185" s="982"/>
-      <c r="D185" s="982"/>
-      <c r="E185" s="982"/>
-      <c r="F185" s="982"/>
+      <c r="C185" s="994"/>
+      <c r="D185" s="994"/>
+      <c r="E185" s="994"/>
+      <c r="F185" s="994"/>
       <c r="G185" s="677"/>
       <c r="H185" s="678"/>
       <c r="I185" s="677"/>
@@ -55775,14 +55775,14 @@
     </row>
     <row r="219" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A219" s="3"/>
-      <c r="B219" s="978" t="s">
+      <c r="B219" s="997" t="s">
         <v>538</v>
       </c>
-      <c r="C219" s="978"/>
-      <c r="D219" s="978"/>
-      <c r="E219" s="978"/>
-      <c r="F219" s="978"/>
-      <c r="G219" s="978"/>
+      <c r="C219" s="997"/>
+      <c r="D219" s="997"/>
+      <c r="E219" s="997"/>
+      <c r="F219" s="997"/>
+      <c r="G219" s="997"/>
       <c r="H219" s="666"/>
       <c r="I219" s="793"/>
       <c r="J219" s="3"/>
@@ -55792,12 +55792,12 @@
     </row>
     <row r="220" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A220" s="3"/>
-      <c r="B220" s="978"/>
-      <c r="C220" s="978"/>
-      <c r="D220" s="978"/>
-      <c r="E220" s="978"/>
-      <c r="F220" s="978"/>
-      <c r="G220" s="978"/>
+      <c r="B220" s="997"/>
+      <c r="C220" s="997"/>
+      <c r="D220" s="997"/>
+      <c r="E220" s="997"/>
+      <c r="F220" s="997"/>
+      <c r="G220" s="997"/>
       <c r="H220" s="666"/>
       <c r="I220" s="793"/>
       <c r="J220" s="3"/>
@@ -55807,12 +55807,12 @@
     </row>
     <row r="221" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A221" s="3"/>
-      <c r="B221" s="978"/>
-      <c r="C221" s="978"/>
-      <c r="D221" s="978"/>
-      <c r="E221" s="978"/>
-      <c r="F221" s="978"/>
-      <c r="G221" s="978"/>
+      <c r="B221" s="997"/>
+      <c r="C221" s="997"/>
+      <c r="D221" s="997"/>
+      <c r="E221" s="997"/>
+      <c r="F221" s="997"/>
+      <c r="G221" s="997"/>
       <c r="H221" s="666"/>
       <c r="I221" s="793"/>
       <c r="J221" s="3"/>
@@ -55822,13 +55822,13 @@
     </row>
     <row r="222" spans="1:18" s="4" customFormat="1" ht="25" customHeight="1">
       <c r="A222" s="3"/>
-      <c r="B222" s="979" t="s">
+      <c r="B222" s="998" t="s">
         <v>527</v>
       </c>
-      <c r="C222" s="979"/>
-      <c r="D222" s="979"/>
-      <c r="E222" s="979"/>
-      <c r="F222" s="979"/>
+      <c r="C222" s="998"/>
+      <c r="D222" s="998"/>
+      <c r="E222" s="998"/>
+      <c r="F222" s="998"/>
       <c r="G222" s="3"/>
       <c r="H222" s="666"/>
       <c r="I222" s="793"/>
@@ -56807,25 +56807,16 @@
       <c r="D328" s="96"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2Ti+O/P2ivi2MVRqMyTH4TOpodzkBPyfVqYMMxesFXOpDvtt8/ymUTNG0rWkg6wTNdl2GstrVT8LV4ACZ14EKg==" saltValue="b87FjtctqVGXMgKbyJCh0w==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ipgUkE/3UaUdh5BHXPzsvdC1lgHxPFAMXwlpQTT0EOK3PFB9ssmUWtKAaP1RwpbQbkYLJTEgCxnyrTgaMo0Dhg==" saltValue="Uvoo4yxIA4bm2D+2eh8sxA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="B87:G89"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="B219:G221"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="B139:G141"/>
+    <mergeCell ref="B181:G183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
     <mergeCell ref="C133:D133"/>
     <mergeCell ref="E133:F133"/>
     <mergeCell ref="D105:E105"/>
@@ -56839,15 +56830,25 @@
     <mergeCell ref="C132:D132"/>
     <mergeCell ref="E132:F132"/>
     <mergeCell ref="G132:H132"/>
-    <mergeCell ref="B219:G221"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="B139:G141"/>
-    <mergeCell ref="B181:G183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="B87:G89"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I26:I39 K26:K39 I47:I56 K47:K56 I62:I65 K62:K65 I72:I74 K72:K74 I81:I83 K81:K83 I95:I96 K95:K96 I118:I120 K118:K120 J119:J120">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -58356,12 +58357,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C43B81DAFEB6E48968C393326E48C35" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a23f9dfcdc266b5b4c12f0b9b2cf1b4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b02d781b-7fa0-453e-8cce-8f68a10659e7" xmlns:ns3="c4dd6bfd-0b07-4feb-8f84-e45213ea2541" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b4fc46962918bb3113e74a1ac17ba51c" ns2:_="" ns3:_="">
     <xsd:import namespace="b02d781b-7fa0-453e-8cce-8f68a10659e7"/>
@@ -58584,6 +58579,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C46745-0CBD-4C75-8F94-6E13A1C2423A}">
   <ds:schemaRefs>
@@ -58593,23 +58594,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198DA55C-3E04-43BC-9C10-F76F453885EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c4dd6bfd-0b07-4feb-8f84-e45213ea2541"/>
-    <ds:schemaRef ds:uri="b02d781b-7fa0-453e-8cce-8f68a10659e7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35F1C602-D89D-4AF8-95E1-57CBE5619EBB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58626,4 +58610,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198DA55C-3E04-43BC-9C10-F76F453885EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c4dd6bfd-0b07-4feb-8f84-e45213ea2541"/>
+    <ds:schemaRef ds:uri="b02d781b-7fa0-453e-8cce-8f68a10659e7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>